--- a/other1/etc/office/99others/B5試作.xlsx
+++ b/other1/etc/office/99others/B5試作.xlsx
@@ -9,11 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7035"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7035" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="B5試作" sheetId="1" r:id="rId1"/>
+    <sheet name="B5試作　片面" sheetId="2" r:id="rId2"/>
+    <sheet name="B5試作　両面" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'B5試作　両面'!$A$1:$DD$85</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -23,9 +28,18 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="1">
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -36,6 +50,14 @@
     </font>
     <font>
       <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="5"/>
+      <color theme="1" tint="0.249977111117893"/>
       <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -56,7 +78,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -73,13 +95,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="1" tint="0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -89,6 +120,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -369,45 +404,74 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:BA85"/>
+  <dimension ref="B1:BA86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="BD87" sqref="BD87"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.375" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.25" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="4.75" customWidth="1"/>
+    <col min="2" max="2" width="2.375" customWidth="1"/>
     <col min="3" max="3" width="0.5" customWidth="1"/>
+    <col min="4" max="4" width="2.375" customWidth="1"/>
     <col min="5" max="5" width="0.5" customWidth="1"/>
+    <col min="6" max="6" width="2.375" customWidth="1"/>
     <col min="7" max="7" width="0.5" customWidth="1"/>
+    <col min="8" max="8" width="2.375" customWidth="1"/>
     <col min="9" max="9" width="0.5" customWidth="1"/>
+    <col min="10" max="10" width="2.375" customWidth="1"/>
     <col min="11" max="11" width="0.5" customWidth="1"/>
+    <col min="12" max="12" width="2.375" customWidth="1"/>
     <col min="13" max="13" width="0.5" customWidth="1"/>
+    <col min="14" max="14" width="2.375" customWidth="1"/>
     <col min="15" max="15" width="0.5" customWidth="1"/>
+    <col min="16" max="16" width="2.375" customWidth="1"/>
     <col min="17" max="17" width="0.5" customWidth="1"/>
+    <col min="18" max="18" width="2.375" customWidth="1"/>
     <col min="19" max="19" width="0.5" customWidth="1"/>
+    <col min="20" max="20" width="2.375" customWidth="1"/>
     <col min="21" max="21" width="0.5" customWidth="1"/>
+    <col min="22" max="22" width="2.375" customWidth="1"/>
     <col min="23" max="23" width="0.5" customWidth="1"/>
+    <col min="24" max="24" width="2.375" customWidth="1"/>
     <col min="25" max="25" width="0.5" customWidth="1"/>
+    <col min="26" max="26" width="2.375" customWidth="1"/>
     <col min="27" max="27" width="0.5" customWidth="1"/>
+    <col min="28" max="28" width="2.375" customWidth="1"/>
     <col min="29" max="29" width="0.5" customWidth="1"/>
+    <col min="30" max="30" width="2.375" customWidth="1"/>
     <col min="31" max="31" width="0.5" customWidth="1"/>
+    <col min="32" max="32" width="2.375" customWidth="1"/>
     <col min="33" max="33" width="0.5" customWidth="1"/>
+    <col min="34" max="34" width="2.375" customWidth="1"/>
     <col min="35" max="35" width="0.5" customWidth="1"/>
+    <col min="36" max="36" width="2.375" customWidth="1"/>
     <col min="37" max="37" width="0.5" customWidth="1"/>
+    <col min="38" max="38" width="2.375" customWidth="1"/>
     <col min="39" max="39" width="0.5" customWidth="1"/>
+    <col min="40" max="40" width="2.375" customWidth="1"/>
     <col min="41" max="41" width="0.5" customWidth="1"/>
+    <col min="42" max="42" width="2.375" customWidth="1"/>
     <col min="43" max="43" width="0.5" customWidth="1"/>
+    <col min="44" max="44" width="2.375" customWidth="1"/>
     <col min="45" max="45" width="0.5" customWidth="1"/>
+    <col min="46" max="46" width="2.375" customWidth="1"/>
     <col min="47" max="47" width="0.5" customWidth="1"/>
+    <col min="48" max="48" width="2.375" customWidth="1"/>
     <col min="49" max="49" width="0.5" customWidth="1"/>
+    <col min="50" max="50" width="2.375" customWidth="1"/>
     <col min="51" max="51" width="0.5" customWidth="1"/>
+    <col min="52" max="52" width="2.375" customWidth="1"/>
     <col min="53" max="53" width="0.5" customWidth="1"/>
+    <col min="54" max="54" width="2.375" customWidth="1"/>
     <col min="55" max="55" width="0.5" customWidth="1"/>
+    <col min="56" max="16384" width="2.375" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:53" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="2:53" ht="3" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
@@ -462,6 +526,7 @@
       <c r="AZ3" s="1"/>
       <c r="BA3" s="2"/>
     </row>
+    <row r="4" spans="2:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="5" spans="2:53" ht="3" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
@@ -516,6 +581,7 @@
       <c r="AZ5" s="1"/>
       <c r="BA5" s="2"/>
     </row>
+    <row r="6" spans="2:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="7" spans="2:53" ht="3" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -570,6 +636,7 @@
       <c r="AZ7" s="1"/>
       <c r="BA7" s="2"/>
     </row>
+    <row r="8" spans="2:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="2:53" ht="3" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -624,6 +691,7 @@
       <c r="AZ9" s="1"/>
       <c r="BA9" s="2"/>
     </row>
+    <row r="10" spans="2:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="11" spans="2:53" ht="3" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -678,6 +746,7 @@
       <c r="AZ11" s="1"/>
       <c r="BA11" s="2"/>
     </row>
+    <row r="12" spans="2:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="13" spans="2:53" ht="3" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -732,6 +801,7 @@
       <c r="AZ13" s="1"/>
       <c r="BA13" s="2"/>
     </row>
+    <row r="14" spans="2:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="15" spans="2:53" ht="3" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -786,6 +856,7 @@
       <c r="AZ15" s="1"/>
       <c r="BA15" s="2"/>
     </row>
+    <row r="16" spans="2:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="17" spans="2:53" ht="3" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="1"/>
       <c r="C17" s="2"/>
@@ -840,6 +911,7 @@
       <c r="AZ17" s="1"/>
       <c r="BA17" s="2"/>
     </row>
+    <row r="18" spans="2:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="2:53" ht="3" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="1"/>
       <c r="C19" s="2"/>
@@ -894,6 +966,7 @@
       <c r="AZ19" s="1"/>
       <c r="BA19" s="2"/>
     </row>
+    <row r="20" spans="2:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="21" spans="2:53" ht="3" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="1"/>
       <c r="C21" s="2"/>
@@ -948,6 +1021,7 @@
       <c r="AZ21" s="1"/>
       <c r="BA21" s="2"/>
     </row>
+    <row r="22" spans="2:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="23" spans="2:53" ht="3" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="1"/>
       <c r="C23" s="2"/>
@@ -1002,6 +1076,7 @@
       <c r="AZ23" s="1"/>
       <c r="BA23" s="2"/>
     </row>
+    <row r="24" spans="2:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="25" spans="2:53" ht="3" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="1"/>
       <c r="C25" s="2"/>
@@ -1056,6 +1131,7 @@
       <c r="AZ25" s="1"/>
       <c r="BA25" s="2"/>
     </row>
+    <row r="26" spans="2:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="27" spans="2:53" ht="3" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="1"/>
       <c r="C27" s="2"/>
@@ -1110,6 +1186,7 @@
       <c r="AZ27" s="1"/>
       <c r="BA27" s="2"/>
     </row>
+    <row r="28" spans="2:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="29" spans="2:53" ht="3" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="1"/>
       <c r="C29" s="2"/>
@@ -1164,6 +1241,7 @@
       <c r="AZ29" s="1"/>
       <c r="BA29" s="2"/>
     </row>
+    <row r="30" spans="2:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="2:53" ht="3" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="1"/>
       <c r="C31" s="2"/>
@@ -1218,6 +1296,7 @@
       <c r="AZ31" s="1"/>
       <c r="BA31" s="2"/>
     </row>
+    <row r="32" spans="2:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="33" spans="2:53" ht="3" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="1"/>
       <c r="C33" s="2"/>
@@ -1272,6 +1351,7 @@
       <c r="AZ33" s="1"/>
       <c r="BA33" s="2"/>
     </row>
+    <row r="34" spans="2:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="35" spans="2:53" ht="3" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="1"/>
       <c r="C35" s="2"/>
@@ -1326,6 +1406,7 @@
       <c r="AZ35" s="1"/>
       <c r="BA35" s="2"/>
     </row>
+    <row r="36" spans="2:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="37" spans="2:53" ht="3" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B37" s="1"/>
       <c r="C37" s="2"/>
@@ -1380,6 +1461,7 @@
       <c r="AZ37" s="1"/>
       <c r="BA37" s="2"/>
     </row>
+    <row r="38" spans="2:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="39" spans="2:53" ht="3" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B39" s="1"/>
       <c r="C39" s="2"/>
@@ -1434,6 +1516,7 @@
       <c r="AZ39" s="1"/>
       <c r="BA39" s="2"/>
     </row>
+    <row r="40" spans="2:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="41" spans="2:53" ht="3" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="1"/>
       <c r="C41" s="2"/>
@@ -1488,6 +1571,7 @@
       <c r="AZ41" s="1"/>
       <c r="BA41" s="2"/>
     </row>
+    <row r="42" spans="2:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="43" spans="2:53" ht="3" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" s="1"/>
       <c r="C43" s="2"/>
@@ -1542,6 +1626,7 @@
       <c r="AZ43" s="1"/>
       <c r="BA43" s="2"/>
     </row>
+    <row r="44" spans="2:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="45" spans="2:53" ht="3" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="1"/>
       <c r="C45" s="2"/>
@@ -1596,6 +1681,7 @@
       <c r="AZ45" s="1"/>
       <c r="BA45" s="2"/>
     </row>
+    <row r="46" spans="2:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="47" spans="2:53" ht="3" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="1"/>
       <c r="C47" s="2"/>
@@ -1650,6 +1736,7 @@
       <c r="AZ47" s="1"/>
       <c r="BA47" s="2"/>
     </row>
+    <row r="48" spans="2:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="49" spans="2:53" ht="3" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B49" s="1"/>
       <c r="C49" s="2"/>
@@ -1704,6 +1791,7 @@
       <c r="AZ49" s="1"/>
       <c r="BA49" s="2"/>
     </row>
+    <row r="50" spans="2:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="51" spans="2:53" ht="3" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B51" s="1"/>
       <c r="C51" s="2"/>
@@ -1758,6 +1846,7 @@
       <c r="AZ51" s="1"/>
       <c r="BA51" s="2"/>
     </row>
+    <row r="52" spans="2:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="53" spans="2:53" ht="3" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B53" s="1"/>
       <c r="C53" s="2"/>
@@ -1812,6 +1901,7 @@
       <c r="AZ53" s="1"/>
       <c r="BA53" s="2"/>
     </row>
+    <row r="54" spans="2:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="55" spans="2:53" ht="3" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B55" s="1"/>
       <c r="C55" s="2"/>
@@ -1866,6 +1956,7 @@
       <c r="AZ55" s="1"/>
       <c r="BA55" s="2"/>
     </row>
+    <row r="56" spans="2:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="57" spans="2:53" ht="3" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B57" s="1"/>
       <c r="C57" s="2"/>
@@ -1920,6 +2011,7 @@
       <c r="AZ57" s="1"/>
       <c r="BA57" s="2"/>
     </row>
+    <row r="58" spans="2:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="59" spans="2:53" ht="3" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B59" s="1"/>
       <c r="C59" s="2"/>
@@ -1974,6 +2066,7 @@
       <c r="AZ59" s="1"/>
       <c r="BA59" s="2"/>
     </row>
+    <row r="60" spans="2:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="61" spans="2:53" ht="3" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="1"/>
       <c r="C61" s="2"/>
@@ -2028,6 +2121,7 @@
       <c r="AZ61" s="1"/>
       <c r="BA61" s="2"/>
     </row>
+    <row r="62" spans="2:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="63" spans="2:53" ht="3" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B63" s="1"/>
       <c r="C63" s="2"/>
@@ -2082,6 +2176,7 @@
       <c r="AZ63" s="1"/>
       <c r="BA63" s="2"/>
     </row>
+    <row r="64" spans="2:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="65" spans="2:53" ht="3" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B65" s="1"/>
       <c r="C65" s="2"/>
@@ -2136,6 +2231,7 @@
       <c r="AZ65" s="1"/>
       <c r="BA65" s="2"/>
     </row>
+    <row r="66" spans="2:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="67" spans="2:53" ht="3" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B67" s="1"/>
       <c r="C67" s="2"/>
@@ -2190,6 +2286,7 @@
       <c r="AZ67" s="1"/>
       <c r="BA67" s="2"/>
     </row>
+    <row r="68" spans="2:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="69" spans="2:53" ht="3" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B69" s="1"/>
       <c r="C69" s="2"/>
@@ -2244,6 +2341,7 @@
       <c r="AZ69" s="1"/>
       <c r="BA69" s="2"/>
     </row>
+    <row r="70" spans="2:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="71" spans="2:53" ht="3" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B71" s="1"/>
       <c r="C71" s="2"/>
@@ -2298,6 +2396,7 @@
       <c r="AZ71" s="1"/>
       <c r="BA71" s="2"/>
     </row>
+    <row r="72" spans="2:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="73" spans="2:53" ht="3" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B73" s="1"/>
       <c r="C73" s="2"/>
@@ -2352,6 +2451,7 @@
       <c r="AZ73" s="1"/>
       <c r="BA73" s="2"/>
     </row>
+    <row r="74" spans="2:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="75" spans="2:53" ht="3" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="1"/>
       <c r="C75" s="2"/>
@@ -2406,6 +2506,7 @@
       <c r="AZ75" s="1"/>
       <c r="BA75" s="2"/>
     </row>
+    <row r="76" spans="2:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="77" spans="2:53" ht="3" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="1"/>
       <c r="C77" s="2"/>
@@ -2460,6 +2561,7 @@
       <c r="AZ77" s="1"/>
       <c r="BA77" s="2"/>
     </row>
+    <row r="78" spans="2:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="79" spans="2:53" ht="3" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="1"/>
       <c r="C79" s="2"/>
@@ -2514,6 +2616,7 @@
       <c r="AZ79" s="1"/>
       <c r="BA79" s="2"/>
     </row>
+    <row r="80" spans="2:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="81" spans="2:53" ht="3" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="1"/>
       <c r="C81" s="2"/>
@@ -2568,6 +2671,7 @@
       <c r="AZ81" s="1"/>
       <c r="BA81" s="2"/>
     </row>
+    <row r="82" spans="2:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="83" spans="2:53" ht="3" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B83" s="1"/>
       <c r="C83" s="2"/>
@@ -2622,6 +2726,7 @@
       <c r="AZ83" s="1"/>
       <c r="BA83" s="2"/>
     </row>
+    <row r="84" spans="2:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="85" spans="2:53" ht="3" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="1"/>
       <c r="C85" s="2"/>
@@ -2676,6 +2781,6923 @@
       <c r="AZ85" s="1"/>
       <c r="BA85" s="2"/>
     </row>
+    <row r="86" spans="2:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="13" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:BA86"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:BC1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.25" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="4.75" customWidth="1"/>
+    <col min="2" max="2" width="2.375" customWidth="1"/>
+    <col min="3" max="3" width="0.5" customWidth="1"/>
+    <col min="4" max="4" width="2.375" customWidth="1"/>
+    <col min="5" max="5" width="0.5" customWidth="1"/>
+    <col min="6" max="6" width="2.375" customWidth="1"/>
+    <col min="7" max="7" width="0.5" customWidth="1"/>
+    <col min="8" max="8" width="2.375" customWidth="1"/>
+    <col min="9" max="9" width="0.5" customWidth="1"/>
+    <col min="10" max="10" width="2.375" customWidth="1"/>
+    <col min="11" max="11" width="0.5" customWidth="1"/>
+    <col min="12" max="12" width="2.375" customWidth="1"/>
+    <col min="13" max="13" width="0.5" customWidth="1"/>
+    <col min="14" max="14" width="2.375" customWidth="1"/>
+    <col min="15" max="15" width="0.5" customWidth="1"/>
+    <col min="16" max="16" width="2.375" customWidth="1"/>
+    <col min="17" max="17" width="0.5" customWidth="1"/>
+    <col min="18" max="18" width="2.375" customWidth="1"/>
+    <col min="19" max="19" width="0.5" customWidth="1"/>
+    <col min="20" max="20" width="2.375" customWidth="1"/>
+    <col min="21" max="21" width="0.5" customWidth="1"/>
+    <col min="22" max="22" width="2.375" customWidth="1"/>
+    <col min="23" max="23" width="0.5" customWidth="1"/>
+    <col min="24" max="24" width="2.375" customWidth="1"/>
+    <col min="25" max="25" width="0.5" customWidth="1"/>
+    <col min="26" max="26" width="2.375" customWidth="1"/>
+    <col min="27" max="27" width="0.5" customWidth="1"/>
+    <col min="28" max="28" width="2.375" customWidth="1"/>
+    <col min="29" max="29" width="0.5" customWidth="1"/>
+    <col min="30" max="30" width="2.375" customWidth="1"/>
+    <col min="31" max="31" width="0.5" customWidth="1"/>
+    <col min="32" max="32" width="2.375" customWidth="1"/>
+    <col min="33" max="33" width="0.5" customWidth="1"/>
+    <col min="34" max="34" width="2.375" customWidth="1"/>
+    <col min="35" max="35" width="0.5" customWidth="1"/>
+    <col min="36" max="36" width="2.375" customWidth="1"/>
+    <col min="37" max="37" width="0.5" customWidth="1"/>
+    <col min="38" max="38" width="2.375" customWidth="1"/>
+    <col min="39" max="39" width="0.5" customWidth="1"/>
+    <col min="40" max="40" width="2.375" customWidth="1"/>
+    <col min="41" max="41" width="0.5" customWidth="1"/>
+    <col min="42" max="42" width="2.375" customWidth="1"/>
+    <col min="43" max="43" width="0.5" customWidth="1"/>
+    <col min="44" max="44" width="2.375" customWidth="1"/>
+    <col min="45" max="45" width="0.5" customWidth="1"/>
+    <col min="46" max="46" width="2.375" customWidth="1"/>
+    <col min="47" max="47" width="0.5" customWidth="1"/>
+    <col min="48" max="48" width="2.375" customWidth="1"/>
+    <col min="49" max="49" width="0.5" customWidth="1"/>
+    <col min="50" max="50" width="2.375" customWidth="1"/>
+    <col min="51" max="51" width="0.5" customWidth="1"/>
+    <col min="52" max="52" width="2.375" customWidth="1"/>
+    <col min="53" max="53" width="0.5" customWidth="1"/>
+    <col min="54" max="54" width="2.375" customWidth="1"/>
+    <col min="55" max="55" width="0.5" customWidth="1"/>
+    <col min="56" max="16384" width="2.375" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:53" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:53" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="3"/>
+      <c r="AF3" s="3"/>
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="3"/>
+      <c r="AI3" s="3"/>
+      <c r="AJ3" s="3"/>
+      <c r="AK3" s="3"/>
+      <c r="AL3" s="3"/>
+      <c r="AM3" s="3"/>
+    </row>
+    <row r="4" spans="2:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="2:53" ht="3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="1"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="2"/>
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="2"/>
+      <c r="AH5" s="1"/>
+      <c r="AI5" s="2"/>
+      <c r="AJ5" s="1"/>
+      <c r="AK5" s="2"/>
+      <c r="AL5" s="1"/>
+      <c r="AM5" s="2"/>
+      <c r="AN5" s="1"/>
+      <c r="AO5" s="2"/>
+      <c r="AP5" s="1"/>
+      <c r="AQ5" s="2"/>
+      <c r="AR5" s="1"/>
+      <c r="AS5" s="2"/>
+      <c r="AT5" s="1"/>
+      <c r="AU5" s="2"/>
+      <c r="AV5" s="1"/>
+      <c r="AW5" s="2"/>
+      <c r="AX5" s="1"/>
+      <c r="AY5" s="2"/>
+      <c r="AZ5" s="1"/>
+      <c r="BA5" s="2"/>
+    </row>
+    <row r="6" spans="2:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="7" spans="2:53" ht="3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="1"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="1"/>
+      <c r="AG7" s="2"/>
+      <c r="AH7" s="1"/>
+      <c r="AI7" s="2"/>
+      <c r="AJ7" s="1"/>
+      <c r="AK7" s="2"/>
+      <c r="AL7" s="1"/>
+      <c r="AM7" s="2"/>
+      <c r="AN7" s="1"/>
+      <c r="AO7" s="2"/>
+      <c r="AP7" s="1"/>
+      <c r="AQ7" s="2"/>
+      <c r="AR7" s="1"/>
+      <c r="AS7" s="2"/>
+      <c r="AT7" s="1"/>
+      <c r="AU7" s="2"/>
+      <c r="AV7" s="1"/>
+      <c r="AW7" s="2"/>
+      <c r="AX7" s="1"/>
+      <c r="AY7" s="2"/>
+      <c r="AZ7" s="1"/>
+      <c r="BA7" s="2"/>
+    </row>
+    <row r="8" spans="2:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="2:53" ht="3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="1"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="1"/>
+      <c r="AG9" s="2"/>
+      <c r="AH9" s="1"/>
+      <c r="AI9" s="2"/>
+      <c r="AJ9" s="1"/>
+      <c r="AK9" s="2"/>
+      <c r="AL9" s="1"/>
+      <c r="AM9" s="2"/>
+      <c r="AN9" s="1"/>
+      <c r="AO9" s="2"/>
+      <c r="AP9" s="1"/>
+      <c r="AQ9" s="2"/>
+      <c r="AR9" s="1"/>
+      <c r="AS9" s="2"/>
+      <c r="AT9" s="1"/>
+      <c r="AU9" s="2"/>
+      <c r="AV9" s="1"/>
+      <c r="AW9" s="2"/>
+      <c r="AX9" s="1"/>
+      <c r="AY9" s="2"/>
+      <c r="AZ9" s="1"/>
+      <c r="BA9" s="2"/>
+    </row>
+    <row r="10" spans="2:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="11" spans="2:53" ht="3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="1"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="2"/>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="2"/>
+      <c r="AF11" s="1"/>
+      <c r="AG11" s="2"/>
+      <c r="AH11" s="1"/>
+      <c r="AI11" s="2"/>
+      <c r="AJ11" s="1"/>
+      <c r="AK11" s="2"/>
+      <c r="AL11" s="1"/>
+      <c r="AM11" s="2"/>
+      <c r="AN11" s="1"/>
+      <c r="AO11" s="2"/>
+      <c r="AP11" s="1"/>
+      <c r="AQ11" s="2"/>
+      <c r="AR11" s="1"/>
+      <c r="AS11" s="2"/>
+      <c r="AT11" s="1"/>
+      <c r="AU11" s="2"/>
+      <c r="AV11" s="1"/>
+      <c r="AW11" s="2"/>
+      <c r="AX11" s="1"/>
+      <c r="AY11" s="2"/>
+      <c r="AZ11" s="1"/>
+      <c r="BA11" s="2"/>
+    </row>
+    <row r="12" spans="2:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="13" spans="2:53" ht="3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="1"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="2"/>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="2"/>
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="2"/>
+      <c r="AH13" s="1"/>
+      <c r="AI13" s="2"/>
+      <c r="AJ13" s="1"/>
+      <c r="AK13" s="2"/>
+      <c r="AL13" s="1"/>
+      <c r="AM13" s="2"/>
+      <c r="AN13" s="1"/>
+      <c r="AO13" s="2"/>
+      <c r="AP13" s="1"/>
+      <c r="AQ13" s="2"/>
+      <c r="AR13" s="1"/>
+      <c r="AS13" s="2"/>
+      <c r="AT13" s="1"/>
+      <c r="AU13" s="2"/>
+      <c r="AV13" s="1"/>
+      <c r="AW13" s="2"/>
+      <c r="AX13" s="1"/>
+      <c r="AY13" s="2"/>
+      <c r="AZ13" s="1"/>
+      <c r="BA13" s="2"/>
+    </row>
+    <row r="14" spans="2:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="15" spans="2:53" ht="3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="1"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="2"/>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="2"/>
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="2"/>
+      <c r="AF15" s="1"/>
+      <c r="AG15" s="2"/>
+      <c r="AH15" s="1"/>
+      <c r="AI15" s="2"/>
+      <c r="AJ15" s="1"/>
+      <c r="AK15" s="2"/>
+      <c r="AL15" s="1"/>
+      <c r="AM15" s="2"/>
+      <c r="AN15" s="1"/>
+      <c r="AO15" s="2"/>
+      <c r="AP15" s="1"/>
+      <c r="AQ15" s="2"/>
+      <c r="AR15" s="1"/>
+      <c r="AS15" s="2"/>
+      <c r="AT15" s="1"/>
+      <c r="AU15" s="2"/>
+      <c r="AV15" s="1"/>
+      <c r="AW15" s="2"/>
+      <c r="AX15" s="1"/>
+      <c r="AY15" s="2"/>
+      <c r="AZ15" s="1"/>
+      <c r="BA15" s="2"/>
+    </row>
+    <row r="16" spans="2:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="17" spans="2:53" ht="3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="1"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="2"/>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="2"/>
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="2"/>
+      <c r="AF17" s="1"/>
+      <c r="AG17" s="2"/>
+      <c r="AH17" s="1"/>
+      <c r="AI17" s="2"/>
+      <c r="AJ17" s="1"/>
+      <c r="AK17" s="2"/>
+      <c r="AL17" s="1"/>
+      <c r="AM17" s="2"/>
+      <c r="AN17" s="1"/>
+      <c r="AO17" s="2"/>
+      <c r="AP17" s="1"/>
+      <c r="AQ17" s="2"/>
+      <c r="AR17" s="1"/>
+      <c r="AS17" s="2"/>
+      <c r="AT17" s="1"/>
+      <c r="AU17" s="2"/>
+      <c r="AV17" s="1"/>
+      <c r="AW17" s="2"/>
+      <c r="AX17" s="1"/>
+      <c r="AY17" s="2"/>
+      <c r="AZ17" s="1"/>
+      <c r="BA17" s="2"/>
+    </row>
+    <row r="18" spans="2:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="19" spans="2:53" ht="3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="1"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="2"/>
+      <c r="AD19" s="1"/>
+      <c r="AE19" s="2"/>
+      <c r="AF19" s="1"/>
+      <c r="AG19" s="2"/>
+      <c r="AH19" s="1"/>
+      <c r="AI19" s="2"/>
+      <c r="AJ19" s="1"/>
+      <c r="AK19" s="2"/>
+      <c r="AL19" s="1"/>
+      <c r="AM19" s="2"/>
+      <c r="AN19" s="1"/>
+      <c r="AO19" s="2"/>
+      <c r="AP19" s="1"/>
+      <c r="AQ19" s="2"/>
+      <c r="AR19" s="1"/>
+      <c r="AS19" s="2"/>
+      <c r="AT19" s="1"/>
+      <c r="AU19" s="2"/>
+      <c r="AV19" s="1"/>
+      <c r="AW19" s="2"/>
+      <c r="AX19" s="1"/>
+      <c r="AY19" s="2"/>
+      <c r="AZ19" s="1"/>
+      <c r="BA19" s="2"/>
+    </row>
+    <row r="20" spans="2:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="21" spans="2:53" ht="3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="1"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="2"/>
+      <c r="AB21" s="1"/>
+      <c r="AC21" s="2"/>
+      <c r="AD21" s="1"/>
+      <c r="AE21" s="2"/>
+      <c r="AF21" s="1"/>
+      <c r="AG21" s="2"/>
+      <c r="AH21" s="1"/>
+      <c r="AI21" s="2"/>
+      <c r="AJ21" s="1"/>
+      <c r="AK21" s="2"/>
+      <c r="AL21" s="1"/>
+      <c r="AM21" s="2"/>
+      <c r="AN21" s="1"/>
+      <c r="AO21" s="2"/>
+      <c r="AP21" s="1"/>
+      <c r="AQ21" s="2"/>
+      <c r="AR21" s="1"/>
+      <c r="AS21" s="2"/>
+      <c r="AT21" s="1"/>
+      <c r="AU21" s="2"/>
+      <c r="AV21" s="1"/>
+      <c r="AW21" s="2"/>
+      <c r="AX21" s="1"/>
+      <c r="AY21" s="2"/>
+      <c r="AZ21" s="1"/>
+      <c r="BA21" s="2"/>
+    </row>
+    <row r="22" spans="2:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="23" spans="2:53" ht="3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="1"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="2"/>
+      <c r="AB23" s="1"/>
+      <c r="AC23" s="2"/>
+      <c r="AD23" s="1"/>
+      <c r="AE23" s="2"/>
+      <c r="AF23" s="1"/>
+      <c r="AG23" s="2"/>
+      <c r="AH23" s="1"/>
+      <c r="AI23" s="2"/>
+      <c r="AJ23" s="1"/>
+      <c r="AK23" s="2"/>
+      <c r="AL23" s="1"/>
+      <c r="AM23" s="2"/>
+      <c r="AN23" s="1"/>
+      <c r="AO23" s="2"/>
+      <c r="AP23" s="1"/>
+      <c r="AQ23" s="2"/>
+      <c r="AR23" s="1"/>
+      <c r="AS23" s="2"/>
+      <c r="AT23" s="1"/>
+      <c r="AU23" s="2"/>
+      <c r="AV23" s="1"/>
+      <c r="AW23" s="2"/>
+      <c r="AX23" s="1"/>
+      <c r="AY23" s="2"/>
+      <c r="AZ23" s="1"/>
+      <c r="BA23" s="2"/>
+    </row>
+    <row r="24" spans="2:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="25" spans="2:53" ht="3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="1"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="2"/>
+      <c r="AB25" s="1"/>
+      <c r="AC25" s="2"/>
+      <c r="AD25" s="1"/>
+      <c r="AE25" s="2"/>
+      <c r="AF25" s="1"/>
+      <c r="AG25" s="2"/>
+      <c r="AH25" s="1"/>
+      <c r="AI25" s="2"/>
+      <c r="AJ25" s="1"/>
+      <c r="AK25" s="2"/>
+      <c r="AL25" s="1"/>
+      <c r="AM25" s="2"/>
+      <c r="AN25" s="1"/>
+      <c r="AO25" s="2"/>
+      <c r="AP25" s="1"/>
+      <c r="AQ25" s="2"/>
+      <c r="AR25" s="1"/>
+      <c r="AS25" s="2"/>
+      <c r="AT25" s="1"/>
+      <c r="AU25" s="2"/>
+      <c r="AV25" s="1"/>
+      <c r="AW25" s="2"/>
+      <c r="AX25" s="1"/>
+      <c r="AY25" s="2"/>
+      <c r="AZ25" s="1"/>
+      <c r="BA25" s="2"/>
+    </row>
+    <row r="26" spans="2:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="27" spans="2:53" ht="3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B27" s="1"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="2"/>
+      <c r="AB27" s="1"/>
+      <c r="AC27" s="2"/>
+      <c r="AD27" s="1"/>
+      <c r="AE27" s="2"/>
+      <c r="AF27" s="1"/>
+      <c r="AG27" s="2"/>
+      <c r="AH27" s="1"/>
+      <c r="AI27" s="2"/>
+      <c r="AJ27" s="1"/>
+      <c r="AK27" s="2"/>
+      <c r="AL27" s="1"/>
+      <c r="AM27" s="2"/>
+      <c r="AN27" s="1"/>
+      <c r="AO27" s="2"/>
+      <c r="AP27" s="1"/>
+      <c r="AQ27" s="2"/>
+      <c r="AR27" s="1"/>
+      <c r="AS27" s="2"/>
+      <c r="AT27" s="1"/>
+      <c r="AU27" s="2"/>
+      <c r="AV27" s="1"/>
+      <c r="AW27" s="2"/>
+      <c r="AX27" s="1"/>
+      <c r="AY27" s="2"/>
+      <c r="AZ27" s="1"/>
+      <c r="BA27" s="2"/>
+    </row>
+    <row r="28" spans="2:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="29" spans="2:53" ht="3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="1"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="2"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="2"/>
+      <c r="Z29" s="1"/>
+      <c r="AA29" s="2"/>
+      <c r="AB29" s="1"/>
+      <c r="AC29" s="2"/>
+      <c r="AD29" s="1"/>
+      <c r="AE29" s="2"/>
+      <c r="AF29" s="1"/>
+      <c r="AG29" s="2"/>
+      <c r="AH29" s="1"/>
+      <c r="AI29" s="2"/>
+      <c r="AJ29" s="1"/>
+      <c r="AK29" s="2"/>
+      <c r="AL29" s="1"/>
+      <c r="AM29" s="2"/>
+      <c r="AN29" s="1"/>
+      <c r="AO29" s="2"/>
+      <c r="AP29" s="1"/>
+      <c r="AQ29" s="2"/>
+      <c r="AR29" s="1"/>
+      <c r="AS29" s="2"/>
+      <c r="AT29" s="1"/>
+      <c r="AU29" s="2"/>
+      <c r="AV29" s="1"/>
+      <c r="AW29" s="2"/>
+      <c r="AX29" s="1"/>
+      <c r="AY29" s="2"/>
+      <c r="AZ29" s="1"/>
+      <c r="BA29" s="2"/>
+    </row>
+    <row r="30" spans="2:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="31" spans="2:53" ht="3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B31" s="1"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="2"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="2"/>
+      <c r="Z31" s="1"/>
+      <c r="AA31" s="2"/>
+      <c r="AB31" s="1"/>
+      <c r="AC31" s="2"/>
+      <c r="AD31" s="1"/>
+      <c r="AE31" s="2"/>
+      <c r="AF31" s="1"/>
+      <c r="AG31" s="2"/>
+      <c r="AH31" s="1"/>
+      <c r="AI31" s="2"/>
+      <c r="AJ31" s="1"/>
+      <c r="AK31" s="2"/>
+      <c r="AL31" s="1"/>
+      <c r="AM31" s="2"/>
+      <c r="AN31" s="1"/>
+      <c r="AO31" s="2"/>
+      <c r="AP31" s="1"/>
+      <c r="AQ31" s="2"/>
+      <c r="AR31" s="1"/>
+      <c r="AS31" s="2"/>
+      <c r="AT31" s="1"/>
+      <c r="AU31" s="2"/>
+      <c r="AV31" s="1"/>
+      <c r="AW31" s="2"/>
+      <c r="AX31" s="1"/>
+      <c r="AY31" s="2"/>
+      <c r="AZ31" s="1"/>
+      <c r="BA31" s="2"/>
+    </row>
+    <row r="32" spans="2:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="33" spans="2:53" ht="3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B33" s="1"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="2"/>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="2"/>
+      <c r="Z33" s="1"/>
+      <c r="AA33" s="2"/>
+      <c r="AB33" s="1"/>
+      <c r="AC33" s="2"/>
+      <c r="AD33" s="1"/>
+      <c r="AE33" s="2"/>
+      <c r="AF33" s="1"/>
+      <c r="AG33" s="2"/>
+      <c r="AH33" s="1"/>
+      <c r="AI33" s="2"/>
+      <c r="AJ33" s="1"/>
+      <c r="AK33" s="2"/>
+      <c r="AL33" s="1"/>
+      <c r="AM33" s="2"/>
+      <c r="AN33" s="1"/>
+      <c r="AO33" s="2"/>
+      <c r="AP33" s="1"/>
+      <c r="AQ33" s="2"/>
+      <c r="AR33" s="1"/>
+      <c r="AS33" s="2"/>
+      <c r="AT33" s="1"/>
+      <c r="AU33" s="2"/>
+      <c r="AV33" s="1"/>
+      <c r="AW33" s="2"/>
+      <c r="AX33" s="1"/>
+      <c r="AY33" s="2"/>
+      <c r="AZ33" s="1"/>
+      <c r="BA33" s="2"/>
+    </row>
+    <row r="34" spans="2:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="35" spans="2:53" ht="3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B35" s="1"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="2"/>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="2"/>
+      <c r="Z35" s="1"/>
+      <c r="AA35" s="2"/>
+      <c r="AB35" s="1"/>
+      <c r="AC35" s="2"/>
+      <c r="AD35" s="1"/>
+      <c r="AE35" s="2"/>
+      <c r="AF35" s="1"/>
+      <c r="AG35" s="2"/>
+      <c r="AH35" s="1"/>
+      <c r="AI35" s="2"/>
+      <c r="AJ35" s="1"/>
+      <c r="AK35" s="2"/>
+      <c r="AL35" s="1"/>
+      <c r="AM35" s="2"/>
+      <c r="AN35" s="1"/>
+      <c r="AO35" s="2"/>
+      <c r="AP35" s="1"/>
+      <c r="AQ35" s="2"/>
+      <c r="AR35" s="1"/>
+      <c r="AS35" s="2"/>
+      <c r="AT35" s="1"/>
+      <c r="AU35" s="2"/>
+      <c r="AV35" s="1"/>
+      <c r="AW35" s="2"/>
+      <c r="AX35" s="1"/>
+      <c r="AY35" s="2"/>
+      <c r="AZ35" s="1"/>
+      <c r="BA35" s="2"/>
+    </row>
+    <row r="36" spans="2:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="37" spans="2:53" ht="3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B37" s="1"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="2"/>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="2"/>
+      <c r="Z37" s="1"/>
+      <c r="AA37" s="2"/>
+      <c r="AB37" s="1"/>
+      <c r="AC37" s="2"/>
+      <c r="AD37" s="1"/>
+      <c r="AE37" s="2"/>
+      <c r="AF37" s="1"/>
+      <c r="AG37" s="2"/>
+      <c r="AH37" s="1"/>
+      <c r="AI37" s="2"/>
+      <c r="AJ37" s="1"/>
+      <c r="AK37" s="2"/>
+      <c r="AL37" s="1"/>
+      <c r="AM37" s="2"/>
+      <c r="AN37" s="1"/>
+      <c r="AO37" s="2"/>
+      <c r="AP37" s="1"/>
+      <c r="AQ37" s="2"/>
+      <c r="AR37" s="1"/>
+      <c r="AS37" s="2"/>
+      <c r="AT37" s="1"/>
+      <c r="AU37" s="2"/>
+      <c r="AV37" s="1"/>
+      <c r="AW37" s="2"/>
+      <c r="AX37" s="1"/>
+      <c r="AY37" s="2"/>
+      <c r="AZ37" s="1"/>
+      <c r="BA37" s="2"/>
+    </row>
+    <row r="38" spans="2:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="39" spans="2:53" ht="3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B39" s="1"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="2"/>
+      <c r="V39" s="1"/>
+      <c r="W39" s="2"/>
+      <c r="X39" s="1"/>
+      <c r="Y39" s="2"/>
+      <c r="Z39" s="1"/>
+      <c r="AA39" s="2"/>
+      <c r="AB39" s="1"/>
+      <c r="AC39" s="2"/>
+      <c r="AD39" s="1"/>
+      <c r="AE39" s="2"/>
+      <c r="AF39" s="1"/>
+      <c r="AG39" s="2"/>
+      <c r="AH39" s="1"/>
+      <c r="AI39" s="2"/>
+      <c r="AJ39" s="1"/>
+      <c r="AK39" s="2"/>
+      <c r="AL39" s="1"/>
+      <c r="AM39" s="2"/>
+      <c r="AN39" s="1"/>
+      <c r="AO39" s="2"/>
+      <c r="AP39" s="1"/>
+      <c r="AQ39" s="2"/>
+      <c r="AR39" s="1"/>
+      <c r="AS39" s="2"/>
+      <c r="AT39" s="1"/>
+      <c r="AU39" s="2"/>
+      <c r="AV39" s="1"/>
+      <c r="AW39" s="2"/>
+      <c r="AX39" s="1"/>
+      <c r="AY39" s="2"/>
+      <c r="AZ39" s="1"/>
+      <c r="BA39" s="2"/>
+    </row>
+    <row r="40" spans="2:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="41" spans="2:53" ht="3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B41" s="1"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="1"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="1"/>
+      <c r="W41" s="2"/>
+      <c r="X41" s="1"/>
+      <c r="Y41" s="2"/>
+      <c r="Z41" s="1"/>
+      <c r="AA41" s="2"/>
+      <c r="AB41" s="1"/>
+      <c r="AC41" s="2"/>
+      <c r="AD41" s="1"/>
+      <c r="AE41" s="2"/>
+      <c r="AF41" s="1"/>
+      <c r="AG41" s="2"/>
+      <c r="AH41" s="1"/>
+      <c r="AI41" s="2"/>
+      <c r="AJ41" s="1"/>
+      <c r="AK41" s="2"/>
+      <c r="AL41" s="1"/>
+      <c r="AM41" s="2"/>
+      <c r="AN41" s="1"/>
+      <c r="AO41" s="2"/>
+      <c r="AP41" s="1"/>
+      <c r="AQ41" s="2"/>
+      <c r="AR41" s="1"/>
+      <c r="AS41" s="2"/>
+      <c r="AT41" s="1"/>
+      <c r="AU41" s="2"/>
+      <c r="AV41" s="1"/>
+      <c r="AW41" s="2"/>
+      <c r="AX41" s="1"/>
+      <c r="AY41" s="2"/>
+      <c r="AZ41" s="1"/>
+      <c r="BA41" s="2"/>
+    </row>
+    <row r="42" spans="2:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="43" spans="2:53" ht="3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B43" s="1"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="1"/>
+      <c r="U43" s="2"/>
+      <c r="V43" s="1"/>
+      <c r="W43" s="2"/>
+      <c r="X43" s="1"/>
+      <c r="Y43" s="2"/>
+      <c r="Z43" s="1"/>
+      <c r="AA43" s="2"/>
+      <c r="AB43" s="1"/>
+      <c r="AC43" s="2"/>
+      <c r="AD43" s="1"/>
+      <c r="AE43" s="2"/>
+      <c r="AF43" s="1"/>
+      <c r="AG43" s="2"/>
+      <c r="AH43" s="1"/>
+      <c r="AI43" s="2"/>
+      <c r="AJ43" s="1"/>
+      <c r="AK43" s="2"/>
+      <c r="AL43" s="1"/>
+      <c r="AM43" s="2"/>
+      <c r="AN43" s="1"/>
+      <c r="AO43" s="2"/>
+      <c r="AP43" s="1"/>
+      <c r="AQ43" s="2"/>
+      <c r="AR43" s="1"/>
+      <c r="AS43" s="2"/>
+      <c r="AT43" s="1"/>
+      <c r="AU43" s="2"/>
+      <c r="AV43" s="1"/>
+      <c r="AW43" s="2"/>
+      <c r="AX43" s="1"/>
+      <c r="AY43" s="2"/>
+      <c r="AZ43" s="1"/>
+      <c r="BA43" s="2"/>
+    </row>
+    <row r="44" spans="2:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="45" spans="2:53" ht="3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B45" s="1"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="2"/>
+      <c r="T45" s="1"/>
+      <c r="U45" s="2"/>
+      <c r="V45" s="1"/>
+      <c r="W45" s="2"/>
+      <c r="X45" s="1"/>
+      <c r="Y45" s="2"/>
+      <c r="Z45" s="1"/>
+      <c r="AA45" s="2"/>
+      <c r="AB45" s="1"/>
+      <c r="AC45" s="2"/>
+      <c r="AD45" s="1"/>
+      <c r="AE45" s="2"/>
+      <c r="AF45" s="1"/>
+      <c r="AG45" s="2"/>
+      <c r="AH45" s="1"/>
+      <c r="AI45" s="2"/>
+      <c r="AJ45" s="1"/>
+      <c r="AK45" s="2"/>
+      <c r="AL45" s="1"/>
+      <c r="AM45" s="2"/>
+      <c r="AN45" s="1"/>
+      <c r="AO45" s="2"/>
+      <c r="AP45" s="1"/>
+      <c r="AQ45" s="2"/>
+      <c r="AR45" s="1"/>
+      <c r="AS45" s="2"/>
+      <c r="AT45" s="1"/>
+      <c r="AU45" s="2"/>
+      <c r="AV45" s="1"/>
+      <c r="AW45" s="2"/>
+      <c r="AX45" s="1"/>
+      <c r="AY45" s="2"/>
+      <c r="AZ45" s="1"/>
+      <c r="BA45" s="2"/>
+    </row>
+    <row r="46" spans="2:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="47" spans="2:53" ht="3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B47" s="1"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="2"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="2"/>
+      <c r="R47" s="1"/>
+      <c r="S47" s="2"/>
+      <c r="T47" s="1"/>
+      <c r="U47" s="2"/>
+      <c r="V47" s="1"/>
+      <c r="W47" s="2"/>
+      <c r="X47" s="1"/>
+      <c r="Y47" s="2"/>
+      <c r="Z47" s="1"/>
+      <c r="AA47" s="2"/>
+      <c r="AB47" s="1"/>
+      <c r="AC47" s="2"/>
+      <c r="AD47" s="1"/>
+      <c r="AE47" s="2"/>
+      <c r="AF47" s="1"/>
+      <c r="AG47" s="2"/>
+      <c r="AH47" s="1"/>
+      <c r="AI47" s="2"/>
+      <c r="AJ47" s="1"/>
+      <c r="AK47" s="2"/>
+      <c r="AL47" s="1"/>
+      <c r="AM47" s="2"/>
+      <c r="AN47" s="1"/>
+      <c r="AO47" s="2"/>
+      <c r="AP47" s="1"/>
+      <c r="AQ47" s="2"/>
+      <c r="AR47" s="1"/>
+      <c r="AS47" s="2"/>
+      <c r="AT47" s="1"/>
+      <c r="AU47" s="2"/>
+      <c r="AV47" s="1"/>
+      <c r="AW47" s="2"/>
+      <c r="AX47" s="1"/>
+      <c r="AY47" s="2"/>
+      <c r="AZ47" s="1"/>
+      <c r="BA47" s="2"/>
+    </row>
+    <row r="48" spans="2:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="49" spans="2:53" ht="3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B49" s="1"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="2"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="2"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="2"/>
+      <c r="T49" s="1"/>
+      <c r="U49" s="2"/>
+      <c r="V49" s="1"/>
+      <c r="W49" s="2"/>
+      <c r="X49" s="1"/>
+      <c r="Y49" s="2"/>
+      <c r="Z49" s="1"/>
+      <c r="AA49" s="2"/>
+      <c r="AB49" s="1"/>
+      <c r="AC49" s="2"/>
+      <c r="AD49" s="1"/>
+      <c r="AE49" s="2"/>
+      <c r="AF49" s="1"/>
+      <c r="AG49" s="2"/>
+      <c r="AH49" s="1"/>
+      <c r="AI49" s="2"/>
+      <c r="AJ49" s="1"/>
+      <c r="AK49" s="2"/>
+      <c r="AL49" s="1"/>
+      <c r="AM49" s="2"/>
+      <c r="AN49" s="1"/>
+      <c r="AO49" s="2"/>
+      <c r="AP49" s="1"/>
+      <c r="AQ49" s="2"/>
+      <c r="AR49" s="1"/>
+      <c r="AS49" s="2"/>
+      <c r="AT49" s="1"/>
+      <c r="AU49" s="2"/>
+      <c r="AV49" s="1"/>
+      <c r="AW49" s="2"/>
+      <c r="AX49" s="1"/>
+      <c r="AY49" s="2"/>
+      <c r="AZ49" s="1"/>
+      <c r="BA49" s="2"/>
+    </row>
+    <row r="50" spans="2:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="51" spans="2:53" ht="3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B51" s="1"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="2"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="2"/>
+      <c r="R51" s="1"/>
+      <c r="S51" s="2"/>
+      <c r="T51" s="1"/>
+      <c r="U51" s="2"/>
+      <c r="V51" s="1"/>
+      <c r="W51" s="2"/>
+      <c r="X51" s="1"/>
+      <c r="Y51" s="2"/>
+      <c r="Z51" s="1"/>
+      <c r="AA51" s="2"/>
+      <c r="AB51" s="1"/>
+      <c r="AC51" s="2"/>
+      <c r="AD51" s="1"/>
+      <c r="AE51" s="2"/>
+      <c r="AF51" s="1"/>
+      <c r="AG51" s="2"/>
+      <c r="AH51" s="1"/>
+      <c r="AI51" s="2"/>
+      <c r="AJ51" s="1"/>
+      <c r="AK51" s="2"/>
+      <c r="AL51" s="1"/>
+      <c r="AM51" s="2"/>
+      <c r="AN51" s="1"/>
+      <c r="AO51" s="2"/>
+      <c r="AP51" s="1"/>
+      <c r="AQ51" s="2"/>
+      <c r="AR51" s="1"/>
+      <c r="AS51" s="2"/>
+      <c r="AT51" s="1"/>
+      <c r="AU51" s="2"/>
+      <c r="AV51" s="1"/>
+      <c r="AW51" s="2"/>
+      <c r="AX51" s="1"/>
+      <c r="AY51" s="2"/>
+      <c r="AZ51" s="1"/>
+      <c r="BA51" s="2"/>
+    </row>
+    <row r="52" spans="2:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="53" spans="2:53" ht="3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B53" s="1"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="2"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="2"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="2"/>
+      <c r="R53" s="1"/>
+      <c r="S53" s="2"/>
+      <c r="T53" s="1"/>
+      <c r="U53" s="2"/>
+      <c r="V53" s="1"/>
+      <c r="W53" s="2"/>
+      <c r="X53" s="1"/>
+      <c r="Y53" s="2"/>
+      <c r="Z53" s="1"/>
+      <c r="AA53" s="2"/>
+      <c r="AB53" s="1"/>
+      <c r="AC53" s="2"/>
+      <c r="AD53" s="1"/>
+      <c r="AE53" s="2"/>
+      <c r="AF53" s="1"/>
+      <c r="AG53" s="2"/>
+      <c r="AH53" s="1"/>
+      <c r="AI53" s="2"/>
+      <c r="AJ53" s="1"/>
+      <c r="AK53" s="2"/>
+      <c r="AL53" s="1"/>
+      <c r="AM53" s="2"/>
+      <c r="AN53" s="1"/>
+      <c r="AO53" s="2"/>
+      <c r="AP53" s="1"/>
+      <c r="AQ53" s="2"/>
+      <c r="AR53" s="1"/>
+      <c r="AS53" s="2"/>
+      <c r="AT53" s="1"/>
+      <c r="AU53" s="2"/>
+      <c r="AV53" s="1"/>
+      <c r="AW53" s="2"/>
+      <c r="AX53" s="1"/>
+      <c r="AY53" s="2"/>
+      <c r="AZ53" s="1"/>
+      <c r="BA53" s="2"/>
+    </row>
+    <row r="54" spans="2:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="55" spans="2:53" ht="3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B55" s="1"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="2"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="2"/>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="2"/>
+      <c r="R55" s="1"/>
+      <c r="S55" s="2"/>
+      <c r="T55" s="1"/>
+      <c r="U55" s="2"/>
+      <c r="V55" s="1"/>
+      <c r="W55" s="2"/>
+      <c r="X55" s="1"/>
+      <c r="Y55" s="2"/>
+      <c r="Z55" s="1"/>
+      <c r="AA55" s="2"/>
+      <c r="AB55" s="1"/>
+      <c r="AC55" s="2"/>
+      <c r="AD55" s="1"/>
+      <c r="AE55" s="2"/>
+      <c r="AF55" s="1"/>
+      <c r="AG55" s="2"/>
+      <c r="AH55" s="1"/>
+      <c r="AI55" s="2"/>
+      <c r="AJ55" s="1"/>
+      <c r="AK55" s="2"/>
+      <c r="AL55" s="1"/>
+      <c r="AM55" s="2"/>
+      <c r="AN55" s="1"/>
+      <c r="AO55" s="2"/>
+      <c r="AP55" s="1"/>
+      <c r="AQ55" s="2"/>
+      <c r="AR55" s="1"/>
+      <c r="AS55" s="2"/>
+      <c r="AT55" s="1"/>
+      <c r="AU55" s="2"/>
+      <c r="AV55" s="1"/>
+      <c r="AW55" s="2"/>
+      <c r="AX55" s="1"/>
+      <c r="AY55" s="2"/>
+      <c r="AZ55" s="1"/>
+      <c r="BA55" s="2"/>
+    </row>
+    <row r="56" spans="2:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="57" spans="2:53" ht="3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B57" s="1"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="2"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="2"/>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="2"/>
+      <c r="R57" s="1"/>
+      <c r="S57" s="2"/>
+      <c r="T57" s="1"/>
+      <c r="U57" s="2"/>
+      <c r="V57" s="1"/>
+      <c r="W57" s="2"/>
+      <c r="X57" s="1"/>
+      <c r="Y57" s="2"/>
+      <c r="Z57" s="1"/>
+      <c r="AA57" s="2"/>
+      <c r="AB57" s="1"/>
+      <c r="AC57" s="2"/>
+      <c r="AD57" s="1"/>
+      <c r="AE57" s="2"/>
+      <c r="AF57" s="1"/>
+      <c r="AG57" s="2"/>
+      <c r="AH57" s="1"/>
+      <c r="AI57" s="2"/>
+      <c r="AJ57" s="1"/>
+      <c r="AK57" s="2"/>
+      <c r="AL57" s="1"/>
+      <c r="AM57" s="2"/>
+      <c r="AN57" s="1"/>
+      <c r="AO57" s="2"/>
+      <c r="AP57" s="1"/>
+      <c r="AQ57" s="2"/>
+      <c r="AR57" s="1"/>
+      <c r="AS57" s="2"/>
+      <c r="AT57" s="1"/>
+      <c r="AU57" s="2"/>
+      <c r="AV57" s="1"/>
+      <c r="AW57" s="2"/>
+      <c r="AX57" s="1"/>
+      <c r="AY57" s="2"/>
+      <c r="AZ57" s="1"/>
+      <c r="BA57" s="2"/>
+    </row>
+    <row r="58" spans="2:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="59" spans="2:53" ht="3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B59" s="1"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="2"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="2"/>
+      <c r="P59" s="1"/>
+      <c r="Q59" s="2"/>
+      <c r="R59" s="1"/>
+      <c r="S59" s="2"/>
+      <c r="T59" s="1"/>
+      <c r="U59" s="2"/>
+      <c r="V59" s="1"/>
+      <c r="W59" s="2"/>
+      <c r="X59" s="1"/>
+      <c r="Y59" s="2"/>
+      <c r="Z59" s="1"/>
+      <c r="AA59" s="2"/>
+      <c r="AB59" s="1"/>
+      <c r="AC59" s="2"/>
+      <c r="AD59" s="1"/>
+      <c r="AE59" s="2"/>
+      <c r="AF59" s="1"/>
+      <c r="AG59" s="2"/>
+      <c r="AH59" s="1"/>
+      <c r="AI59" s="2"/>
+      <c r="AJ59" s="1"/>
+      <c r="AK59" s="2"/>
+      <c r="AL59" s="1"/>
+      <c r="AM59" s="2"/>
+      <c r="AN59" s="1"/>
+      <c r="AO59" s="2"/>
+      <c r="AP59" s="1"/>
+      <c r="AQ59" s="2"/>
+      <c r="AR59" s="1"/>
+      <c r="AS59" s="2"/>
+      <c r="AT59" s="1"/>
+      <c r="AU59" s="2"/>
+      <c r="AV59" s="1"/>
+      <c r="AW59" s="2"/>
+      <c r="AX59" s="1"/>
+      <c r="AY59" s="2"/>
+      <c r="AZ59" s="1"/>
+      <c r="BA59" s="2"/>
+    </row>
+    <row r="60" spans="2:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="61" spans="2:53" ht="3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B61" s="1"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="2"/>
+      <c r="N61" s="1"/>
+      <c r="O61" s="2"/>
+      <c r="P61" s="1"/>
+      <c r="Q61" s="2"/>
+      <c r="R61" s="1"/>
+      <c r="S61" s="2"/>
+      <c r="T61" s="1"/>
+      <c r="U61" s="2"/>
+      <c r="V61" s="1"/>
+      <c r="W61" s="2"/>
+      <c r="X61" s="1"/>
+      <c r="Y61" s="2"/>
+      <c r="Z61" s="1"/>
+      <c r="AA61" s="2"/>
+      <c r="AB61" s="1"/>
+      <c r="AC61" s="2"/>
+      <c r="AD61" s="1"/>
+      <c r="AE61" s="2"/>
+      <c r="AF61" s="1"/>
+      <c r="AG61" s="2"/>
+      <c r="AH61" s="1"/>
+      <c r="AI61" s="2"/>
+      <c r="AJ61" s="1"/>
+      <c r="AK61" s="2"/>
+      <c r="AL61" s="1"/>
+      <c r="AM61" s="2"/>
+      <c r="AN61" s="1"/>
+      <c r="AO61" s="2"/>
+      <c r="AP61" s="1"/>
+      <c r="AQ61" s="2"/>
+      <c r="AR61" s="1"/>
+      <c r="AS61" s="2"/>
+      <c r="AT61" s="1"/>
+      <c r="AU61" s="2"/>
+      <c r="AV61" s="1"/>
+      <c r="AW61" s="2"/>
+      <c r="AX61" s="1"/>
+      <c r="AY61" s="2"/>
+      <c r="AZ61" s="1"/>
+      <c r="BA61" s="2"/>
+    </row>
+    <row r="62" spans="2:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="63" spans="2:53" ht="3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B63" s="1"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="2"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="2"/>
+      <c r="N63" s="1"/>
+      <c r="O63" s="2"/>
+      <c r="P63" s="1"/>
+      <c r="Q63" s="2"/>
+      <c r="R63" s="1"/>
+      <c r="S63" s="2"/>
+      <c r="T63" s="1"/>
+      <c r="U63" s="2"/>
+      <c r="V63" s="1"/>
+      <c r="W63" s="2"/>
+      <c r="X63" s="1"/>
+      <c r="Y63" s="2"/>
+      <c r="Z63" s="1"/>
+      <c r="AA63" s="2"/>
+      <c r="AB63" s="1"/>
+      <c r="AC63" s="2"/>
+      <c r="AD63" s="1"/>
+      <c r="AE63" s="2"/>
+      <c r="AF63" s="1"/>
+      <c r="AG63" s="2"/>
+      <c r="AH63" s="1"/>
+      <c r="AI63" s="2"/>
+      <c r="AJ63" s="1"/>
+      <c r="AK63" s="2"/>
+      <c r="AL63" s="1"/>
+      <c r="AM63" s="2"/>
+      <c r="AN63" s="1"/>
+      <c r="AO63" s="2"/>
+      <c r="AP63" s="1"/>
+      <c r="AQ63" s="2"/>
+      <c r="AR63" s="1"/>
+      <c r="AS63" s="2"/>
+      <c r="AT63" s="1"/>
+      <c r="AU63" s="2"/>
+      <c r="AV63" s="1"/>
+      <c r="AW63" s="2"/>
+      <c r="AX63" s="1"/>
+      <c r="AY63" s="2"/>
+      <c r="AZ63" s="1"/>
+      <c r="BA63" s="2"/>
+    </row>
+    <row r="64" spans="2:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="65" spans="2:53" ht="3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B65" s="1"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="2"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="2"/>
+      <c r="N65" s="1"/>
+      <c r="O65" s="2"/>
+      <c r="P65" s="1"/>
+      <c r="Q65" s="2"/>
+      <c r="R65" s="1"/>
+      <c r="S65" s="2"/>
+      <c r="T65" s="1"/>
+      <c r="U65" s="2"/>
+      <c r="V65" s="1"/>
+      <c r="W65" s="2"/>
+      <c r="X65" s="1"/>
+      <c r="Y65" s="2"/>
+      <c r="Z65" s="1"/>
+      <c r="AA65" s="2"/>
+      <c r="AB65" s="1"/>
+      <c r="AC65" s="2"/>
+      <c r="AD65" s="1"/>
+      <c r="AE65" s="2"/>
+      <c r="AF65" s="1"/>
+      <c r="AG65" s="2"/>
+      <c r="AH65" s="1"/>
+      <c r="AI65" s="2"/>
+      <c r="AJ65" s="1"/>
+      <c r="AK65" s="2"/>
+      <c r="AL65" s="1"/>
+      <c r="AM65" s="2"/>
+      <c r="AN65" s="1"/>
+      <c r="AO65" s="2"/>
+      <c r="AP65" s="1"/>
+      <c r="AQ65" s="2"/>
+      <c r="AR65" s="1"/>
+      <c r="AS65" s="2"/>
+      <c r="AT65" s="1"/>
+      <c r="AU65" s="2"/>
+      <c r="AV65" s="1"/>
+      <c r="AW65" s="2"/>
+      <c r="AX65" s="1"/>
+      <c r="AY65" s="2"/>
+      <c r="AZ65" s="1"/>
+      <c r="BA65" s="2"/>
+    </row>
+    <row r="66" spans="2:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="67" spans="2:53" ht="3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B67" s="1"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="2"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="2"/>
+      <c r="N67" s="1"/>
+      <c r="O67" s="2"/>
+      <c r="P67" s="1"/>
+      <c r="Q67" s="2"/>
+      <c r="R67" s="1"/>
+      <c r="S67" s="2"/>
+      <c r="T67" s="1"/>
+      <c r="U67" s="2"/>
+      <c r="V67" s="1"/>
+      <c r="W67" s="2"/>
+      <c r="X67" s="1"/>
+      <c r="Y67" s="2"/>
+      <c r="Z67" s="1"/>
+      <c r="AA67" s="2"/>
+      <c r="AB67" s="1"/>
+      <c r="AC67" s="2"/>
+      <c r="AD67" s="1"/>
+      <c r="AE67" s="2"/>
+      <c r="AF67" s="1"/>
+      <c r="AG67" s="2"/>
+      <c r="AH67" s="1"/>
+      <c r="AI67" s="2"/>
+      <c r="AJ67" s="1"/>
+      <c r="AK67" s="2"/>
+      <c r="AL67" s="1"/>
+      <c r="AM67" s="2"/>
+      <c r="AN67" s="1"/>
+      <c r="AO67" s="2"/>
+      <c r="AP67" s="1"/>
+      <c r="AQ67" s="2"/>
+      <c r="AR67" s="1"/>
+      <c r="AS67" s="2"/>
+      <c r="AT67" s="1"/>
+      <c r="AU67" s="2"/>
+      <c r="AV67" s="1"/>
+      <c r="AW67" s="2"/>
+      <c r="AX67" s="1"/>
+      <c r="AY67" s="2"/>
+      <c r="AZ67" s="1"/>
+      <c r="BA67" s="2"/>
+    </row>
+    <row r="68" spans="2:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="69" spans="2:53" ht="3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B69" s="1"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="2"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="2"/>
+      <c r="N69" s="1"/>
+      <c r="O69" s="2"/>
+      <c r="P69" s="1"/>
+      <c r="Q69" s="2"/>
+      <c r="R69" s="1"/>
+      <c r="S69" s="2"/>
+      <c r="T69" s="1"/>
+      <c r="U69" s="2"/>
+      <c r="V69" s="1"/>
+      <c r="W69" s="2"/>
+      <c r="X69" s="1"/>
+      <c r="Y69" s="2"/>
+      <c r="Z69" s="1"/>
+      <c r="AA69" s="2"/>
+      <c r="AB69" s="1"/>
+      <c r="AC69" s="2"/>
+      <c r="AD69" s="1"/>
+      <c r="AE69" s="2"/>
+      <c r="AF69" s="1"/>
+      <c r="AG69" s="2"/>
+      <c r="AH69" s="1"/>
+      <c r="AI69" s="2"/>
+      <c r="AJ69" s="1"/>
+      <c r="AK69" s="2"/>
+      <c r="AL69" s="1"/>
+      <c r="AM69" s="2"/>
+      <c r="AN69" s="1"/>
+      <c r="AO69" s="2"/>
+      <c r="AP69" s="1"/>
+      <c r="AQ69" s="2"/>
+      <c r="AR69" s="1"/>
+      <c r="AS69" s="2"/>
+      <c r="AT69" s="1"/>
+      <c r="AU69" s="2"/>
+      <c r="AV69" s="1"/>
+      <c r="AW69" s="2"/>
+      <c r="AX69" s="1"/>
+      <c r="AY69" s="2"/>
+      <c r="AZ69" s="1"/>
+      <c r="BA69" s="2"/>
+    </row>
+    <row r="70" spans="2:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="71" spans="2:53" ht="3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B71" s="1"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="2"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="2"/>
+      <c r="N71" s="1"/>
+      <c r="O71" s="2"/>
+      <c r="P71" s="1"/>
+      <c r="Q71" s="2"/>
+      <c r="R71" s="1"/>
+      <c r="S71" s="2"/>
+      <c r="T71" s="1"/>
+      <c r="U71" s="2"/>
+      <c r="V71" s="1"/>
+      <c r="W71" s="2"/>
+      <c r="X71" s="1"/>
+      <c r="Y71" s="2"/>
+      <c r="Z71" s="1"/>
+      <c r="AA71" s="2"/>
+      <c r="AB71" s="1"/>
+      <c r="AC71" s="2"/>
+      <c r="AD71" s="1"/>
+      <c r="AE71" s="2"/>
+      <c r="AF71" s="1"/>
+      <c r="AG71" s="2"/>
+      <c r="AH71" s="1"/>
+      <c r="AI71" s="2"/>
+      <c r="AJ71" s="1"/>
+      <c r="AK71" s="2"/>
+      <c r="AL71" s="1"/>
+      <c r="AM71" s="2"/>
+      <c r="AN71" s="1"/>
+      <c r="AO71" s="2"/>
+      <c r="AP71" s="1"/>
+      <c r="AQ71" s="2"/>
+      <c r="AR71" s="1"/>
+      <c r="AS71" s="2"/>
+      <c r="AT71" s="1"/>
+      <c r="AU71" s="2"/>
+      <c r="AV71" s="1"/>
+      <c r="AW71" s="2"/>
+      <c r="AX71" s="1"/>
+      <c r="AY71" s="2"/>
+      <c r="AZ71" s="1"/>
+      <c r="BA71" s="2"/>
+    </row>
+    <row r="72" spans="2:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="73" spans="2:53" ht="3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B73" s="1"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="2"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="2"/>
+      <c r="N73" s="1"/>
+      <c r="O73" s="2"/>
+      <c r="P73" s="1"/>
+      <c r="Q73" s="2"/>
+      <c r="R73" s="1"/>
+      <c r="S73" s="2"/>
+      <c r="T73" s="1"/>
+      <c r="U73" s="2"/>
+      <c r="V73" s="1"/>
+      <c r="W73" s="2"/>
+      <c r="X73" s="1"/>
+      <c r="Y73" s="2"/>
+      <c r="Z73" s="1"/>
+      <c r="AA73" s="2"/>
+      <c r="AB73" s="1"/>
+      <c r="AC73" s="2"/>
+      <c r="AD73" s="1"/>
+      <c r="AE73" s="2"/>
+      <c r="AF73" s="1"/>
+      <c r="AG73" s="2"/>
+      <c r="AH73" s="1"/>
+      <c r="AI73" s="2"/>
+      <c r="AJ73" s="1"/>
+      <c r="AK73" s="2"/>
+      <c r="AL73" s="1"/>
+      <c r="AM73" s="2"/>
+      <c r="AN73" s="1"/>
+      <c r="AO73" s="2"/>
+      <c r="AP73" s="1"/>
+      <c r="AQ73" s="2"/>
+      <c r="AR73" s="1"/>
+      <c r="AS73" s="2"/>
+      <c r="AT73" s="1"/>
+      <c r="AU73" s="2"/>
+      <c r="AV73" s="1"/>
+      <c r="AW73" s="2"/>
+      <c r="AX73" s="1"/>
+      <c r="AY73" s="2"/>
+      <c r="AZ73" s="1"/>
+      <c r="BA73" s="2"/>
+    </row>
+    <row r="74" spans="2:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="75" spans="2:53" ht="3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B75" s="1"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="2"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="2"/>
+      <c r="N75" s="1"/>
+      <c r="O75" s="2"/>
+      <c r="P75" s="1"/>
+      <c r="Q75" s="2"/>
+      <c r="R75" s="1"/>
+      <c r="S75" s="2"/>
+      <c r="T75" s="1"/>
+      <c r="U75" s="2"/>
+      <c r="V75" s="1"/>
+      <c r="W75" s="2"/>
+      <c r="X75" s="1"/>
+      <c r="Y75" s="2"/>
+      <c r="Z75" s="1"/>
+      <c r="AA75" s="2"/>
+      <c r="AB75" s="1"/>
+      <c r="AC75" s="2"/>
+      <c r="AD75" s="1"/>
+      <c r="AE75" s="2"/>
+      <c r="AF75" s="1"/>
+      <c r="AG75" s="2"/>
+      <c r="AH75" s="1"/>
+      <c r="AI75" s="2"/>
+      <c r="AJ75" s="1"/>
+      <c r="AK75" s="2"/>
+      <c r="AL75" s="1"/>
+      <c r="AM75" s="2"/>
+      <c r="AN75" s="1"/>
+      <c r="AO75" s="2"/>
+      <c r="AP75" s="1"/>
+      <c r="AQ75" s="2"/>
+      <c r="AR75" s="1"/>
+      <c r="AS75" s="2"/>
+      <c r="AT75" s="1"/>
+      <c r="AU75" s="2"/>
+      <c r="AV75" s="1"/>
+      <c r="AW75" s="2"/>
+      <c r="AX75" s="1"/>
+      <c r="AY75" s="2"/>
+      <c r="AZ75" s="1"/>
+      <c r="BA75" s="2"/>
+    </row>
+    <row r="76" spans="2:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="77" spans="2:53" ht="3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B77" s="1"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="2"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="2"/>
+      <c r="N77" s="1"/>
+      <c r="O77" s="2"/>
+      <c r="P77" s="1"/>
+      <c r="Q77" s="2"/>
+      <c r="R77" s="1"/>
+      <c r="S77" s="2"/>
+      <c r="T77" s="1"/>
+      <c r="U77" s="2"/>
+      <c r="V77" s="1"/>
+      <c r="W77" s="2"/>
+      <c r="X77" s="1"/>
+      <c r="Y77" s="2"/>
+      <c r="Z77" s="1"/>
+      <c r="AA77" s="2"/>
+      <c r="AB77" s="1"/>
+      <c r="AC77" s="2"/>
+      <c r="AD77" s="1"/>
+      <c r="AE77" s="2"/>
+      <c r="AF77" s="1"/>
+      <c r="AG77" s="2"/>
+      <c r="AH77" s="1"/>
+      <c r="AI77" s="2"/>
+      <c r="AJ77" s="1"/>
+      <c r="AK77" s="2"/>
+      <c r="AL77" s="1"/>
+      <c r="AM77" s="2"/>
+      <c r="AN77" s="1"/>
+      <c r="AO77" s="2"/>
+      <c r="AP77" s="1"/>
+      <c r="AQ77" s="2"/>
+      <c r="AR77" s="1"/>
+      <c r="AS77" s="2"/>
+      <c r="AT77" s="1"/>
+      <c r="AU77" s="2"/>
+      <c r="AV77" s="1"/>
+      <c r="AW77" s="2"/>
+      <c r="AX77" s="1"/>
+      <c r="AY77" s="2"/>
+      <c r="AZ77" s="1"/>
+      <c r="BA77" s="2"/>
+    </row>
+    <row r="78" spans="2:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="79" spans="2:53" ht="3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B79" s="1"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="2"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="2"/>
+      <c r="N79" s="1"/>
+      <c r="O79" s="2"/>
+      <c r="P79" s="1"/>
+      <c r="Q79" s="2"/>
+      <c r="R79" s="1"/>
+      <c r="S79" s="2"/>
+      <c r="T79" s="1"/>
+      <c r="U79" s="2"/>
+      <c r="V79" s="1"/>
+      <c r="W79" s="2"/>
+      <c r="X79" s="1"/>
+      <c r="Y79" s="2"/>
+      <c r="Z79" s="1"/>
+      <c r="AA79" s="2"/>
+      <c r="AB79" s="1"/>
+      <c r="AC79" s="2"/>
+      <c r="AD79" s="1"/>
+      <c r="AE79" s="2"/>
+      <c r="AF79" s="1"/>
+      <c r="AG79" s="2"/>
+      <c r="AH79" s="1"/>
+      <c r="AI79" s="2"/>
+      <c r="AJ79" s="1"/>
+      <c r="AK79" s="2"/>
+      <c r="AL79" s="1"/>
+      <c r="AM79" s="2"/>
+      <c r="AN79" s="1"/>
+      <c r="AO79" s="2"/>
+      <c r="AP79" s="1"/>
+      <c r="AQ79" s="2"/>
+      <c r="AR79" s="1"/>
+      <c r="AS79" s="2"/>
+      <c r="AT79" s="1"/>
+      <c r="AU79" s="2"/>
+      <c r="AV79" s="1"/>
+      <c r="AW79" s="2"/>
+      <c r="AX79" s="1"/>
+      <c r="AY79" s="2"/>
+      <c r="AZ79" s="1"/>
+      <c r="BA79" s="2"/>
+    </row>
+    <row r="80" spans="2:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="81" spans="2:53" ht="3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B81" s="1"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="2"/>
+      <c r="J81" s="1"/>
+      <c r="K81" s="2"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="2"/>
+      <c r="N81" s="1"/>
+      <c r="O81" s="2"/>
+      <c r="P81" s="1"/>
+      <c r="Q81" s="2"/>
+      <c r="R81" s="1"/>
+      <c r="S81" s="2"/>
+      <c r="T81" s="1"/>
+      <c r="U81" s="2"/>
+      <c r="V81" s="1"/>
+      <c r="W81" s="2"/>
+      <c r="X81" s="1"/>
+      <c r="Y81" s="2"/>
+      <c r="Z81" s="1"/>
+      <c r="AA81" s="2"/>
+      <c r="AB81" s="1"/>
+      <c r="AC81" s="2"/>
+      <c r="AD81" s="1"/>
+      <c r="AE81" s="2"/>
+      <c r="AF81" s="1"/>
+      <c r="AG81" s="2"/>
+      <c r="AH81" s="1"/>
+      <c r="AI81" s="2"/>
+      <c r="AJ81" s="1"/>
+      <c r="AK81" s="2"/>
+      <c r="AL81" s="1"/>
+      <c r="AM81" s="2"/>
+      <c r="AN81" s="1"/>
+      <c r="AO81" s="2"/>
+      <c r="AP81" s="1"/>
+      <c r="AQ81" s="2"/>
+      <c r="AR81" s="1"/>
+      <c r="AS81" s="2"/>
+      <c r="AT81" s="1"/>
+      <c r="AU81" s="2"/>
+      <c r="AV81" s="1"/>
+      <c r="AW81" s="2"/>
+      <c r="AX81" s="1"/>
+      <c r="AY81" s="2"/>
+      <c r="AZ81" s="1"/>
+      <c r="BA81" s="2"/>
+    </row>
+    <row r="82" spans="2:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="83" spans="2:53" ht="3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B83" s="1"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="2"/>
+      <c r="J83" s="1"/>
+      <c r="K83" s="2"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="2"/>
+      <c r="N83" s="1"/>
+      <c r="O83" s="2"/>
+      <c r="P83" s="1"/>
+      <c r="Q83" s="2"/>
+      <c r="R83" s="1"/>
+      <c r="S83" s="2"/>
+      <c r="T83" s="1"/>
+      <c r="U83" s="2"/>
+      <c r="V83" s="1"/>
+      <c r="W83" s="2"/>
+      <c r="X83" s="1"/>
+      <c r="Y83" s="2"/>
+      <c r="Z83" s="1"/>
+      <c r="AA83" s="2"/>
+      <c r="AB83" s="1"/>
+      <c r="AC83" s="2"/>
+      <c r="AD83" s="1"/>
+      <c r="AE83" s="2"/>
+      <c r="AF83" s="1"/>
+      <c r="AG83" s="2"/>
+      <c r="AH83" s="1"/>
+      <c r="AI83" s="2"/>
+      <c r="AJ83" s="1"/>
+      <c r="AK83" s="2"/>
+      <c r="AL83" s="1"/>
+      <c r="AM83" s="2"/>
+      <c r="AN83" s="1"/>
+      <c r="AO83" s="2"/>
+      <c r="AP83" s="1"/>
+      <c r="AQ83" s="2"/>
+      <c r="AR83" s="1"/>
+      <c r="AS83" s="2"/>
+      <c r="AT83" s="1"/>
+      <c r="AU83" s="2"/>
+      <c r="AV83" s="1"/>
+      <c r="AW83" s="2"/>
+      <c r="AX83" s="1"/>
+      <c r="AY83" s="2"/>
+      <c r="AZ83" s="1"/>
+      <c r="BA83" s="2"/>
+    </row>
+    <row r="84" spans="2:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="85" spans="2:53" ht="3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B85" s="1"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="2"/>
+      <c r="J85" s="1"/>
+      <c r="K85" s="2"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="2"/>
+      <c r="N85" s="1"/>
+      <c r="O85" s="2"/>
+      <c r="P85" s="1"/>
+      <c r="Q85" s="2"/>
+      <c r="R85" s="1"/>
+      <c r="S85" s="2"/>
+      <c r="T85" s="1"/>
+      <c r="U85" s="2"/>
+      <c r="V85" s="1"/>
+      <c r="W85" s="2"/>
+      <c r="X85" s="1"/>
+      <c r="Y85" s="2"/>
+      <c r="Z85" s="1"/>
+      <c r="AA85" s="2"/>
+      <c r="AB85" s="1"/>
+      <c r="AC85" s="2"/>
+      <c r="AD85" s="1"/>
+      <c r="AE85" s="2"/>
+      <c r="AF85" s="1"/>
+      <c r="AG85" s="2"/>
+      <c r="AH85" s="1"/>
+      <c r="AI85" s="2"/>
+      <c r="AJ85" s="1"/>
+      <c r="AK85" s="2"/>
+      <c r="AL85" s="1"/>
+      <c r="AM85" s="2"/>
+      <c r="AN85" s="1"/>
+      <c r="AO85" s="2"/>
+      <c r="AP85" s="1"/>
+      <c r="AQ85" s="2"/>
+      <c r="AR85" s="1"/>
+      <c r="AS85" s="2"/>
+      <c r="AT85" s="1"/>
+      <c r="AU85" s="2"/>
+      <c r="AV85" s="1"/>
+      <c r="AW85" s="2"/>
+      <c r="AX85" s="1"/>
+      <c r="AY85" s="2"/>
+      <c r="AZ85" s="1"/>
+      <c r="BA85" s="2"/>
+    </row>
+    <row r="86" spans="2:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="13" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:DD85"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="DI48" sqref="DI48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="4.75" customWidth="1"/>
+    <col min="2" max="2" width="2.375" customWidth="1"/>
+    <col min="3" max="3" width="0.5" customWidth="1"/>
+    <col min="4" max="4" width="2.375" customWidth="1"/>
+    <col min="5" max="5" width="0.5" customWidth="1"/>
+    <col min="6" max="6" width="2.375" customWidth="1"/>
+    <col min="7" max="7" width="0.5" customWidth="1"/>
+    <col min="8" max="8" width="2.375" customWidth="1"/>
+    <col min="9" max="9" width="0.5" customWidth="1"/>
+    <col min="10" max="10" width="2.375" customWidth="1"/>
+    <col min="11" max="11" width="0.5" customWidth="1"/>
+    <col min="12" max="12" width="2.375" customWidth="1"/>
+    <col min="13" max="13" width="0.5" customWidth="1"/>
+    <col min="14" max="14" width="2.375" customWidth="1"/>
+    <col min="15" max="15" width="0.5" customWidth="1"/>
+    <col min="16" max="16" width="2.375" customWidth="1"/>
+    <col min="17" max="17" width="0.5" customWidth="1"/>
+    <col min="18" max="18" width="2.375" customWidth="1"/>
+    <col min="19" max="19" width="0.5" customWidth="1"/>
+    <col min="20" max="20" width="2.375" customWidth="1"/>
+    <col min="21" max="21" width="0.5" customWidth="1"/>
+    <col min="22" max="22" width="2.375" customWidth="1"/>
+    <col min="23" max="23" width="0.5" customWidth="1"/>
+    <col min="24" max="24" width="2.375" customWidth="1"/>
+    <col min="25" max="25" width="0.5" customWidth="1"/>
+    <col min="26" max="26" width="2.375" customWidth="1"/>
+    <col min="27" max="27" width="0.5" customWidth="1"/>
+    <col min="28" max="28" width="2.375" customWidth="1"/>
+    <col min="29" max="29" width="0.5" customWidth="1"/>
+    <col min="30" max="30" width="2.375" customWidth="1"/>
+    <col min="31" max="31" width="0.5" customWidth="1"/>
+    <col min="32" max="32" width="2.375" customWidth="1"/>
+    <col min="33" max="33" width="0.5" customWidth="1"/>
+    <col min="34" max="34" width="2.375" customWidth="1"/>
+    <col min="35" max="35" width="0.5" customWidth="1"/>
+    <col min="36" max="36" width="2.375" customWidth="1"/>
+    <col min="37" max="37" width="0.5" customWidth="1"/>
+    <col min="38" max="38" width="2.375" customWidth="1"/>
+    <col min="39" max="39" width="0.5" customWidth="1"/>
+    <col min="40" max="40" width="2.375" customWidth="1"/>
+    <col min="41" max="41" width="0.5" customWidth="1"/>
+    <col min="42" max="42" width="2.375" customWidth="1"/>
+    <col min="43" max="43" width="0.5" customWidth="1"/>
+    <col min="44" max="44" width="2.375" customWidth="1"/>
+    <col min="45" max="45" width="0.5" customWidth="1"/>
+    <col min="46" max="46" width="2.375" customWidth="1"/>
+    <col min="47" max="47" width="0.5" customWidth="1"/>
+    <col min="48" max="48" width="2.375" customWidth="1"/>
+    <col min="49" max="49" width="0.5" customWidth="1"/>
+    <col min="50" max="50" width="2.375" customWidth="1"/>
+    <col min="51" max="51" width="0.5" customWidth="1"/>
+    <col min="52" max="52" width="2.375" customWidth="1"/>
+    <col min="53" max="53" width="0.5" customWidth="1"/>
+    <col min="54" max="56" width="2.375" customWidth="1"/>
+    <col min="57" max="57" width="0.5" customWidth="1"/>
+    <col min="58" max="58" width="2.375" customWidth="1"/>
+    <col min="59" max="59" width="0.5" customWidth="1"/>
+    <col min="60" max="60" width="2.375" customWidth="1"/>
+    <col min="61" max="61" width="0.5" customWidth="1"/>
+    <col min="62" max="62" width="2.375" customWidth="1"/>
+    <col min="63" max="63" width="0.5" customWidth="1"/>
+    <col min="64" max="64" width="2.375" customWidth="1"/>
+    <col min="65" max="65" width="0.5" customWidth="1"/>
+    <col min="66" max="66" width="2.375" customWidth="1"/>
+    <col min="67" max="67" width="0.5" customWidth="1"/>
+    <col min="68" max="68" width="2.375" customWidth="1"/>
+    <col min="69" max="69" width="0.5" customWidth="1"/>
+    <col min="70" max="70" width="2.375" customWidth="1"/>
+    <col min="71" max="71" width="0.5" customWidth="1"/>
+    <col min="72" max="72" width="2.375" customWidth="1"/>
+    <col min="73" max="73" width="0.5" customWidth="1"/>
+    <col min="74" max="74" width="2.375" customWidth="1"/>
+    <col min="75" max="75" width="0.5" customWidth="1"/>
+    <col min="76" max="76" width="2.375" customWidth="1"/>
+    <col min="77" max="77" width="0.5" customWidth="1"/>
+    <col min="78" max="78" width="2.375" customWidth="1"/>
+    <col min="79" max="79" width="0.5" customWidth="1"/>
+    <col min="80" max="80" width="2.375" customWidth="1"/>
+    <col min="81" max="81" width="0.5" customWidth="1"/>
+    <col min="82" max="82" width="2.375" customWidth="1"/>
+    <col min="83" max="83" width="0.5" customWidth="1"/>
+    <col min="84" max="84" width="2.375" customWidth="1"/>
+    <col min="85" max="85" width="0.5" customWidth="1"/>
+    <col min="86" max="86" width="2.375" customWidth="1"/>
+    <col min="87" max="87" width="0.5" customWidth="1"/>
+    <col min="88" max="88" width="2.375" customWidth="1"/>
+    <col min="89" max="89" width="0.5" customWidth="1"/>
+    <col min="90" max="90" width="2.375" customWidth="1"/>
+    <col min="91" max="91" width="0.5" customWidth="1"/>
+    <col min="92" max="92" width="2.375" customWidth="1"/>
+    <col min="93" max="93" width="0.5" customWidth="1"/>
+    <col min="94" max="94" width="2.375" customWidth="1"/>
+    <col min="95" max="95" width="0.5" customWidth="1"/>
+    <col min="96" max="96" width="2.375" customWidth="1"/>
+    <col min="97" max="97" width="0.5" customWidth="1"/>
+    <col min="98" max="98" width="2.375" customWidth="1"/>
+    <col min="99" max="99" width="0.5" customWidth="1"/>
+    <col min="100" max="100" width="2.375" customWidth="1"/>
+    <col min="101" max="101" width="0.5" customWidth="1"/>
+    <col min="102" max="102" width="2.375" customWidth="1"/>
+    <col min="103" max="103" width="0.5" customWidth="1"/>
+    <col min="104" max="104" width="2.375" customWidth="1"/>
+    <col min="105" max="105" width="0.5" customWidth="1"/>
+    <col min="106" max="106" width="2.375" customWidth="1"/>
+    <col min="107" max="107" width="0.5" customWidth="1"/>
+    <col min="108" max="108" width="4.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:107" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD2" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:107" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="3"/>
+      <c r="AF3" s="3"/>
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="3"/>
+      <c r="AI3" s="3"/>
+      <c r="AJ3" s="3"/>
+      <c r="AK3" s="3"/>
+      <c r="AL3" s="3"/>
+      <c r="AM3" s="3"/>
+      <c r="BD3" s="3"/>
+      <c r="BE3" s="3"/>
+      <c r="BF3" s="3"/>
+      <c r="BG3" s="3"/>
+      <c r="BH3" s="3"/>
+      <c r="BI3" s="3"/>
+      <c r="BJ3" s="3"/>
+      <c r="BK3" s="3"/>
+      <c r="BR3" s="3"/>
+      <c r="BS3" s="3"/>
+      <c r="BT3" s="3"/>
+      <c r="BU3" s="3"/>
+      <c r="BV3" s="3"/>
+      <c r="BW3" s="3"/>
+      <c r="BX3" s="3"/>
+      <c r="BY3" s="3"/>
+      <c r="BZ3" s="3"/>
+      <c r="CA3" s="3"/>
+      <c r="CB3" s="3"/>
+      <c r="CC3" s="3"/>
+      <c r="CD3" s="3"/>
+      <c r="CE3" s="3"/>
+      <c r="CF3" s="3"/>
+      <c r="CG3" s="3"/>
+      <c r="CH3" s="3"/>
+      <c r="CI3" s="3"/>
+      <c r="CJ3" s="3"/>
+      <c r="CK3" s="3"/>
+      <c r="CL3" s="3"/>
+      <c r="CM3" s="3"/>
+      <c r="CN3" s="3"/>
+      <c r="CO3" s="3"/>
+    </row>
+    <row r="5" spans="2:107" ht="3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="1"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="2"/>
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="2"/>
+      <c r="AH5" s="1"/>
+      <c r="AI5" s="2"/>
+      <c r="AJ5" s="1"/>
+      <c r="AK5" s="2"/>
+      <c r="AL5" s="1"/>
+      <c r="AM5" s="2"/>
+      <c r="AN5" s="1"/>
+      <c r="AO5" s="2"/>
+      <c r="AP5" s="1"/>
+      <c r="AQ5" s="2"/>
+      <c r="AR5" s="1"/>
+      <c r="AS5" s="2"/>
+      <c r="AT5" s="1"/>
+      <c r="AU5" s="2"/>
+      <c r="AV5" s="1"/>
+      <c r="AW5" s="2"/>
+      <c r="AX5" s="1"/>
+      <c r="AY5" s="2"/>
+      <c r="AZ5" s="1"/>
+      <c r="BA5" s="2"/>
+      <c r="BD5" s="1"/>
+      <c r="BE5" s="2"/>
+      <c r="BF5" s="1"/>
+      <c r="BG5" s="2"/>
+      <c r="BH5" s="1"/>
+      <c r="BI5" s="2"/>
+      <c r="BJ5" s="1"/>
+      <c r="BK5" s="2"/>
+      <c r="BL5" s="1"/>
+      <c r="BM5" s="2"/>
+      <c r="BN5" s="1"/>
+      <c r="BO5" s="2"/>
+      <c r="BP5" s="1"/>
+      <c r="BQ5" s="2"/>
+      <c r="BR5" s="1"/>
+      <c r="BS5" s="2"/>
+      <c r="BT5" s="1"/>
+      <c r="BU5" s="2"/>
+      <c r="BV5" s="1"/>
+      <c r="BW5" s="2"/>
+      <c r="BX5" s="1"/>
+      <c r="BY5" s="2"/>
+      <c r="BZ5" s="1"/>
+      <c r="CA5" s="2"/>
+      <c r="CB5" s="1"/>
+      <c r="CC5" s="2"/>
+      <c r="CD5" s="1"/>
+      <c r="CE5" s="2"/>
+      <c r="CF5" s="1"/>
+      <c r="CG5" s="2"/>
+      <c r="CH5" s="1"/>
+      <c r="CI5" s="2"/>
+      <c r="CJ5" s="1"/>
+      <c r="CK5" s="2"/>
+      <c r="CL5" s="1"/>
+      <c r="CM5" s="2"/>
+      <c r="CN5" s="1"/>
+      <c r="CO5" s="2"/>
+      <c r="CP5" s="1"/>
+      <c r="CQ5" s="2"/>
+      <c r="CR5" s="1"/>
+      <c r="CS5" s="2"/>
+      <c r="CT5" s="1"/>
+      <c r="CU5" s="2"/>
+      <c r="CV5" s="1"/>
+      <c r="CW5" s="2"/>
+      <c r="CX5" s="1"/>
+      <c r="CY5" s="2"/>
+      <c r="CZ5" s="1"/>
+      <c r="DA5" s="2"/>
+      <c r="DB5" s="1"/>
+      <c r="DC5" s="2"/>
+    </row>
+    <row r="7" spans="2:107" ht="3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="1"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="1"/>
+      <c r="AG7" s="2"/>
+      <c r="AH7" s="1"/>
+      <c r="AI7" s="2"/>
+      <c r="AJ7" s="1"/>
+      <c r="AK7" s="2"/>
+      <c r="AL7" s="1"/>
+      <c r="AM7" s="2"/>
+      <c r="AN7" s="1"/>
+      <c r="AO7" s="2"/>
+      <c r="AP7" s="1"/>
+      <c r="AQ7" s="2"/>
+      <c r="AR7" s="1"/>
+      <c r="AS7" s="2"/>
+      <c r="AT7" s="1"/>
+      <c r="AU7" s="2"/>
+      <c r="AV7" s="1"/>
+      <c r="AW7" s="2"/>
+      <c r="AX7" s="1"/>
+      <c r="AY7" s="2"/>
+      <c r="AZ7" s="1"/>
+      <c r="BA7" s="2"/>
+      <c r="BD7" s="1"/>
+      <c r="BE7" s="2"/>
+      <c r="BF7" s="1"/>
+      <c r="BG7" s="2"/>
+      <c r="BH7" s="1"/>
+      <c r="BI7" s="2"/>
+      <c r="BJ7" s="1"/>
+      <c r="BK7" s="2"/>
+      <c r="BL7" s="1"/>
+      <c r="BM7" s="2"/>
+      <c r="BN7" s="1"/>
+      <c r="BO7" s="2"/>
+      <c r="BP7" s="1"/>
+      <c r="BQ7" s="2"/>
+      <c r="BR7" s="1"/>
+      <c r="BS7" s="2"/>
+      <c r="BT7" s="1"/>
+      <c r="BU7" s="2"/>
+      <c r="BV7" s="1"/>
+      <c r="BW7" s="2"/>
+      <c r="BX7" s="1"/>
+      <c r="BY7" s="2"/>
+      <c r="BZ7" s="1"/>
+      <c r="CA7" s="2"/>
+      <c r="CB7" s="1"/>
+      <c r="CC7" s="2"/>
+      <c r="CD7" s="1"/>
+      <c r="CE7" s="2"/>
+      <c r="CF7" s="1"/>
+      <c r="CG7" s="2"/>
+      <c r="CH7" s="1"/>
+      <c r="CI7" s="2"/>
+      <c r="CJ7" s="1"/>
+      <c r="CK7" s="2"/>
+      <c r="CL7" s="1"/>
+      <c r="CM7" s="2"/>
+      <c r="CN7" s="1"/>
+      <c r="CO7" s="2"/>
+      <c r="CP7" s="1"/>
+      <c r="CQ7" s="2"/>
+      <c r="CR7" s="1"/>
+      <c r="CS7" s="2"/>
+      <c r="CT7" s="1"/>
+      <c r="CU7" s="2"/>
+      <c r="CV7" s="1"/>
+      <c r="CW7" s="2"/>
+      <c r="CX7" s="1"/>
+      <c r="CY7" s="2"/>
+      <c r="CZ7" s="1"/>
+      <c r="DA7" s="2"/>
+      <c r="DB7" s="1"/>
+      <c r="DC7" s="2"/>
+    </row>
+    <row r="9" spans="2:107" ht="3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="1"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="1"/>
+      <c r="AG9" s="2"/>
+      <c r="AH9" s="1"/>
+      <c r="AI9" s="2"/>
+      <c r="AJ9" s="1"/>
+      <c r="AK9" s="2"/>
+      <c r="AL9" s="1"/>
+      <c r="AM9" s="2"/>
+      <c r="AN9" s="1"/>
+      <c r="AO9" s="2"/>
+      <c r="AP9" s="1"/>
+      <c r="AQ9" s="2"/>
+      <c r="AR9" s="1"/>
+      <c r="AS9" s="2"/>
+      <c r="AT9" s="1"/>
+      <c r="AU9" s="2"/>
+      <c r="AV9" s="1"/>
+      <c r="AW9" s="2"/>
+      <c r="AX9" s="1"/>
+      <c r="AY9" s="2"/>
+      <c r="AZ9" s="1"/>
+      <c r="BA9" s="2"/>
+      <c r="BD9" s="1"/>
+      <c r="BE9" s="2"/>
+      <c r="BF9" s="1"/>
+      <c r="BG9" s="2"/>
+      <c r="BH9" s="1"/>
+      <c r="BI9" s="2"/>
+      <c r="BJ9" s="1"/>
+      <c r="BK9" s="2"/>
+      <c r="BL9" s="1"/>
+      <c r="BM9" s="2"/>
+      <c r="BN9" s="1"/>
+      <c r="BO9" s="2"/>
+      <c r="BP9" s="1"/>
+      <c r="BQ9" s="2"/>
+      <c r="BR9" s="1"/>
+      <c r="BS9" s="2"/>
+      <c r="BT9" s="1"/>
+      <c r="BU9" s="2"/>
+      <c r="BV9" s="1"/>
+      <c r="BW9" s="2"/>
+      <c r="BX9" s="1"/>
+      <c r="BY9" s="2"/>
+      <c r="BZ9" s="1"/>
+      <c r="CA9" s="2"/>
+      <c r="CB9" s="1"/>
+      <c r="CC9" s="2"/>
+      <c r="CD9" s="1"/>
+      <c r="CE9" s="2"/>
+      <c r="CF9" s="1"/>
+      <c r="CG9" s="2"/>
+      <c r="CH9" s="1"/>
+      <c r="CI9" s="2"/>
+      <c r="CJ9" s="1"/>
+      <c r="CK9" s="2"/>
+      <c r="CL9" s="1"/>
+      <c r="CM9" s="2"/>
+      <c r="CN9" s="1"/>
+      <c r="CO9" s="2"/>
+      <c r="CP9" s="1"/>
+      <c r="CQ9" s="2"/>
+      <c r="CR9" s="1"/>
+      <c r="CS9" s="2"/>
+      <c r="CT9" s="1"/>
+      <c r="CU9" s="2"/>
+      <c r="CV9" s="1"/>
+      <c r="CW9" s="2"/>
+      <c r="CX9" s="1"/>
+      <c r="CY9" s="2"/>
+      <c r="CZ9" s="1"/>
+      <c r="DA9" s="2"/>
+      <c r="DB9" s="1"/>
+      <c r="DC9" s="2"/>
+    </row>
+    <row r="11" spans="2:107" ht="3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="1"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="2"/>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="2"/>
+      <c r="AF11" s="1"/>
+      <c r="AG11" s="2"/>
+      <c r="AH11" s="1"/>
+      <c r="AI11" s="2"/>
+      <c r="AJ11" s="1"/>
+      <c r="AK11" s="2"/>
+      <c r="AL11" s="1"/>
+      <c r="AM11" s="2"/>
+      <c r="AN11" s="1"/>
+      <c r="AO11" s="2"/>
+      <c r="AP11" s="1"/>
+      <c r="AQ11" s="2"/>
+      <c r="AR11" s="1"/>
+      <c r="AS11" s="2"/>
+      <c r="AT11" s="1"/>
+      <c r="AU11" s="2"/>
+      <c r="AV11" s="1"/>
+      <c r="AW11" s="2"/>
+      <c r="AX11" s="1"/>
+      <c r="AY11" s="2"/>
+      <c r="AZ11" s="1"/>
+      <c r="BA11" s="2"/>
+      <c r="BD11" s="1"/>
+      <c r="BE11" s="2"/>
+      <c r="BF11" s="1"/>
+      <c r="BG11" s="2"/>
+      <c r="BH11" s="1"/>
+      <c r="BI11" s="2"/>
+      <c r="BJ11" s="1"/>
+      <c r="BK11" s="2"/>
+      <c r="BL11" s="1"/>
+      <c r="BM11" s="2"/>
+      <c r="BN11" s="1"/>
+      <c r="BO11" s="2"/>
+      <c r="BP11" s="1"/>
+      <c r="BQ11" s="2"/>
+      <c r="BR11" s="1"/>
+      <c r="BS11" s="2"/>
+      <c r="BT11" s="1"/>
+      <c r="BU11" s="2"/>
+      <c r="BV11" s="1"/>
+      <c r="BW11" s="2"/>
+      <c r="BX11" s="1"/>
+      <c r="BY11" s="2"/>
+      <c r="BZ11" s="1"/>
+      <c r="CA11" s="2"/>
+      <c r="CB11" s="1"/>
+      <c r="CC11" s="2"/>
+      <c r="CD11" s="1"/>
+      <c r="CE11" s="2"/>
+      <c r="CF11" s="1"/>
+      <c r="CG11" s="2"/>
+      <c r="CH11" s="1"/>
+      <c r="CI11" s="2"/>
+      <c r="CJ11" s="1"/>
+      <c r="CK11" s="2"/>
+      <c r="CL11" s="1"/>
+      <c r="CM11" s="2"/>
+      <c r="CN11" s="1"/>
+      <c r="CO11" s="2"/>
+      <c r="CP11" s="1"/>
+      <c r="CQ11" s="2"/>
+      <c r="CR11" s="1"/>
+      <c r="CS11" s="2"/>
+      <c r="CT11" s="1"/>
+      <c r="CU11" s="2"/>
+      <c r="CV11" s="1"/>
+      <c r="CW11" s="2"/>
+      <c r="CX11" s="1"/>
+      <c r="CY11" s="2"/>
+      <c r="CZ11" s="1"/>
+      <c r="DA11" s="2"/>
+      <c r="DB11" s="1"/>
+      <c r="DC11" s="2"/>
+    </row>
+    <row r="13" spans="2:107" ht="3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="1"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="2"/>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="2"/>
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="2"/>
+      <c r="AH13" s="1"/>
+      <c r="AI13" s="2"/>
+      <c r="AJ13" s="1"/>
+      <c r="AK13" s="2"/>
+      <c r="AL13" s="1"/>
+      <c r="AM13" s="2"/>
+      <c r="AN13" s="1"/>
+      <c r="AO13" s="2"/>
+      <c r="AP13" s="1"/>
+      <c r="AQ13" s="2"/>
+      <c r="AR13" s="1"/>
+      <c r="AS13" s="2"/>
+      <c r="AT13" s="1"/>
+      <c r="AU13" s="2"/>
+      <c r="AV13" s="1"/>
+      <c r="AW13" s="2"/>
+      <c r="AX13" s="1"/>
+      <c r="AY13" s="2"/>
+      <c r="AZ13" s="1"/>
+      <c r="BA13" s="2"/>
+      <c r="BD13" s="1"/>
+      <c r="BE13" s="2"/>
+      <c r="BF13" s="1"/>
+      <c r="BG13" s="2"/>
+      <c r="BH13" s="1"/>
+      <c r="BI13" s="2"/>
+      <c r="BJ13" s="1"/>
+      <c r="BK13" s="2"/>
+      <c r="BL13" s="1"/>
+      <c r="BM13" s="2"/>
+      <c r="BN13" s="1"/>
+      <c r="BO13" s="2"/>
+      <c r="BP13" s="1"/>
+      <c r="BQ13" s="2"/>
+      <c r="BR13" s="1"/>
+      <c r="BS13" s="2"/>
+      <c r="BT13" s="1"/>
+      <c r="BU13" s="2"/>
+      <c r="BV13" s="1"/>
+      <c r="BW13" s="2"/>
+      <c r="BX13" s="1"/>
+      <c r="BY13" s="2"/>
+      <c r="BZ13" s="1"/>
+      <c r="CA13" s="2"/>
+      <c r="CB13" s="1"/>
+      <c r="CC13" s="2"/>
+      <c r="CD13" s="1"/>
+      <c r="CE13" s="2"/>
+      <c r="CF13" s="1"/>
+      <c r="CG13" s="2"/>
+      <c r="CH13" s="1"/>
+      <c r="CI13" s="2"/>
+      <c r="CJ13" s="1"/>
+      <c r="CK13" s="2"/>
+      <c r="CL13" s="1"/>
+      <c r="CM13" s="2"/>
+      <c r="CN13" s="1"/>
+      <c r="CO13" s="2"/>
+      <c r="CP13" s="1"/>
+      <c r="CQ13" s="2"/>
+      <c r="CR13" s="1"/>
+      <c r="CS13" s="2"/>
+      <c r="CT13" s="1"/>
+      <c r="CU13" s="2"/>
+      <c r="CV13" s="1"/>
+      <c r="CW13" s="2"/>
+      <c r="CX13" s="1"/>
+      <c r="CY13" s="2"/>
+      <c r="CZ13" s="1"/>
+      <c r="DA13" s="2"/>
+      <c r="DB13" s="1"/>
+      <c r="DC13" s="2"/>
+    </row>
+    <row r="15" spans="2:107" ht="3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="1"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="2"/>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="2"/>
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="2"/>
+      <c r="AF15" s="1"/>
+      <c r="AG15" s="2"/>
+      <c r="AH15" s="1"/>
+      <c r="AI15" s="2"/>
+      <c r="AJ15" s="1"/>
+      <c r="AK15" s="2"/>
+      <c r="AL15" s="1"/>
+      <c r="AM15" s="2"/>
+      <c r="AN15" s="1"/>
+      <c r="AO15" s="2"/>
+      <c r="AP15" s="1"/>
+      <c r="AQ15" s="2"/>
+      <c r="AR15" s="1"/>
+      <c r="AS15" s="2"/>
+      <c r="AT15" s="1"/>
+      <c r="AU15" s="2"/>
+      <c r="AV15" s="1"/>
+      <c r="AW15" s="2"/>
+      <c r="AX15" s="1"/>
+      <c r="AY15" s="2"/>
+      <c r="AZ15" s="1"/>
+      <c r="BA15" s="2"/>
+      <c r="BD15" s="1"/>
+      <c r="BE15" s="2"/>
+      <c r="BF15" s="1"/>
+      <c r="BG15" s="2"/>
+      <c r="BH15" s="1"/>
+      <c r="BI15" s="2"/>
+      <c r="BJ15" s="1"/>
+      <c r="BK15" s="2"/>
+      <c r="BL15" s="1"/>
+      <c r="BM15" s="2"/>
+      <c r="BN15" s="1"/>
+      <c r="BO15" s="2"/>
+      <c r="BP15" s="1"/>
+      <c r="BQ15" s="2"/>
+      <c r="BR15" s="1"/>
+      <c r="BS15" s="2"/>
+      <c r="BT15" s="1"/>
+      <c r="BU15" s="2"/>
+      <c r="BV15" s="1"/>
+      <c r="BW15" s="2"/>
+      <c r="BX15" s="1"/>
+      <c r="BY15" s="2"/>
+      <c r="BZ15" s="1"/>
+      <c r="CA15" s="2"/>
+      <c r="CB15" s="1"/>
+      <c r="CC15" s="2"/>
+      <c r="CD15" s="1"/>
+      <c r="CE15" s="2"/>
+      <c r="CF15" s="1"/>
+      <c r="CG15" s="2"/>
+      <c r="CH15" s="1"/>
+      <c r="CI15" s="2"/>
+      <c r="CJ15" s="1"/>
+      <c r="CK15" s="2"/>
+      <c r="CL15" s="1"/>
+      <c r="CM15" s="2"/>
+      <c r="CN15" s="1"/>
+      <c r="CO15" s="2"/>
+      <c r="CP15" s="1"/>
+      <c r="CQ15" s="2"/>
+      <c r="CR15" s="1"/>
+      <c r="CS15" s="2"/>
+      <c r="CT15" s="1"/>
+      <c r="CU15" s="2"/>
+      <c r="CV15" s="1"/>
+      <c r="CW15" s="2"/>
+      <c r="CX15" s="1"/>
+      <c r="CY15" s="2"/>
+      <c r="CZ15" s="1"/>
+      <c r="DA15" s="2"/>
+      <c r="DB15" s="1"/>
+      <c r="DC15" s="2"/>
+    </row>
+    <row r="17" spans="2:107" ht="3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="1"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="2"/>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="2"/>
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="2"/>
+      <c r="AF17" s="1"/>
+      <c r="AG17" s="2"/>
+      <c r="AH17" s="1"/>
+      <c r="AI17" s="2"/>
+      <c r="AJ17" s="1"/>
+      <c r="AK17" s="2"/>
+      <c r="AL17" s="1"/>
+      <c r="AM17" s="2"/>
+      <c r="AN17" s="1"/>
+      <c r="AO17" s="2"/>
+      <c r="AP17" s="1"/>
+      <c r="AQ17" s="2"/>
+      <c r="AR17" s="1"/>
+      <c r="AS17" s="2"/>
+      <c r="AT17" s="1"/>
+      <c r="AU17" s="2"/>
+      <c r="AV17" s="1"/>
+      <c r="AW17" s="2"/>
+      <c r="AX17" s="1"/>
+      <c r="AY17" s="2"/>
+      <c r="AZ17" s="1"/>
+      <c r="BA17" s="2"/>
+      <c r="BD17" s="1"/>
+      <c r="BE17" s="2"/>
+      <c r="BF17" s="1"/>
+      <c r="BG17" s="2"/>
+      <c r="BH17" s="1"/>
+      <c r="BI17" s="2"/>
+      <c r="BJ17" s="1"/>
+      <c r="BK17" s="2"/>
+      <c r="BL17" s="1"/>
+      <c r="BM17" s="2"/>
+      <c r="BN17" s="1"/>
+      <c r="BO17" s="2"/>
+      <c r="BP17" s="1"/>
+      <c r="BQ17" s="2"/>
+      <c r="BR17" s="1"/>
+      <c r="BS17" s="2"/>
+      <c r="BT17" s="1"/>
+      <c r="BU17" s="2"/>
+      <c r="BV17" s="1"/>
+      <c r="BW17" s="2"/>
+      <c r="BX17" s="1"/>
+      <c r="BY17" s="2"/>
+      <c r="BZ17" s="1"/>
+      <c r="CA17" s="2"/>
+      <c r="CB17" s="1"/>
+      <c r="CC17" s="2"/>
+      <c r="CD17" s="1"/>
+      <c r="CE17" s="2"/>
+      <c r="CF17" s="1"/>
+      <c r="CG17" s="2"/>
+      <c r="CH17" s="1"/>
+      <c r="CI17" s="2"/>
+      <c r="CJ17" s="1"/>
+      <c r="CK17" s="2"/>
+      <c r="CL17" s="1"/>
+      <c r="CM17" s="2"/>
+      <c r="CN17" s="1"/>
+      <c r="CO17" s="2"/>
+      <c r="CP17" s="1"/>
+      <c r="CQ17" s="2"/>
+      <c r="CR17" s="1"/>
+      <c r="CS17" s="2"/>
+      <c r="CT17" s="1"/>
+      <c r="CU17" s="2"/>
+      <c r="CV17" s="1"/>
+      <c r="CW17" s="2"/>
+      <c r="CX17" s="1"/>
+      <c r="CY17" s="2"/>
+      <c r="CZ17" s="1"/>
+      <c r="DA17" s="2"/>
+      <c r="DB17" s="1"/>
+      <c r="DC17" s="2"/>
+    </row>
+    <row r="19" spans="2:107" ht="3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="1"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="2"/>
+      <c r="AD19" s="1"/>
+      <c r="AE19" s="2"/>
+      <c r="AF19" s="1"/>
+      <c r="AG19" s="2"/>
+      <c r="AH19" s="1"/>
+      <c r="AI19" s="2"/>
+      <c r="AJ19" s="1"/>
+      <c r="AK19" s="2"/>
+      <c r="AL19" s="1"/>
+      <c r="AM19" s="2"/>
+      <c r="AN19" s="1"/>
+      <c r="AO19" s="2"/>
+      <c r="AP19" s="1"/>
+      <c r="AQ19" s="2"/>
+      <c r="AR19" s="1"/>
+      <c r="AS19" s="2"/>
+      <c r="AT19" s="1"/>
+      <c r="AU19" s="2"/>
+      <c r="AV19" s="1"/>
+      <c r="AW19" s="2"/>
+      <c r="AX19" s="1"/>
+      <c r="AY19" s="2"/>
+      <c r="AZ19" s="1"/>
+      <c r="BA19" s="2"/>
+      <c r="BD19" s="1"/>
+      <c r="BE19" s="2"/>
+      <c r="BF19" s="1"/>
+      <c r="BG19" s="2"/>
+      <c r="BH19" s="1"/>
+      <c r="BI19" s="2"/>
+      <c r="BJ19" s="1"/>
+      <c r="BK19" s="2"/>
+      <c r="BL19" s="1"/>
+      <c r="BM19" s="2"/>
+      <c r="BN19" s="1"/>
+      <c r="BO19" s="2"/>
+      <c r="BP19" s="1"/>
+      <c r="BQ19" s="2"/>
+      <c r="BR19" s="1"/>
+      <c r="BS19" s="2"/>
+      <c r="BT19" s="1"/>
+      <c r="BU19" s="2"/>
+      <c r="BV19" s="1"/>
+      <c r="BW19" s="2"/>
+      <c r="BX19" s="1"/>
+      <c r="BY19" s="2"/>
+      <c r="BZ19" s="1"/>
+      <c r="CA19" s="2"/>
+      <c r="CB19" s="1"/>
+      <c r="CC19" s="2"/>
+      <c r="CD19" s="1"/>
+      <c r="CE19" s="2"/>
+      <c r="CF19" s="1"/>
+      <c r="CG19" s="2"/>
+      <c r="CH19" s="1"/>
+      <c r="CI19" s="2"/>
+      <c r="CJ19" s="1"/>
+      <c r="CK19" s="2"/>
+      <c r="CL19" s="1"/>
+      <c r="CM19" s="2"/>
+      <c r="CN19" s="1"/>
+      <c r="CO19" s="2"/>
+      <c r="CP19" s="1"/>
+      <c r="CQ19" s="2"/>
+      <c r="CR19" s="1"/>
+      <c r="CS19" s="2"/>
+      <c r="CT19" s="1"/>
+      <c r="CU19" s="2"/>
+      <c r="CV19" s="1"/>
+      <c r="CW19" s="2"/>
+      <c r="CX19" s="1"/>
+      <c r="CY19" s="2"/>
+      <c r="CZ19" s="1"/>
+      <c r="DA19" s="2"/>
+      <c r="DB19" s="1"/>
+      <c r="DC19" s="2"/>
+    </row>
+    <row r="21" spans="2:107" ht="3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="1"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="2"/>
+      <c r="AB21" s="1"/>
+      <c r="AC21" s="2"/>
+      <c r="AD21" s="1"/>
+      <c r="AE21" s="2"/>
+      <c r="AF21" s="1"/>
+      <c r="AG21" s="2"/>
+      <c r="AH21" s="1"/>
+      <c r="AI21" s="2"/>
+      <c r="AJ21" s="1"/>
+      <c r="AK21" s="2"/>
+      <c r="AL21" s="1"/>
+      <c r="AM21" s="2"/>
+      <c r="AN21" s="1"/>
+      <c r="AO21" s="2"/>
+      <c r="AP21" s="1"/>
+      <c r="AQ21" s="2"/>
+      <c r="AR21" s="1"/>
+      <c r="AS21" s="2"/>
+      <c r="AT21" s="1"/>
+      <c r="AU21" s="2"/>
+      <c r="AV21" s="1"/>
+      <c r="AW21" s="2"/>
+      <c r="AX21" s="1"/>
+      <c r="AY21" s="2"/>
+      <c r="AZ21" s="1"/>
+      <c r="BA21" s="2"/>
+      <c r="BD21" s="1"/>
+      <c r="BE21" s="2"/>
+      <c r="BF21" s="1"/>
+      <c r="BG21" s="2"/>
+      <c r="BH21" s="1"/>
+      <c r="BI21" s="2"/>
+      <c r="BJ21" s="1"/>
+      <c r="BK21" s="2"/>
+      <c r="BL21" s="1"/>
+      <c r="BM21" s="2"/>
+      <c r="BN21" s="1"/>
+      <c r="BO21" s="2"/>
+      <c r="BP21" s="1"/>
+      <c r="BQ21" s="2"/>
+      <c r="BR21" s="1"/>
+      <c r="BS21" s="2"/>
+      <c r="BT21" s="1"/>
+      <c r="BU21" s="2"/>
+      <c r="BV21" s="1"/>
+      <c r="BW21" s="2"/>
+      <c r="BX21" s="1"/>
+      <c r="BY21" s="2"/>
+      <c r="BZ21" s="1"/>
+      <c r="CA21" s="2"/>
+      <c r="CB21" s="1"/>
+      <c r="CC21" s="2"/>
+      <c r="CD21" s="1"/>
+      <c r="CE21" s="2"/>
+      <c r="CF21" s="1"/>
+      <c r="CG21" s="2"/>
+      <c r="CH21" s="1"/>
+      <c r="CI21" s="2"/>
+      <c r="CJ21" s="1"/>
+      <c r="CK21" s="2"/>
+      <c r="CL21" s="1"/>
+      <c r="CM21" s="2"/>
+      <c r="CN21" s="1"/>
+      <c r="CO21" s="2"/>
+      <c r="CP21" s="1"/>
+      <c r="CQ21" s="2"/>
+      <c r="CR21" s="1"/>
+      <c r="CS21" s="2"/>
+      <c r="CT21" s="1"/>
+      <c r="CU21" s="2"/>
+      <c r="CV21" s="1"/>
+      <c r="CW21" s="2"/>
+      <c r="CX21" s="1"/>
+      <c r="CY21" s="2"/>
+      <c r="CZ21" s="1"/>
+      <c r="DA21" s="2"/>
+      <c r="DB21" s="1"/>
+      <c r="DC21" s="2"/>
+    </row>
+    <row r="23" spans="2:107" ht="3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="1"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="2"/>
+      <c r="AB23" s="1"/>
+      <c r="AC23" s="2"/>
+      <c r="AD23" s="1"/>
+      <c r="AE23" s="2"/>
+      <c r="AF23" s="1"/>
+      <c r="AG23" s="2"/>
+      <c r="AH23" s="1"/>
+      <c r="AI23" s="2"/>
+      <c r="AJ23" s="1"/>
+      <c r="AK23" s="2"/>
+      <c r="AL23" s="1"/>
+      <c r="AM23" s="2"/>
+      <c r="AN23" s="1"/>
+      <c r="AO23" s="2"/>
+      <c r="AP23" s="1"/>
+      <c r="AQ23" s="2"/>
+      <c r="AR23" s="1"/>
+      <c r="AS23" s="2"/>
+      <c r="AT23" s="1"/>
+      <c r="AU23" s="2"/>
+      <c r="AV23" s="1"/>
+      <c r="AW23" s="2"/>
+      <c r="AX23" s="1"/>
+      <c r="AY23" s="2"/>
+      <c r="AZ23" s="1"/>
+      <c r="BA23" s="2"/>
+      <c r="BD23" s="1"/>
+      <c r="BE23" s="2"/>
+      <c r="BF23" s="1"/>
+      <c r="BG23" s="2"/>
+      <c r="BH23" s="1"/>
+      <c r="BI23" s="2"/>
+      <c r="BJ23" s="1"/>
+      <c r="BK23" s="2"/>
+      <c r="BL23" s="1"/>
+      <c r="BM23" s="2"/>
+      <c r="BN23" s="1"/>
+      <c r="BO23" s="2"/>
+      <c r="BP23" s="1"/>
+      <c r="BQ23" s="2"/>
+      <c r="BR23" s="1"/>
+      <c r="BS23" s="2"/>
+      <c r="BT23" s="1"/>
+      <c r="BU23" s="2"/>
+      <c r="BV23" s="1"/>
+      <c r="BW23" s="2"/>
+      <c r="BX23" s="1"/>
+      <c r="BY23" s="2"/>
+      <c r="BZ23" s="1"/>
+      <c r="CA23" s="2"/>
+      <c r="CB23" s="1"/>
+      <c r="CC23" s="2"/>
+      <c r="CD23" s="1"/>
+      <c r="CE23" s="2"/>
+      <c r="CF23" s="1"/>
+      <c r="CG23" s="2"/>
+      <c r="CH23" s="1"/>
+      <c r="CI23" s="2"/>
+      <c r="CJ23" s="1"/>
+      <c r="CK23" s="2"/>
+      <c r="CL23" s="1"/>
+      <c r="CM23" s="2"/>
+      <c r="CN23" s="1"/>
+      <c r="CO23" s="2"/>
+      <c r="CP23" s="1"/>
+      <c r="CQ23" s="2"/>
+      <c r="CR23" s="1"/>
+      <c r="CS23" s="2"/>
+      <c r="CT23" s="1"/>
+      <c r="CU23" s="2"/>
+      <c r="CV23" s="1"/>
+      <c r="CW23" s="2"/>
+      <c r="CX23" s="1"/>
+      <c r="CY23" s="2"/>
+      <c r="CZ23" s="1"/>
+      <c r="DA23" s="2"/>
+      <c r="DB23" s="1"/>
+      <c r="DC23" s="2"/>
+    </row>
+    <row r="25" spans="2:107" ht="3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="1"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="2"/>
+      <c r="AB25" s="1"/>
+      <c r="AC25" s="2"/>
+      <c r="AD25" s="1"/>
+      <c r="AE25" s="2"/>
+      <c r="AF25" s="1"/>
+      <c r="AG25" s="2"/>
+      <c r="AH25" s="1"/>
+      <c r="AI25" s="2"/>
+      <c r="AJ25" s="1"/>
+      <c r="AK25" s="2"/>
+      <c r="AL25" s="1"/>
+      <c r="AM25" s="2"/>
+      <c r="AN25" s="1"/>
+      <c r="AO25" s="2"/>
+      <c r="AP25" s="1"/>
+      <c r="AQ25" s="2"/>
+      <c r="AR25" s="1"/>
+      <c r="AS25" s="2"/>
+      <c r="AT25" s="1"/>
+      <c r="AU25" s="2"/>
+      <c r="AV25" s="1"/>
+      <c r="AW25" s="2"/>
+      <c r="AX25" s="1"/>
+      <c r="AY25" s="2"/>
+      <c r="AZ25" s="1"/>
+      <c r="BA25" s="2"/>
+      <c r="BD25" s="1"/>
+      <c r="BE25" s="2"/>
+      <c r="BF25" s="1"/>
+      <c r="BG25" s="2"/>
+      <c r="BH25" s="1"/>
+      <c r="BI25" s="2"/>
+      <c r="BJ25" s="1"/>
+      <c r="BK25" s="2"/>
+      <c r="BL25" s="1"/>
+      <c r="BM25" s="2"/>
+      <c r="BN25" s="1"/>
+      <c r="BO25" s="2"/>
+      <c r="BP25" s="1"/>
+      <c r="BQ25" s="2"/>
+      <c r="BR25" s="1"/>
+      <c r="BS25" s="2"/>
+      <c r="BT25" s="1"/>
+      <c r="BU25" s="2"/>
+      <c r="BV25" s="1"/>
+      <c r="BW25" s="2"/>
+      <c r="BX25" s="1"/>
+      <c r="BY25" s="2"/>
+      <c r="BZ25" s="1"/>
+      <c r="CA25" s="2"/>
+      <c r="CB25" s="1"/>
+      <c r="CC25" s="2"/>
+      <c r="CD25" s="1"/>
+      <c r="CE25" s="2"/>
+      <c r="CF25" s="1"/>
+      <c r="CG25" s="2"/>
+      <c r="CH25" s="1"/>
+      <c r="CI25" s="2"/>
+      <c r="CJ25" s="1"/>
+      <c r="CK25" s="2"/>
+      <c r="CL25" s="1"/>
+      <c r="CM25" s="2"/>
+      <c r="CN25" s="1"/>
+      <c r="CO25" s="2"/>
+      <c r="CP25" s="1"/>
+      <c r="CQ25" s="2"/>
+      <c r="CR25" s="1"/>
+      <c r="CS25" s="2"/>
+      <c r="CT25" s="1"/>
+      <c r="CU25" s="2"/>
+      <c r="CV25" s="1"/>
+      <c r="CW25" s="2"/>
+      <c r="CX25" s="1"/>
+      <c r="CY25" s="2"/>
+      <c r="CZ25" s="1"/>
+      <c r="DA25" s="2"/>
+      <c r="DB25" s="1"/>
+      <c r="DC25" s="2"/>
+    </row>
+    <row r="27" spans="2:107" ht="3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B27" s="1"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="2"/>
+      <c r="AB27" s="1"/>
+      <c r="AC27" s="2"/>
+      <c r="AD27" s="1"/>
+      <c r="AE27" s="2"/>
+      <c r="AF27" s="1"/>
+      <c r="AG27" s="2"/>
+      <c r="AH27" s="1"/>
+      <c r="AI27" s="2"/>
+      <c r="AJ27" s="1"/>
+      <c r="AK27" s="2"/>
+      <c r="AL27" s="1"/>
+      <c r="AM27" s="2"/>
+      <c r="AN27" s="1"/>
+      <c r="AO27" s="2"/>
+      <c r="AP27" s="1"/>
+      <c r="AQ27" s="2"/>
+      <c r="AR27" s="1"/>
+      <c r="AS27" s="2"/>
+      <c r="AT27" s="1"/>
+      <c r="AU27" s="2"/>
+      <c r="AV27" s="1"/>
+      <c r="AW27" s="2"/>
+      <c r="AX27" s="1"/>
+      <c r="AY27" s="2"/>
+      <c r="AZ27" s="1"/>
+      <c r="BA27" s="2"/>
+      <c r="BD27" s="1"/>
+      <c r="BE27" s="2"/>
+      <c r="BF27" s="1"/>
+      <c r="BG27" s="2"/>
+      <c r="BH27" s="1"/>
+      <c r="BI27" s="2"/>
+      <c r="BJ27" s="1"/>
+      <c r="BK27" s="2"/>
+      <c r="BL27" s="1"/>
+      <c r="BM27" s="2"/>
+      <c r="BN27" s="1"/>
+      <c r="BO27" s="2"/>
+      <c r="BP27" s="1"/>
+      <c r="BQ27" s="2"/>
+      <c r="BR27" s="1"/>
+      <c r="BS27" s="2"/>
+      <c r="BT27" s="1"/>
+      <c r="BU27" s="2"/>
+      <c r="BV27" s="1"/>
+      <c r="BW27" s="2"/>
+      <c r="BX27" s="1"/>
+      <c r="BY27" s="2"/>
+      <c r="BZ27" s="1"/>
+      <c r="CA27" s="2"/>
+      <c r="CB27" s="1"/>
+      <c r="CC27" s="2"/>
+      <c r="CD27" s="1"/>
+      <c r="CE27" s="2"/>
+      <c r="CF27" s="1"/>
+      <c r="CG27" s="2"/>
+      <c r="CH27" s="1"/>
+      <c r="CI27" s="2"/>
+      <c r="CJ27" s="1"/>
+      <c r="CK27" s="2"/>
+      <c r="CL27" s="1"/>
+      <c r="CM27" s="2"/>
+      <c r="CN27" s="1"/>
+      <c r="CO27" s="2"/>
+      <c r="CP27" s="1"/>
+      <c r="CQ27" s="2"/>
+      <c r="CR27" s="1"/>
+      <c r="CS27" s="2"/>
+      <c r="CT27" s="1"/>
+      <c r="CU27" s="2"/>
+      <c r="CV27" s="1"/>
+      <c r="CW27" s="2"/>
+      <c r="CX27" s="1"/>
+      <c r="CY27" s="2"/>
+      <c r="CZ27" s="1"/>
+      <c r="DA27" s="2"/>
+      <c r="DB27" s="1"/>
+      <c r="DC27" s="2"/>
+    </row>
+    <row r="29" spans="2:107" ht="3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="1"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="2"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="2"/>
+      <c r="Z29" s="1"/>
+      <c r="AA29" s="2"/>
+      <c r="AB29" s="1"/>
+      <c r="AC29" s="2"/>
+      <c r="AD29" s="1"/>
+      <c r="AE29" s="2"/>
+      <c r="AF29" s="1"/>
+      <c r="AG29" s="2"/>
+      <c r="AH29" s="1"/>
+      <c r="AI29" s="2"/>
+      <c r="AJ29" s="1"/>
+      <c r="AK29" s="2"/>
+      <c r="AL29" s="1"/>
+      <c r="AM29" s="2"/>
+      <c r="AN29" s="1"/>
+      <c r="AO29" s="2"/>
+      <c r="AP29" s="1"/>
+      <c r="AQ29" s="2"/>
+      <c r="AR29" s="1"/>
+      <c r="AS29" s="2"/>
+      <c r="AT29" s="1"/>
+      <c r="AU29" s="2"/>
+      <c r="AV29" s="1"/>
+      <c r="AW29" s="2"/>
+      <c r="AX29" s="1"/>
+      <c r="AY29" s="2"/>
+      <c r="AZ29" s="1"/>
+      <c r="BA29" s="2"/>
+      <c r="BD29" s="1"/>
+      <c r="BE29" s="2"/>
+      <c r="BF29" s="1"/>
+      <c r="BG29" s="2"/>
+      <c r="BH29" s="1"/>
+      <c r="BI29" s="2"/>
+      <c r="BJ29" s="1"/>
+      <c r="BK29" s="2"/>
+      <c r="BL29" s="1"/>
+      <c r="BM29" s="2"/>
+      <c r="BN29" s="1"/>
+      <c r="BO29" s="2"/>
+      <c r="BP29" s="1"/>
+      <c r="BQ29" s="2"/>
+      <c r="BR29" s="1"/>
+      <c r="BS29" s="2"/>
+      <c r="BT29" s="1"/>
+      <c r="BU29" s="2"/>
+      <c r="BV29" s="1"/>
+      <c r="BW29" s="2"/>
+      <c r="BX29" s="1"/>
+      <c r="BY29" s="2"/>
+      <c r="BZ29" s="1"/>
+      <c r="CA29" s="2"/>
+      <c r="CB29" s="1"/>
+      <c r="CC29" s="2"/>
+      <c r="CD29" s="1"/>
+      <c r="CE29" s="2"/>
+      <c r="CF29" s="1"/>
+      <c r="CG29" s="2"/>
+      <c r="CH29" s="1"/>
+      <c r="CI29" s="2"/>
+      <c r="CJ29" s="1"/>
+      <c r="CK29" s="2"/>
+      <c r="CL29" s="1"/>
+      <c r="CM29" s="2"/>
+      <c r="CN29" s="1"/>
+      <c r="CO29" s="2"/>
+      <c r="CP29" s="1"/>
+      <c r="CQ29" s="2"/>
+      <c r="CR29" s="1"/>
+      <c r="CS29" s="2"/>
+      <c r="CT29" s="1"/>
+      <c r="CU29" s="2"/>
+      <c r="CV29" s="1"/>
+      <c r="CW29" s="2"/>
+      <c r="CX29" s="1"/>
+      <c r="CY29" s="2"/>
+      <c r="CZ29" s="1"/>
+      <c r="DA29" s="2"/>
+      <c r="DB29" s="1"/>
+      <c r="DC29" s="2"/>
+    </row>
+    <row r="31" spans="2:107" ht="3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B31" s="1"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="2"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="2"/>
+      <c r="Z31" s="1"/>
+      <c r="AA31" s="2"/>
+      <c r="AB31" s="1"/>
+      <c r="AC31" s="2"/>
+      <c r="AD31" s="1"/>
+      <c r="AE31" s="2"/>
+      <c r="AF31" s="1"/>
+      <c r="AG31" s="2"/>
+      <c r="AH31" s="1"/>
+      <c r="AI31" s="2"/>
+      <c r="AJ31" s="1"/>
+      <c r="AK31" s="2"/>
+      <c r="AL31" s="1"/>
+      <c r="AM31" s="2"/>
+      <c r="AN31" s="1"/>
+      <c r="AO31" s="2"/>
+      <c r="AP31" s="1"/>
+      <c r="AQ31" s="2"/>
+      <c r="AR31" s="1"/>
+      <c r="AS31" s="2"/>
+      <c r="AT31" s="1"/>
+      <c r="AU31" s="2"/>
+      <c r="AV31" s="1"/>
+      <c r="AW31" s="2"/>
+      <c r="AX31" s="1"/>
+      <c r="AY31" s="2"/>
+      <c r="AZ31" s="1"/>
+      <c r="BA31" s="2"/>
+      <c r="BD31" s="1"/>
+      <c r="BE31" s="2"/>
+      <c r="BF31" s="1"/>
+      <c r="BG31" s="2"/>
+      <c r="BH31" s="1"/>
+      <c r="BI31" s="2"/>
+      <c r="BJ31" s="1"/>
+      <c r="BK31" s="2"/>
+      <c r="BL31" s="1"/>
+      <c r="BM31" s="2"/>
+      <c r="BN31" s="1"/>
+      <c r="BO31" s="2"/>
+      <c r="BP31" s="1"/>
+      <c r="BQ31" s="2"/>
+      <c r="BR31" s="1"/>
+      <c r="BS31" s="2"/>
+      <c r="BT31" s="1"/>
+      <c r="BU31" s="2"/>
+      <c r="BV31" s="1"/>
+      <c r="BW31" s="2"/>
+      <c r="BX31" s="1"/>
+      <c r="BY31" s="2"/>
+      <c r="BZ31" s="1"/>
+      <c r="CA31" s="2"/>
+      <c r="CB31" s="1"/>
+      <c r="CC31" s="2"/>
+      <c r="CD31" s="1"/>
+      <c r="CE31" s="2"/>
+      <c r="CF31" s="1"/>
+      <c r="CG31" s="2"/>
+      <c r="CH31" s="1"/>
+      <c r="CI31" s="2"/>
+      <c r="CJ31" s="1"/>
+      <c r="CK31" s="2"/>
+      <c r="CL31" s="1"/>
+      <c r="CM31" s="2"/>
+      <c r="CN31" s="1"/>
+      <c r="CO31" s="2"/>
+      <c r="CP31" s="1"/>
+      <c r="CQ31" s="2"/>
+      <c r="CR31" s="1"/>
+      <c r="CS31" s="2"/>
+      <c r="CT31" s="1"/>
+      <c r="CU31" s="2"/>
+      <c r="CV31" s="1"/>
+      <c r="CW31" s="2"/>
+      <c r="CX31" s="1"/>
+      <c r="CY31" s="2"/>
+      <c r="CZ31" s="1"/>
+      <c r="DA31" s="2"/>
+      <c r="DB31" s="1"/>
+      <c r="DC31" s="2"/>
+    </row>
+    <row r="33" spans="2:107" ht="3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B33" s="1"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="2"/>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="2"/>
+      <c r="Z33" s="1"/>
+      <c r="AA33" s="2"/>
+      <c r="AB33" s="1"/>
+      <c r="AC33" s="2"/>
+      <c r="AD33" s="1"/>
+      <c r="AE33" s="2"/>
+      <c r="AF33" s="1"/>
+      <c r="AG33" s="2"/>
+      <c r="AH33" s="1"/>
+      <c r="AI33" s="2"/>
+      <c r="AJ33" s="1"/>
+      <c r="AK33" s="2"/>
+      <c r="AL33" s="1"/>
+      <c r="AM33" s="2"/>
+      <c r="AN33" s="1"/>
+      <c r="AO33" s="2"/>
+      <c r="AP33" s="1"/>
+      <c r="AQ33" s="2"/>
+      <c r="AR33" s="1"/>
+      <c r="AS33" s="2"/>
+      <c r="AT33" s="1"/>
+      <c r="AU33" s="2"/>
+      <c r="AV33" s="1"/>
+      <c r="AW33" s="2"/>
+      <c r="AX33" s="1"/>
+      <c r="AY33" s="2"/>
+      <c r="AZ33" s="1"/>
+      <c r="BA33" s="2"/>
+      <c r="BD33" s="1"/>
+      <c r="BE33" s="2"/>
+      <c r="BF33" s="1"/>
+      <c r="BG33" s="2"/>
+      <c r="BH33" s="1"/>
+      <c r="BI33" s="2"/>
+      <c r="BJ33" s="1"/>
+      <c r="BK33" s="2"/>
+      <c r="BL33" s="1"/>
+      <c r="BM33" s="2"/>
+      <c r="BN33" s="1"/>
+      <c r="BO33" s="2"/>
+      <c r="BP33" s="1"/>
+      <c r="BQ33" s="2"/>
+      <c r="BR33" s="1"/>
+      <c r="BS33" s="2"/>
+      <c r="BT33" s="1"/>
+      <c r="BU33" s="2"/>
+      <c r="BV33" s="1"/>
+      <c r="BW33" s="2"/>
+      <c r="BX33" s="1"/>
+      <c r="BY33" s="2"/>
+      <c r="BZ33" s="1"/>
+      <c r="CA33" s="2"/>
+      <c r="CB33" s="1"/>
+      <c r="CC33" s="2"/>
+      <c r="CD33" s="1"/>
+      <c r="CE33" s="2"/>
+      <c r="CF33" s="1"/>
+      <c r="CG33" s="2"/>
+      <c r="CH33" s="1"/>
+      <c r="CI33" s="2"/>
+      <c r="CJ33" s="1"/>
+      <c r="CK33" s="2"/>
+      <c r="CL33" s="1"/>
+      <c r="CM33" s="2"/>
+      <c r="CN33" s="1"/>
+      <c r="CO33" s="2"/>
+      <c r="CP33" s="1"/>
+      <c r="CQ33" s="2"/>
+      <c r="CR33" s="1"/>
+      <c r="CS33" s="2"/>
+      <c r="CT33" s="1"/>
+      <c r="CU33" s="2"/>
+      <c r="CV33" s="1"/>
+      <c r="CW33" s="2"/>
+      <c r="CX33" s="1"/>
+      <c r="CY33" s="2"/>
+      <c r="CZ33" s="1"/>
+      <c r="DA33" s="2"/>
+      <c r="DB33" s="1"/>
+      <c r="DC33" s="2"/>
+    </row>
+    <row r="35" spans="2:107" ht="3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B35" s="1"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="2"/>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="2"/>
+      <c r="Z35" s="1"/>
+      <c r="AA35" s="2"/>
+      <c r="AB35" s="1"/>
+      <c r="AC35" s="2"/>
+      <c r="AD35" s="1"/>
+      <c r="AE35" s="2"/>
+      <c r="AF35" s="1"/>
+      <c r="AG35" s="2"/>
+      <c r="AH35" s="1"/>
+      <c r="AI35" s="2"/>
+      <c r="AJ35" s="1"/>
+      <c r="AK35" s="2"/>
+      <c r="AL35" s="1"/>
+      <c r="AM35" s="2"/>
+      <c r="AN35" s="1"/>
+      <c r="AO35" s="2"/>
+      <c r="AP35" s="1"/>
+      <c r="AQ35" s="2"/>
+      <c r="AR35" s="1"/>
+      <c r="AS35" s="2"/>
+      <c r="AT35" s="1"/>
+      <c r="AU35" s="2"/>
+      <c r="AV35" s="1"/>
+      <c r="AW35" s="2"/>
+      <c r="AX35" s="1"/>
+      <c r="AY35" s="2"/>
+      <c r="AZ35" s="1"/>
+      <c r="BA35" s="2"/>
+      <c r="BD35" s="1"/>
+      <c r="BE35" s="2"/>
+      <c r="BF35" s="1"/>
+      <c r="BG35" s="2"/>
+      <c r="BH35" s="1"/>
+      <c r="BI35" s="2"/>
+      <c r="BJ35" s="1"/>
+      <c r="BK35" s="2"/>
+      <c r="BL35" s="1"/>
+      <c r="BM35" s="2"/>
+      <c r="BN35" s="1"/>
+      <c r="BO35" s="2"/>
+      <c r="BP35" s="1"/>
+      <c r="BQ35" s="2"/>
+      <c r="BR35" s="1"/>
+      <c r="BS35" s="2"/>
+      <c r="BT35" s="1"/>
+      <c r="BU35" s="2"/>
+      <c r="BV35" s="1"/>
+      <c r="BW35" s="2"/>
+      <c r="BX35" s="1"/>
+      <c r="BY35" s="2"/>
+      <c r="BZ35" s="1"/>
+      <c r="CA35" s="2"/>
+      <c r="CB35" s="1"/>
+      <c r="CC35" s="2"/>
+      <c r="CD35" s="1"/>
+      <c r="CE35" s="2"/>
+      <c r="CF35" s="1"/>
+      <c r="CG35" s="2"/>
+      <c r="CH35" s="1"/>
+      <c r="CI35" s="2"/>
+      <c r="CJ35" s="1"/>
+      <c r="CK35" s="2"/>
+      <c r="CL35" s="1"/>
+      <c r="CM35" s="2"/>
+      <c r="CN35" s="1"/>
+      <c r="CO35" s="2"/>
+      <c r="CP35" s="1"/>
+      <c r="CQ35" s="2"/>
+      <c r="CR35" s="1"/>
+      <c r="CS35" s="2"/>
+      <c r="CT35" s="1"/>
+      <c r="CU35" s="2"/>
+      <c r="CV35" s="1"/>
+      <c r="CW35" s="2"/>
+      <c r="CX35" s="1"/>
+      <c r="CY35" s="2"/>
+      <c r="CZ35" s="1"/>
+      <c r="DA35" s="2"/>
+      <c r="DB35" s="1"/>
+      <c r="DC35" s="2"/>
+    </row>
+    <row r="37" spans="2:107" ht="3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B37" s="1"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="2"/>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="2"/>
+      <c r="Z37" s="1"/>
+      <c r="AA37" s="2"/>
+      <c r="AB37" s="1"/>
+      <c r="AC37" s="2"/>
+      <c r="AD37" s="1"/>
+      <c r="AE37" s="2"/>
+      <c r="AF37" s="1"/>
+      <c r="AG37" s="2"/>
+      <c r="AH37" s="1"/>
+      <c r="AI37" s="2"/>
+      <c r="AJ37" s="1"/>
+      <c r="AK37" s="2"/>
+      <c r="AL37" s="1"/>
+      <c r="AM37" s="2"/>
+      <c r="AN37" s="1"/>
+      <c r="AO37" s="2"/>
+      <c r="AP37" s="1"/>
+      <c r="AQ37" s="2"/>
+      <c r="AR37" s="1"/>
+      <c r="AS37" s="2"/>
+      <c r="AT37" s="1"/>
+      <c r="AU37" s="2"/>
+      <c r="AV37" s="1"/>
+      <c r="AW37" s="2"/>
+      <c r="AX37" s="1"/>
+      <c r="AY37" s="2"/>
+      <c r="AZ37" s="1"/>
+      <c r="BA37" s="2"/>
+      <c r="BD37" s="1"/>
+      <c r="BE37" s="2"/>
+      <c r="BF37" s="1"/>
+      <c r="BG37" s="2"/>
+      <c r="BH37" s="1"/>
+      <c r="BI37" s="2"/>
+      <c r="BJ37" s="1"/>
+      <c r="BK37" s="2"/>
+      <c r="BL37" s="1"/>
+      <c r="BM37" s="2"/>
+      <c r="BN37" s="1"/>
+      <c r="BO37" s="2"/>
+      <c r="BP37" s="1"/>
+      <c r="BQ37" s="2"/>
+      <c r="BR37" s="1"/>
+      <c r="BS37" s="2"/>
+      <c r="BT37" s="1"/>
+      <c r="BU37" s="2"/>
+      <c r="BV37" s="1"/>
+      <c r="BW37" s="2"/>
+      <c r="BX37" s="1"/>
+      <c r="BY37" s="2"/>
+      <c r="BZ37" s="1"/>
+      <c r="CA37" s="2"/>
+      <c r="CB37" s="1"/>
+      <c r="CC37" s="2"/>
+      <c r="CD37" s="1"/>
+      <c r="CE37" s="2"/>
+      <c r="CF37" s="1"/>
+      <c r="CG37" s="2"/>
+      <c r="CH37" s="1"/>
+      <c r="CI37" s="2"/>
+      <c r="CJ37" s="1"/>
+      <c r="CK37" s="2"/>
+      <c r="CL37" s="1"/>
+      <c r="CM37" s="2"/>
+      <c r="CN37" s="1"/>
+      <c r="CO37" s="2"/>
+      <c r="CP37" s="1"/>
+      <c r="CQ37" s="2"/>
+      <c r="CR37" s="1"/>
+      <c r="CS37" s="2"/>
+      <c r="CT37" s="1"/>
+      <c r="CU37" s="2"/>
+      <c r="CV37" s="1"/>
+      <c r="CW37" s="2"/>
+      <c r="CX37" s="1"/>
+      <c r="CY37" s="2"/>
+      <c r="CZ37" s="1"/>
+      <c r="DA37" s="2"/>
+      <c r="DB37" s="1"/>
+      <c r="DC37" s="2"/>
+    </row>
+    <row r="39" spans="2:107" ht="3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B39" s="1"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="2"/>
+      <c r="V39" s="1"/>
+      <c r="W39" s="2"/>
+      <c r="X39" s="1"/>
+      <c r="Y39" s="2"/>
+      <c r="Z39" s="1"/>
+      <c r="AA39" s="2"/>
+      <c r="AB39" s="1"/>
+      <c r="AC39" s="2"/>
+      <c r="AD39" s="1"/>
+      <c r="AE39" s="2"/>
+      <c r="AF39" s="1"/>
+      <c r="AG39" s="2"/>
+      <c r="AH39" s="1"/>
+      <c r="AI39" s="2"/>
+      <c r="AJ39" s="1"/>
+      <c r="AK39" s="2"/>
+      <c r="AL39" s="1"/>
+      <c r="AM39" s="2"/>
+      <c r="AN39" s="1"/>
+      <c r="AO39" s="2"/>
+      <c r="AP39" s="1"/>
+      <c r="AQ39" s="2"/>
+      <c r="AR39" s="1"/>
+      <c r="AS39" s="2"/>
+      <c r="AT39" s="1"/>
+      <c r="AU39" s="2"/>
+      <c r="AV39" s="1"/>
+      <c r="AW39" s="2"/>
+      <c r="AX39" s="1"/>
+      <c r="AY39" s="2"/>
+      <c r="AZ39" s="1"/>
+      <c r="BA39" s="2"/>
+      <c r="BD39" s="1"/>
+      <c r="BE39" s="2"/>
+      <c r="BF39" s="1"/>
+      <c r="BG39" s="2"/>
+      <c r="BH39" s="1"/>
+      <c r="BI39" s="2"/>
+      <c r="BJ39" s="1"/>
+      <c r="BK39" s="2"/>
+      <c r="BL39" s="1"/>
+      <c r="BM39" s="2"/>
+      <c r="BN39" s="1"/>
+      <c r="BO39" s="2"/>
+      <c r="BP39" s="1"/>
+      <c r="BQ39" s="2"/>
+      <c r="BR39" s="1"/>
+      <c r="BS39" s="2"/>
+      <c r="BT39" s="1"/>
+      <c r="BU39" s="2"/>
+      <c r="BV39" s="1"/>
+      <c r="BW39" s="2"/>
+      <c r="BX39" s="1"/>
+      <c r="BY39" s="2"/>
+      <c r="BZ39" s="1"/>
+      <c r="CA39" s="2"/>
+      <c r="CB39" s="1"/>
+      <c r="CC39" s="2"/>
+      <c r="CD39" s="1"/>
+      <c r="CE39" s="2"/>
+      <c r="CF39" s="1"/>
+      <c r="CG39" s="2"/>
+      <c r="CH39" s="1"/>
+      <c r="CI39" s="2"/>
+      <c r="CJ39" s="1"/>
+      <c r="CK39" s="2"/>
+      <c r="CL39" s="1"/>
+      <c r="CM39" s="2"/>
+      <c r="CN39" s="1"/>
+      <c r="CO39" s="2"/>
+      <c r="CP39" s="1"/>
+      <c r="CQ39" s="2"/>
+      <c r="CR39" s="1"/>
+      <c r="CS39" s="2"/>
+      <c r="CT39" s="1"/>
+      <c r="CU39" s="2"/>
+      <c r="CV39" s="1"/>
+      <c r="CW39" s="2"/>
+      <c r="CX39" s="1"/>
+      <c r="CY39" s="2"/>
+      <c r="CZ39" s="1"/>
+      <c r="DA39" s="2"/>
+      <c r="DB39" s="1"/>
+      <c r="DC39" s="2"/>
+    </row>
+    <row r="41" spans="2:107" ht="3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B41" s="1"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="1"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="1"/>
+      <c r="W41" s="2"/>
+      <c r="X41" s="1"/>
+      <c r="Y41" s="2"/>
+      <c r="Z41" s="1"/>
+      <c r="AA41" s="2"/>
+      <c r="AB41" s="1"/>
+      <c r="AC41" s="2"/>
+      <c r="AD41" s="1"/>
+      <c r="AE41" s="2"/>
+      <c r="AF41" s="1"/>
+      <c r="AG41" s="2"/>
+      <c r="AH41" s="1"/>
+      <c r="AI41" s="2"/>
+      <c r="AJ41" s="1"/>
+      <c r="AK41" s="2"/>
+      <c r="AL41" s="1"/>
+      <c r="AM41" s="2"/>
+      <c r="AN41" s="1"/>
+      <c r="AO41" s="2"/>
+      <c r="AP41" s="1"/>
+      <c r="AQ41" s="2"/>
+      <c r="AR41" s="1"/>
+      <c r="AS41" s="2"/>
+      <c r="AT41" s="1"/>
+      <c r="AU41" s="2"/>
+      <c r="AV41" s="1"/>
+      <c r="AW41" s="2"/>
+      <c r="AX41" s="1"/>
+      <c r="AY41" s="2"/>
+      <c r="AZ41" s="1"/>
+      <c r="BA41" s="2"/>
+      <c r="BD41" s="1"/>
+      <c r="BE41" s="2"/>
+      <c r="BF41" s="1"/>
+      <c r="BG41" s="2"/>
+      <c r="BH41" s="1"/>
+      <c r="BI41" s="2"/>
+      <c r="BJ41" s="1"/>
+      <c r="BK41" s="2"/>
+      <c r="BL41" s="1"/>
+      <c r="BM41" s="2"/>
+      <c r="BN41" s="1"/>
+      <c r="BO41" s="2"/>
+      <c r="BP41" s="1"/>
+      <c r="BQ41" s="2"/>
+      <c r="BR41" s="1"/>
+      <c r="BS41" s="2"/>
+      <c r="BT41" s="1"/>
+      <c r="BU41" s="2"/>
+      <c r="BV41" s="1"/>
+      <c r="BW41" s="2"/>
+      <c r="BX41" s="1"/>
+      <c r="BY41" s="2"/>
+      <c r="BZ41" s="1"/>
+      <c r="CA41" s="2"/>
+      <c r="CB41" s="1"/>
+      <c r="CC41" s="2"/>
+      <c r="CD41" s="1"/>
+      <c r="CE41" s="2"/>
+      <c r="CF41" s="1"/>
+      <c r="CG41" s="2"/>
+      <c r="CH41" s="1"/>
+      <c r="CI41" s="2"/>
+      <c r="CJ41" s="1"/>
+      <c r="CK41" s="2"/>
+      <c r="CL41" s="1"/>
+      <c r="CM41" s="2"/>
+      <c r="CN41" s="1"/>
+      <c r="CO41" s="2"/>
+      <c r="CP41" s="1"/>
+      <c r="CQ41" s="2"/>
+      <c r="CR41" s="1"/>
+      <c r="CS41" s="2"/>
+      <c r="CT41" s="1"/>
+      <c r="CU41" s="2"/>
+      <c r="CV41" s="1"/>
+      <c r="CW41" s="2"/>
+      <c r="CX41" s="1"/>
+      <c r="CY41" s="2"/>
+      <c r="CZ41" s="1"/>
+      <c r="DA41" s="2"/>
+      <c r="DB41" s="1"/>
+      <c r="DC41" s="2"/>
+    </row>
+    <row r="43" spans="2:107" ht="3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B43" s="1"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="1"/>
+      <c r="U43" s="2"/>
+      <c r="V43" s="1"/>
+      <c r="W43" s="2"/>
+      <c r="X43" s="1"/>
+      <c r="Y43" s="2"/>
+      <c r="Z43" s="1"/>
+      <c r="AA43" s="2"/>
+      <c r="AB43" s="1"/>
+      <c r="AC43" s="2"/>
+      <c r="AD43" s="1"/>
+      <c r="AE43" s="2"/>
+      <c r="AF43" s="1"/>
+      <c r="AG43" s="2"/>
+      <c r="AH43" s="1"/>
+      <c r="AI43" s="2"/>
+      <c r="AJ43" s="1"/>
+      <c r="AK43" s="2"/>
+      <c r="AL43" s="1"/>
+      <c r="AM43" s="2"/>
+      <c r="AN43" s="1"/>
+      <c r="AO43" s="2"/>
+      <c r="AP43" s="1"/>
+      <c r="AQ43" s="2"/>
+      <c r="AR43" s="1"/>
+      <c r="AS43" s="2"/>
+      <c r="AT43" s="1"/>
+      <c r="AU43" s="2"/>
+      <c r="AV43" s="1"/>
+      <c r="AW43" s="2"/>
+      <c r="AX43" s="1"/>
+      <c r="AY43" s="2"/>
+      <c r="AZ43" s="1"/>
+      <c r="BA43" s="2"/>
+      <c r="BD43" s="1"/>
+      <c r="BE43" s="2"/>
+      <c r="BF43" s="1"/>
+      <c r="BG43" s="2"/>
+      <c r="BH43" s="1"/>
+      <c r="BI43" s="2"/>
+      <c r="BJ43" s="1"/>
+      <c r="BK43" s="2"/>
+      <c r="BL43" s="1"/>
+      <c r="BM43" s="2"/>
+      <c r="BN43" s="1"/>
+      <c r="BO43" s="2"/>
+      <c r="BP43" s="1"/>
+      <c r="BQ43" s="2"/>
+      <c r="BR43" s="1"/>
+      <c r="BS43" s="2"/>
+      <c r="BT43" s="1"/>
+      <c r="BU43" s="2"/>
+      <c r="BV43" s="1"/>
+      <c r="BW43" s="2"/>
+      <c r="BX43" s="1"/>
+      <c r="BY43" s="2"/>
+      <c r="BZ43" s="1"/>
+      <c r="CA43" s="2"/>
+      <c r="CB43" s="1"/>
+      <c r="CC43" s="2"/>
+      <c r="CD43" s="1"/>
+      <c r="CE43" s="2"/>
+      <c r="CF43" s="1"/>
+      <c r="CG43" s="2"/>
+      <c r="CH43" s="1"/>
+      <c r="CI43" s="2"/>
+      <c r="CJ43" s="1"/>
+      <c r="CK43" s="2"/>
+      <c r="CL43" s="1"/>
+      <c r="CM43" s="2"/>
+      <c r="CN43" s="1"/>
+      <c r="CO43" s="2"/>
+      <c r="CP43" s="1"/>
+      <c r="CQ43" s="2"/>
+      <c r="CR43" s="1"/>
+      <c r="CS43" s="2"/>
+      <c r="CT43" s="1"/>
+      <c r="CU43" s="2"/>
+      <c r="CV43" s="1"/>
+      <c r="CW43" s="2"/>
+      <c r="CX43" s="1"/>
+      <c r="CY43" s="2"/>
+      <c r="CZ43" s="1"/>
+      <c r="DA43" s="2"/>
+      <c r="DB43" s="1"/>
+      <c r="DC43" s="2"/>
+    </row>
+    <row r="45" spans="2:107" ht="3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B45" s="1"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="2"/>
+      <c r="T45" s="1"/>
+      <c r="U45" s="2"/>
+      <c r="V45" s="1"/>
+      <c r="W45" s="2"/>
+      <c r="X45" s="1"/>
+      <c r="Y45" s="2"/>
+      <c r="Z45" s="1"/>
+      <c r="AA45" s="2"/>
+      <c r="AB45" s="1"/>
+      <c r="AC45" s="2"/>
+      <c r="AD45" s="1"/>
+      <c r="AE45" s="2"/>
+      <c r="AF45" s="1"/>
+      <c r="AG45" s="2"/>
+      <c r="AH45" s="1"/>
+      <c r="AI45" s="2"/>
+      <c r="AJ45" s="1"/>
+      <c r="AK45" s="2"/>
+      <c r="AL45" s="1"/>
+      <c r="AM45" s="2"/>
+      <c r="AN45" s="1"/>
+      <c r="AO45" s="2"/>
+      <c r="AP45" s="1"/>
+      <c r="AQ45" s="2"/>
+      <c r="AR45" s="1"/>
+      <c r="AS45" s="2"/>
+      <c r="AT45" s="1"/>
+      <c r="AU45" s="2"/>
+      <c r="AV45" s="1"/>
+      <c r="AW45" s="2"/>
+      <c r="AX45" s="1"/>
+      <c r="AY45" s="2"/>
+      <c r="AZ45" s="1"/>
+      <c r="BA45" s="2"/>
+      <c r="BD45" s="1"/>
+      <c r="BE45" s="2"/>
+      <c r="BF45" s="1"/>
+      <c r="BG45" s="2"/>
+      <c r="BH45" s="1"/>
+      <c r="BI45" s="2"/>
+      <c r="BJ45" s="1"/>
+      <c r="BK45" s="2"/>
+      <c r="BL45" s="1"/>
+      <c r="BM45" s="2"/>
+      <c r="BN45" s="1"/>
+      <c r="BO45" s="2"/>
+      <c r="BP45" s="1"/>
+      <c r="BQ45" s="2"/>
+      <c r="BR45" s="1"/>
+      <c r="BS45" s="2"/>
+      <c r="BT45" s="1"/>
+      <c r="BU45" s="2"/>
+      <c r="BV45" s="1"/>
+      <c r="BW45" s="2"/>
+      <c r="BX45" s="1"/>
+      <c r="BY45" s="2"/>
+      <c r="BZ45" s="1"/>
+      <c r="CA45" s="2"/>
+      <c r="CB45" s="1"/>
+      <c r="CC45" s="2"/>
+      <c r="CD45" s="1"/>
+      <c r="CE45" s="2"/>
+      <c r="CF45" s="1"/>
+      <c r="CG45" s="2"/>
+      <c r="CH45" s="1"/>
+      <c r="CI45" s="2"/>
+      <c r="CJ45" s="1"/>
+      <c r="CK45" s="2"/>
+      <c r="CL45" s="1"/>
+      <c r="CM45" s="2"/>
+      <c r="CN45" s="1"/>
+      <c r="CO45" s="2"/>
+      <c r="CP45" s="1"/>
+      <c r="CQ45" s="2"/>
+      <c r="CR45" s="1"/>
+      <c r="CS45" s="2"/>
+      <c r="CT45" s="1"/>
+      <c r="CU45" s="2"/>
+      <c r="CV45" s="1"/>
+      <c r="CW45" s="2"/>
+      <c r="CX45" s="1"/>
+      <c r="CY45" s="2"/>
+      <c r="CZ45" s="1"/>
+      <c r="DA45" s="2"/>
+      <c r="DB45" s="1"/>
+      <c r="DC45" s="2"/>
+    </row>
+    <row r="47" spans="2:107" ht="3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B47" s="1"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="2"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="2"/>
+      <c r="R47" s="1"/>
+      <c r="S47" s="2"/>
+      <c r="T47" s="1"/>
+      <c r="U47" s="2"/>
+      <c r="V47" s="1"/>
+      <c r="W47" s="2"/>
+      <c r="X47" s="1"/>
+      <c r="Y47" s="2"/>
+      <c r="Z47" s="1"/>
+      <c r="AA47" s="2"/>
+      <c r="AB47" s="1"/>
+      <c r="AC47" s="2"/>
+      <c r="AD47" s="1"/>
+      <c r="AE47" s="2"/>
+      <c r="AF47" s="1"/>
+      <c r="AG47" s="2"/>
+      <c r="AH47" s="1"/>
+      <c r="AI47" s="2"/>
+      <c r="AJ47" s="1"/>
+      <c r="AK47" s="2"/>
+      <c r="AL47" s="1"/>
+      <c r="AM47" s="2"/>
+      <c r="AN47" s="1"/>
+      <c r="AO47" s="2"/>
+      <c r="AP47" s="1"/>
+      <c r="AQ47" s="2"/>
+      <c r="AR47" s="1"/>
+      <c r="AS47" s="2"/>
+      <c r="AT47" s="1"/>
+      <c r="AU47" s="2"/>
+      <c r="AV47" s="1"/>
+      <c r="AW47" s="2"/>
+      <c r="AX47" s="1"/>
+      <c r="AY47" s="2"/>
+      <c r="AZ47" s="1"/>
+      <c r="BA47" s="2"/>
+      <c r="BD47" s="1"/>
+      <c r="BE47" s="2"/>
+      <c r="BF47" s="1"/>
+      <c r="BG47" s="2"/>
+      <c r="BH47" s="1"/>
+      <c r="BI47" s="2"/>
+      <c r="BJ47" s="1"/>
+      <c r="BK47" s="2"/>
+      <c r="BL47" s="1"/>
+      <c r="BM47" s="2"/>
+      <c r="BN47" s="1"/>
+      <c r="BO47" s="2"/>
+      <c r="BP47" s="1"/>
+      <c r="BQ47" s="2"/>
+      <c r="BR47" s="1"/>
+      <c r="BS47" s="2"/>
+      <c r="BT47" s="1"/>
+      <c r="BU47" s="2"/>
+      <c r="BV47" s="1"/>
+      <c r="BW47" s="2"/>
+      <c r="BX47" s="1"/>
+      <c r="BY47" s="2"/>
+      <c r="BZ47" s="1"/>
+      <c r="CA47" s="2"/>
+      <c r="CB47" s="1"/>
+      <c r="CC47" s="2"/>
+      <c r="CD47" s="1"/>
+      <c r="CE47" s="2"/>
+      <c r="CF47" s="1"/>
+      <c r="CG47" s="2"/>
+      <c r="CH47" s="1"/>
+      <c r="CI47" s="2"/>
+      <c r="CJ47" s="1"/>
+      <c r="CK47" s="2"/>
+      <c r="CL47" s="1"/>
+      <c r="CM47" s="2"/>
+      <c r="CN47" s="1"/>
+      <c r="CO47" s="2"/>
+      <c r="CP47" s="1"/>
+      <c r="CQ47" s="2"/>
+      <c r="CR47" s="1"/>
+      <c r="CS47" s="2"/>
+      <c r="CT47" s="1"/>
+      <c r="CU47" s="2"/>
+      <c r="CV47" s="1"/>
+      <c r="CW47" s="2"/>
+      <c r="CX47" s="1"/>
+      <c r="CY47" s="2"/>
+      <c r="CZ47" s="1"/>
+      <c r="DA47" s="2"/>
+      <c r="DB47" s="1"/>
+      <c r="DC47" s="2"/>
+    </row>
+    <row r="49" spans="2:107" ht="3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B49" s="1"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="2"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="2"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="2"/>
+      <c r="T49" s="1"/>
+      <c r="U49" s="2"/>
+      <c r="V49" s="1"/>
+      <c r="W49" s="2"/>
+      <c r="X49" s="1"/>
+      <c r="Y49" s="2"/>
+      <c r="Z49" s="1"/>
+      <c r="AA49" s="2"/>
+      <c r="AB49" s="1"/>
+      <c r="AC49" s="2"/>
+      <c r="AD49" s="1"/>
+      <c r="AE49" s="2"/>
+      <c r="AF49" s="1"/>
+      <c r="AG49" s="2"/>
+      <c r="AH49" s="1"/>
+      <c r="AI49" s="2"/>
+      <c r="AJ49" s="1"/>
+      <c r="AK49" s="2"/>
+      <c r="AL49" s="1"/>
+      <c r="AM49" s="2"/>
+      <c r="AN49" s="1"/>
+      <c r="AO49" s="2"/>
+      <c r="AP49" s="1"/>
+      <c r="AQ49" s="2"/>
+      <c r="AR49" s="1"/>
+      <c r="AS49" s="2"/>
+      <c r="AT49" s="1"/>
+      <c r="AU49" s="2"/>
+      <c r="AV49" s="1"/>
+      <c r="AW49" s="2"/>
+      <c r="AX49" s="1"/>
+      <c r="AY49" s="2"/>
+      <c r="AZ49" s="1"/>
+      <c r="BA49" s="2"/>
+      <c r="BD49" s="1"/>
+      <c r="BE49" s="2"/>
+      <c r="BF49" s="1"/>
+      <c r="BG49" s="2"/>
+      <c r="BH49" s="1"/>
+      <c r="BI49" s="2"/>
+      <c r="BJ49" s="1"/>
+      <c r="BK49" s="2"/>
+      <c r="BL49" s="1"/>
+      <c r="BM49" s="2"/>
+      <c r="BN49" s="1"/>
+      <c r="BO49" s="2"/>
+      <c r="BP49" s="1"/>
+      <c r="BQ49" s="2"/>
+      <c r="BR49" s="1"/>
+      <c r="BS49" s="2"/>
+      <c r="BT49" s="1"/>
+      <c r="BU49" s="2"/>
+      <c r="BV49" s="1"/>
+      <c r="BW49" s="2"/>
+      <c r="BX49" s="1"/>
+      <c r="BY49" s="2"/>
+      <c r="BZ49" s="1"/>
+      <c r="CA49" s="2"/>
+      <c r="CB49" s="1"/>
+      <c r="CC49" s="2"/>
+      <c r="CD49" s="1"/>
+      <c r="CE49" s="2"/>
+      <c r="CF49" s="1"/>
+      <c r="CG49" s="2"/>
+      <c r="CH49" s="1"/>
+      <c r="CI49" s="2"/>
+      <c r="CJ49" s="1"/>
+      <c r="CK49" s="2"/>
+      <c r="CL49" s="1"/>
+      <c r="CM49" s="2"/>
+      <c r="CN49" s="1"/>
+      <c r="CO49" s="2"/>
+      <c r="CP49" s="1"/>
+      <c r="CQ49" s="2"/>
+      <c r="CR49" s="1"/>
+      <c r="CS49" s="2"/>
+      <c r="CT49" s="1"/>
+      <c r="CU49" s="2"/>
+      <c r="CV49" s="1"/>
+      <c r="CW49" s="2"/>
+      <c r="CX49" s="1"/>
+      <c r="CY49" s="2"/>
+      <c r="CZ49" s="1"/>
+      <c r="DA49" s="2"/>
+      <c r="DB49" s="1"/>
+      <c r="DC49" s="2"/>
+    </row>
+    <row r="51" spans="2:107" ht="3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B51" s="1"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="2"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="2"/>
+      <c r="R51" s="1"/>
+      <c r="S51" s="2"/>
+      <c r="T51" s="1"/>
+      <c r="U51" s="2"/>
+      <c r="V51" s="1"/>
+      <c r="W51" s="2"/>
+      <c r="X51" s="1"/>
+      <c r="Y51" s="2"/>
+      <c r="Z51" s="1"/>
+      <c r="AA51" s="2"/>
+      <c r="AB51" s="1"/>
+      <c r="AC51" s="2"/>
+      <c r="AD51" s="1"/>
+      <c r="AE51" s="2"/>
+      <c r="AF51" s="1"/>
+      <c r="AG51" s="2"/>
+      <c r="AH51" s="1"/>
+      <c r="AI51" s="2"/>
+      <c r="AJ51" s="1"/>
+      <c r="AK51" s="2"/>
+      <c r="AL51" s="1"/>
+      <c r="AM51" s="2"/>
+      <c r="AN51" s="1"/>
+      <c r="AO51" s="2"/>
+      <c r="AP51" s="1"/>
+      <c r="AQ51" s="2"/>
+      <c r="AR51" s="1"/>
+      <c r="AS51" s="2"/>
+      <c r="AT51" s="1"/>
+      <c r="AU51" s="2"/>
+      <c r="AV51" s="1"/>
+      <c r="AW51" s="2"/>
+      <c r="AX51" s="1"/>
+      <c r="AY51" s="2"/>
+      <c r="AZ51" s="1"/>
+      <c r="BA51" s="2"/>
+      <c r="BD51" s="1"/>
+      <c r="BE51" s="2"/>
+      <c r="BF51" s="1"/>
+      <c r="BG51" s="2"/>
+      <c r="BH51" s="1"/>
+      <c r="BI51" s="2"/>
+      <c r="BJ51" s="1"/>
+      <c r="BK51" s="2"/>
+      <c r="BL51" s="1"/>
+      <c r="BM51" s="2"/>
+      <c r="BN51" s="1"/>
+      <c r="BO51" s="2"/>
+      <c r="BP51" s="1"/>
+      <c r="BQ51" s="2"/>
+      <c r="BR51" s="1"/>
+      <c r="BS51" s="2"/>
+      <c r="BT51" s="1"/>
+      <c r="BU51" s="2"/>
+      <c r="BV51" s="1"/>
+      <c r="BW51" s="2"/>
+      <c r="BX51" s="1"/>
+      <c r="BY51" s="2"/>
+      <c r="BZ51" s="1"/>
+      <c r="CA51" s="2"/>
+      <c r="CB51" s="1"/>
+      <c r="CC51" s="2"/>
+      <c r="CD51" s="1"/>
+      <c r="CE51" s="2"/>
+      <c r="CF51" s="1"/>
+      <c r="CG51" s="2"/>
+      <c r="CH51" s="1"/>
+      <c r="CI51" s="2"/>
+      <c r="CJ51" s="1"/>
+      <c r="CK51" s="2"/>
+      <c r="CL51" s="1"/>
+      <c r="CM51" s="2"/>
+      <c r="CN51" s="1"/>
+      <c r="CO51" s="2"/>
+      <c r="CP51" s="1"/>
+      <c r="CQ51" s="2"/>
+      <c r="CR51" s="1"/>
+      <c r="CS51" s="2"/>
+      <c r="CT51" s="1"/>
+      <c r="CU51" s="2"/>
+      <c r="CV51" s="1"/>
+      <c r="CW51" s="2"/>
+      <c r="CX51" s="1"/>
+      <c r="CY51" s="2"/>
+      <c r="CZ51" s="1"/>
+      <c r="DA51" s="2"/>
+      <c r="DB51" s="1"/>
+      <c r="DC51" s="2"/>
+    </row>
+    <row r="53" spans="2:107" ht="3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B53" s="1"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="2"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="2"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="2"/>
+      <c r="R53" s="1"/>
+      <c r="S53" s="2"/>
+      <c r="T53" s="1"/>
+      <c r="U53" s="2"/>
+      <c r="V53" s="1"/>
+      <c r="W53" s="2"/>
+      <c r="X53" s="1"/>
+      <c r="Y53" s="2"/>
+      <c r="Z53" s="1"/>
+      <c r="AA53" s="2"/>
+      <c r="AB53" s="1"/>
+      <c r="AC53" s="2"/>
+      <c r="AD53" s="1"/>
+      <c r="AE53" s="2"/>
+      <c r="AF53" s="1"/>
+      <c r="AG53" s="2"/>
+      <c r="AH53" s="1"/>
+      <c r="AI53" s="2"/>
+      <c r="AJ53" s="1"/>
+      <c r="AK53" s="2"/>
+      <c r="AL53" s="1"/>
+      <c r="AM53" s="2"/>
+      <c r="AN53" s="1"/>
+      <c r="AO53" s="2"/>
+      <c r="AP53" s="1"/>
+      <c r="AQ53" s="2"/>
+      <c r="AR53" s="1"/>
+      <c r="AS53" s="2"/>
+      <c r="AT53" s="1"/>
+      <c r="AU53" s="2"/>
+      <c r="AV53" s="1"/>
+      <c r="AW53" s="2"/>
+      <c r="AX53" s="1"/>
+      <c r="AY53" s="2"/>
+      <c r="AZ53" s="1"/>
+      <c r="BA53" s="2"/>
+      <c r="BD53" s="1"/>
+      <c r="BE53" s="2"/>
+      <c r="BF53" s="1"/>
+      <c r="BG53" s="2"/>
+      <c r="BH53" s="1"/>
+      <c r="BI53" s="2"/>
+      <c r="BJ53" s="1"/>
+      <c r="BK53" s="2"/>
+      <c r="BL53" s="1"/>
+      <c r="BM53" s="2"/>
+      <c r="BN53" s="1"/>
+      <c r="BO53" s="2"/>
+      <c r="BP53" s="1"/>
+      <c r="BQ53" s="2"/>
+      <c r="BR53" s="1"/>
+      <c r="BS53" s="2"/>
+      <c r="BT53" s="1"/>
+      <c r="BU53" s="2"/>
+      <c r="BV53" s="1"/>
+      <c r="BW53" s="2"/>
+      <c r="BX53" s="1"/>
+      <c r="BY53" s="2"/>
+      <c r="BZ53" s="1"/>
+      <c r="CA53" s="2"/>
+      <c r="CB53" s="1"/>
+      <c r="CC53" s="2"/>
+      <c r="CD53" s="1"/>
+      <c r="CE53" s="2"/>
+      <c r="CF53" s="1"/>
+      <c r="CG53" s="2"/>
+      <c r="CH53" s="1"/>
+      <c r="CI53" s="2"/>
+      <c r="CJ53" s="1"/>
+      <c r="CK53" s="2"/>
+      <c r="CL53" s="1"/>
+      <c r="CM53" s="2"/>
+      <c r="CN53" s="1"/>
+      <c r="CO53" s="2"/>
+      <c r="CP53" s="1"/>
+      <c r="CQ53" s="2"/>
+      <c r="CR53" s="1"/>
+      <c r="CS53" s="2"/>
+      <c r="CT53" s="1"/>
+      <c r="CU53" s="2"/>
+      <c r="CV53" s="1"/>
+      <c r="CW53" s="2"/>
+      <c r="CX53" s="1"/>
+      <c r="CY53" s="2"/>
+      <c r="CZ53" s="1"/>
+      <c r="DA53" s="2"/>
+      <c r="DB53" s="1"/>
+      <c r="DC53" s="2"/>
+    </row>
+    <row r="55" spans="2:107" ht="3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B55" s="1"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="2"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="2"/>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="2"/>
+      <c r="R55" s="1"/>
+      <c r="S55" s="2"/>
+      <c r="T55" s="1"/>
+      <c r="U55" s="2"/>
+      <c r="V55" s="1"/>
+      <c r="W55" s="2"/>
+      <c r="X55" s="1"/>
+      <c r="Y55" s="2"/>
+      <c r="Z55" s="1"/>
+      <c r="AA55" s="2"/>
+      <c r="AB55" s="1"/>
+      <c r="AC55" s="2"/>
+      <c r="AD55" s="1"/>
+      <c r="AE55" s="2"/>
+      <c r="AF55" s="1"/>
+      <c r="AG55" s="2"/>
+      <c r="AH55" s="1"/>
+      <c r="AI55" s="2"/>
+      <c r="AJ55" s="1"/>
+      <c r="AK55" s="2"/>
+      <c r="AL55" s="1"/>
+      <c r="AM55" s="2"/>
+      <c r="AN55" s="1"/>
+      <c r="AO55" s="2"/>
+      <c r="AP55" s="1"/>
+      <c r="AQ55" s="2"/>
+      <c r="AR55" s="1"/>
+      <c r="AS55" s="2"/>
+      <c r="AT55" s="1"/>
+      <c r="AU55" s="2"/>
+      <c r="AV55" s="1"/>
+      <c r="AW55" s="2"/>
+      <c r="AX55" s="1"/>
+      <c r="AY55" s="2"/>
+      <c r="AZ55" s="1"/>
+      <c r="BA55" s="2"/>
+      <c r="BD55" s="1"/>
+      <c r="BE55" s="2"/>
+      <c r="BF55" s="1"/>
+      <c r="BG55" s="2"/>
+      <c r="BH55" s="1"/>
+      <c r="BI55" s="2"/>
+      <c r="BJ55" s="1"/>
+      <c r="BK55" s="2"/>
+      <c r="BL55" s="1"/>
+      <c r="BM55" s="2"/>
+      <c r="BN55" s="1"/>
+      <c r="BO55" s="2"/>
+      <c r="BP55" s="1"/>
+      <c r="BQ55" s="2"/>
+      <c r="BR55" s="1"/>
+      <c r="BS55" s="2"/>
+      <c r="BT55" s="1"/>
+      <c r="BU55" s="2"/>
+      <c r="BV55" s="1"/>
+      <c r="BW55" s="2"/>
+      <c r="BX55" s="1"/>
+      <c r="BY55" s="2"/>
+      <c r="BZ55" s="1"/>
+      <c r="CA55" s="2"/>
+      <c r="CB55" s="1"/>
+      <c r="CC55" s="2"/>
+      <c r="CD55" s="1"/>
+      <c r="CE55" s="2"/>
+      <c r="CF55" s="1"/>
+      <c r="CG55" s="2"/>
+      <c r="CH55" s="1"/>
+      <c r="CI55" s="2"/>
+      <c r="CJ55" s="1"/>
+      <c r="CK55" s="2"/>
+      <c r="CL55" s="1"/>
+      <c r="CM55" s="2"/>
+      <c r="CN55" s="1"/>
+      <c r="CO55" s="2"/>
+      <c r="CP55" s="1"/>
+      <c r="CQ55" s="2"/>
+      <c r="CR55" s="1"/>
+      <c r="CS55" s="2"/>
+      <c r="CT55" s="1"/>
+      <c r="CU55" s="2"/>
+      <c r="CV55" s="1"/>
+      <c r="CW55" s="2"/>
+      <c r="CX55" s="1"/>
+      <c r="CY55" s="2"/>
+      <c r="CZ55" s="1"/>
+      <c r="DA55" s="2"/>
+      <c r="DB55" s="1"/>
+      <c r="DC55" s="2"/>
+    </row>
+    <row r="57" spans="2:107" ht="3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B57" s="1"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="2"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="2"/>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="2"/>
+      <c r="R57" s="1"/>
+      <c r="S57" s="2"/>
+      <c r="T57" s="1"/>
+      <c r="U57" s="2"/>
+      <c r="V57" s="1"/>
+      <c r="W57" s="2"/>
+      <c r="X57" s="1"/>
+      <c r="Y57" s="2"/>
+      <c r="Z57" s="1"/>
+      <c r="AA57" s="2"/>
+      <c r="AB57" s="1"/>
+      <c r="AC57" s="2"/>
+      <c r="AD57" s="1"/>
+      <c r="AE57" s="2"/>
+      <c r="AF57" s="1"/>
+      <c r="AG57" s="2"/>
+      <c r="AH57" s="1"/>
+      <c r="AI57" s="2"/>
+      <c r="AJ57" s="1"/>
+      <c r="AK57" s="2"/>
+      <c r="AL57" s="1"/>
+      <c r="AM57" s="2"/>
+      <c r="AN57" s="1"/>
+      <c r="AO57" s="2"/>
+      <c r="AP57" s="1"/>
+      <c r="AQ57" s="2"/>
+      <c r="AR57" s="1"/>
+      <c r="AS57" s="2"/>
+      <c r="AT57" s="1"/>
+      <c r="AU57" s="2"/>
+      <c r="AV57" s="1"/>
+      <c r="AW57" s="2"/>
+      <c r="AX57" s="1"/>
+      <c r="AY57" s="2"/>
+      <c r="AZ57" s="1"/>
+      <c r="BA57" s="2"/>
+      <c r="BD57" s="1"/>
+      <c r="BE57" s="2"/>
+      <c r="BF57" s="1"/>
+      <c r="BG57" s="2"/>
+      <c r="BH57" s="1"/>
+      <c r="BI57" s="2"/>
+      <c r="BJ57" s="1"/>
+      <c r="BK57" s="2"/>
+      <c r="BL57" s="1"/>
+      <c r="BM57" s="2"/>
+      <c r="BN57" s="1"/>
+      <c r="BO57" s="2"/>
+      <c r="BP57" s="1"/>
+      <c r="BQ57" s="2"/>
+      <c r="BR57" s="1"/>
+      <c r="BS57" s="2"/>
+      <c r="BT57" s="1"/>
+      <c r="BU57" s="2"/>
+      <c r="BV57" s="1"/>
+      <c r="BW57" s="2"/>
+      <c r="BX57" s="1"/>
+      <c r="BY57" s="2"/>
+      <c r="BZ57" s="1"/>
+      <c r="CA57" s="2"/>
+      <c r="CB57" s="1"/>
+      <c r="CC57" s="2"/>
+      <c r="CD57" s="1"/>
+      <c r="CE57" s="2"/>
+      <c r="CF57" s="1"/>
+      <c r="CG57" s="2"/>
+      <c r="CH57" s="1"/>
+      <c r="CI57" s="2"/>
+      <c r="CJ57" s="1"/>
+      <c r="CK57" s="2"/>
+      <c r="CL57" s="1"/>
+      <c r="CM57" s="2"/>
+      <c r="CN57" s="1"/>
+      <c r="CO57" s="2"/>
+      <c r="CP57" s="1"/>
+      <c r="CQ57" s="2"/>
+      <c r="CR57" s="1"/>
+      <c r="CS57" s="2"/>
+      <c r="CT57" s="1"/>
+      <c r="CU57" s="2"/>
+      <c r="CV57" s="1"/>
+      <c r="CW57" s="2"/>
+      <c r="CX57" s="1"/>
+      <c r="CY57" s="2"/>
+      <c r="CZ57" s="1"/>
+      <c r="DA57" s="2"/>
+      <c r="DB57" s="1"/>
+      <c r="DC57" s="2"/>
+    </row>
+    <row r="59" spans="2:107" ht="3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B59" s="1"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="2"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="2"/>
+      <c r="P59" s="1"/>
+      <c r="Q59" s="2"/>
+      <c r="R59" s="1"/>
+      <c r="S59" s="2"/>
+      <c r="T59" s="1"/>
+      <c r="U59" s="2"/>
+      <c r="V59" s="1"/>
+      <c r="W59" s="2"/>
+      <c r="X59" s="1"/>
+      <c r="Y59" s="2"/>
+      <c r="Z59" s="1"/>
+      <c r="AA59" s="2"/>
+      <c r="AB59" s="1"/>
+      <c r="AC59" s="2"/>
+      <c r="AD59" s="1"/>
+      <c r="AE59" s="2"/>
+      <c r="AF59" s="1"/>
+      <c r="AG59" s="2"/>
+      <c r="AH59" s="1"/>
+      <c r="AI59" s="2"/>
+      <c r="AJ59" s="1"/>
+      <c r="AK59" s="2"/>
+      <c r="AL59" s="1"/>
+      <c r="AM59" s="2"/>
+      <c r="AN59" s="1"/>
+      <c r="AO59" s="2"/>
+      <c r="AP59" s="1"/>
+      <c r="AQ59" s="2"/>
+      <c r="AR59" s="1"/>
+      <c r="AS59" s="2"/>
+      <c r="AT59" s="1"/>
+      <c r="AU59" s="2"/>
+      <c r="AV59" s="1"/>
+      <c r="AW59" s="2"/>
+      <c r="AX59" s="1"/>
+      <c r="AY59" s="2"/>
+      <c r="AZ59" s="1"/>
+      <c r="BA59" s="2"/>
+      <c r="BD59" s="1"/>
+      <c r="BE59" s="2"/>
+      <c r="BF59" s="1"/>
+      <c r="BG59" s="2"/>
+      <c r="BH59" s="1"/>
+      <c r="BI59" s="2"/>
+      <c r="BJ59" s="1"/>
+      <c r="BK59" s="2"/>
+      <c r="BL59" s="1"/>
+      <c r="BM59" s="2"/>
+      <c r="BN59" s="1"/>
+      <c r="BO59" s="2"/>
+      <c r="BP59" s="1"/>
+      <c r="BQ59" s="2"/>
+      <c r="BR59" s="1"/>
+      <c r="BS59" s="2"/>
+      <c r="BT59" s="1"/>
+      <c r="BU59" s="2"/>
+      <c r="BV59" s="1"/>
+      <c r="BW59" s="2"/>
+      <c r="BX59" s="1"/>
+      <c r="BY59" s="2"/>
+      <c r="BZ59" s="1"/>
+      <c r="CA59" s="2"/>
+      <c r="CB59" s="1"/>
+      <c r="CC59" s="2"/>
+      <c r="CD59" s="1"/>
+      <c r="CE59" s="2"/>
+      <c r="CF59" s="1"/>
+      <c r="CG59" s="2"/>
+      <c r="CH59" s="1"/>
+      <c r="CI59" s="2"/>
+      <c r="CJ59" s="1"/>
+      <c r="CK59" s="2"/>
+      <c r="CL59" s="1"/>
+      <c r="CM59" s="2"/>
+      <c r="CN59" s="1"/>
+      <c r="CO59" s="2"/>
+      <c r="CP59" s="1"/>
+      <c r="CQ59" s="2"/>
+      <c r="CR59" s="1"/>
+      <c r="CS59" s="2"/>
+      <c r="CT59" s="1"/>
+      <c r="CU59" s="2"/>
+      <c r="CV59" s="1"/>
+      <c r="CW59" s="2"/>
+      <c r="CX59" s="1"/>
+      <c r="CY59" s="2"/>
+      <c r="CZ59" s="1"/>
+      <c r="DA59" s="2"/>
+      <c r="DB59" s="1"/>
+      <c r="DC59" s="2"/>
+    </row>
+    <row r="61" spans="2:107" ht="3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B61" s="1"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="2"/>
+      <c r="N61" s="1"/>
+      <c r="O61" s="2"/>
+      <c r="P61" s="1"/>
+      <c r="Q61" s="2"/>
+      <c r="R61" s="1"/>
+      <c r="S61" s="2"/>
+      <c r="T61" s="1"/>
+      <c r="U61" s="2"/>
+      <c r="V61" s="1"/>
+      <c r="W61" s="2"/>
+      <c r="X61" s="1"/>
+      <c r="Y61" s="2"/>
+      <c r="Z61" s="1"/>
+      <c r="AA61" s="2"/>
+      <c r="AB61" s="1"/>
+      <c r="AC61" s="2"/>
+      <c r="AD61" s="1"/>
+      <c r="AE61" s="2"/>
+      <c r="AF61" s="1"/>
+      <c r="AG61" s="2"/>
+      <c r="AH61" s="1"/>
+      <c r="AI61" s="2"/>
+      <c r="AJ61" s="1"/>
+      <c r="AK61" s="2"/>
+      <c r="AL61" s="1"/>
+      <c r="AM61" s="2"/>
+      <c r="AN61" s="1"/>
+      <c r="AO61" s="2"/>
+      <c r="AP61" s="1"/>
+      <c r="AQ61" s="2"/>
+      <c r="AR61" s="1"/>
+      <c r="AS61" s="2"/>
+      <c r="AT61" s="1"/>
+      <c r="AU61" s="2"/>
+      <c r="AV61" s="1"/>
+      <c r="AW61" s="2"/>
+      <c r="AX61" s="1"/>
+      <c r="AY61" s="2"/>
+      <c r="AZ61" s="1"/>
+      <c r="BA61" s="2"/>
+      <c r="BD61" s="1"/>
+      <c r="BE61" s="2"/>
+      <c r="BF61" s="1"/>
+      <c r="BG61" s="2"/>
+      <c r="BH61" s="1"/>
+      <c r="BI61" s="2"/>
+      <c r="BJ61" s="1"/>
+      <c r="BK61" s="2"/>
+      <c r="BL61" s="1"/>
+      <c r="BM61" s="2"/>
+      <c r="BN61" s="1"/>
+      <c r="BO61" s="2"/>
+      <c r="BP61" s="1"/>
+      <c r="BQ61" s="2"/>
+      <c r="BR61" s="1"/>
+      <c r="BS61" s="2"/>
+      <c r="BT61" s="1"/>
+      <c r="BU61" s="2"/>
+      <c r="BV61" s="1"/>
+      <c r="BW61" s="2"/>
+      <c r="BX61" s="1"/>
+      <c r="BY61" s="2"/>
+      <c r="BZ61" s="1"/>
+      <c r="CA61" s="2"/>
+      <c r="CB61" s="1"/>
+      <c r="CC61" s="2"/>
+      <c r="CD61" s="1"/>
+      <c r="CE61" s="2"/>
+      <c r="CF61" s="1"/>
+      <c r="CG61" s="2"/>
+      <c r="CH61" s="1"/>
+      <c r="CI61" s="2"/>
+      <c r="CJ61" s="1"/>
+      <c r="CK61" s="2"/>
+      <c r="CL61" s="1"/>
+      <c r="CM61" s="2"/>
+      <c r="CN61" s="1"/>
+      <c r="CO61" s="2"/>
+      <c r="CP61" s="1"/>
+      <c r="CQ61" s="2"/>
+      <c r="CR61" s="1"/>
+      <c r="CS61" s="2"/>
+      <c r="CT61" s="1"/>
+      <c r="CU61" s="2"/>
+      <c r="CV61" s="1"/>
+      <c r="CW61" s="2"/>
+      <c r="CX61" s="1"/>
+      <c r="CY61" s="2"/>
+      <c r="CZ61" s="1"/>
+      <c r="DA61" s="2"/>
+      <c r="DB61" s="1"/>
+      <c r="DC61" s="2"/>
+    </row>
+    <row r="63" spans="2:107" ht="3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B63" s="1"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="2"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="2"/>
+      <c r="N63" s="1"/>
+      <c r="O63" s="2"/>
+      <c r="P63" s="1"/>
+      <c r="Q63" s="2"/>
+      <c r="R63" s="1"/>
+      <c r="S63" s="2"/>
+      <c r="T63" s="1"/>
+      <c r="U63" s="2"/>
+      <c r="V63" s="1"/>
+      <c r="W63" s="2"/>
+      <c r="X63" s="1"/>
+      <c r="Y63" s="2"/>
+      <c r="Z63" s="1"/>
+      <c r="AA63" s="2"/>
+      <c r="AB63" s="1"/>
+      <c r="AC63" s="2"/>
+      <c r="AD63" s="1"/>
+      <c r="AE63" s="2"/>
+      <c r="AF63" s="1"/>
+      <c r="AG63" s="2"/>
+      <c r="AH63" s="1"/>
+      <c r="AI63" s="2"/>
+      <c r="AJ63" s="1"/>
+      <c r="AK63" s="2"/>
+      <c r="AL63" s="1"/>
+      <c r="AM63" s="2"/>
+      <c r="AN63" s="1"/>
+      <c r="AO63" s="2"/>
+      <c r="AP63" s="1"/>
+      <c r="AQ63" s="2"/>
+      <c r="AR63" s="1"/>
+      <c r="AS63" s="2"/>
+      <c r="AT63" s="1"/>
+      <c r="AU63" s="2"/>
+      <c r="AV63" s="1"/>
+      <c r="AW63" s="2"/>
+      <c r="AX63" s="1"/>
+      <c r="AY63" s="2"/>
+      <c r="AZ63" s="1"/>
+      <c r="BA63" s="2"/>
+      <c r="BD63" s="1"/>
+      <c r="BE63" s="2"/>
+      <c r="BF63" s="1"/>
+      <c r="BG63" s="2"/>
+      <c r="BH63" s="1"/>
+      <c r="BI63" s="2"/>
+      <c r="BJ63" s="1"/>
+      <c r="BK63" s="2"/>
+      <c r="BL63" s="1"/>
+      <c r="BM63" s="2"/>
+      <c r="BN63" s="1"/>
+      <c r="BO63" s="2"/>
+      <c r="BP63" s="1"/>
+      <c r="BQ63" s="2"/>
+      <c r="BR63" s="1"/>
+      <c r="BS63" s="2"/>
+      <c r="BT63" s="1"/>
+      <c r="BU63" s="2"/>
+      <c r="BV63" s="1"/>
+      <c r="BW63" s="2"/>
+      <c r="BX63" s="1"/>
+      <c r="BY63" s="2"/>
+      <c r="BZ63" s="1"/>
+      <c r="CA63" s="2"/>
+      <c r="CB63" s="1"/>
+      <c r="CC63" s="2"/>
+      <c r="CD63" s="1"/>
+      <c r="CE63" s="2"/>
+      <c r="CF63" s="1"/>
+      <c r="CG63" s="2"/>
+      <c r="CH63" s="1"/>
+      <c r="CI63" s="2"/>
+      <c r="CJ63" s="1"/>
+      <c r="CK63" s="2"/>
+      <c r="CL63" s="1"/>
+      <c r="CM63" s="2"/>
+      <c r="CN63" s="1"/>
+      <c r="CO63" s="2"/>
+      <c r="CP63" s="1"/>
+      <c r="CQ63" s="2"/>
+      <c r="CR63" s="1"/>
+      <c r="CS63" s="2"/>
+      <c r="CT63" s="1"/>
+      <c r="CU63" s="2"/>
+      <c r="CV63" s="1"/>
+      <c r="CW63" s="2"/>
+      <c r="CX63" s="1"/>
+      <c r="CY63" s="2"/>
+      <c r="CZ63" s="1"/>
+      <c r="DA63" s="2"/>
+      <c r="DB63" s="1"/>
+      <c r="DC63" s="2"/>
+    </row>
+    <row r="65" spans="2:107" ht="3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B65" s="1"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="2"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="2"/>
+      <c r="N65" s="1"/>
+      <c r="O65" s="2"/>
+      <c r="P65" s="1"/>
+      <c r="Q65" s="2"/>
+      <c r="R65" s="1"/>
+      <c r="S65" s="2"/>
+      <c r="T65" s="1"/>
+      <c r="U65" s="2"/>
+      <c r="V65" s="1"/>
+      <c r="W65" s="2"/>
+      <c r="X65" s="1"/>
+      <c r="Y65" s="2"/>
+      <c r="Z65" s="1"/>
+      <c r="AA65" s="2"/>
+      <c r="AB65" s="1"/>
+      <c r="AC65" s="2"/>
+      <c r="AD65" s="1"/>
+      <c r="AE65" s="2"/>
+      <c r="AF65" s="1"/>
+      <c r="AG65" s="2"/>
+      <c r="AH65" s="1"/>
+      <c r="AI65" s="2"/>
+      <c r="AJ65" s="1"/>
+      <c r="AK65" s="2"/>
+      <c r="AL65" s="1"/>
+      <c r="AM65" s="2"/>
+      <c r="AN65" s="1"/>
+      <c r="AO65" s="2"/>
+      <c r="AP65" s="1"/>
+      <c r="AQ65" s="2"/>
+      <c r="AR65" s="1"/>
+      <c r="AS65" s="2"/>
+      <c r="AT65" s="1"/>
+      <c r="AU65" s="2"/>
+      <c r="AV65" s="1"/>
+      <c r="AW65" s="2"/>
+      <c r="AX65" s="1"/>
+      <c r="AY65" s="2"/>
+      <c r="AZ65" s="1"/>
+      <c r="BA65" s="2"/>
+      <c r="BD65" s="1"/>
+      <c r="BE65" s="2"/>
+      <c r="BF65" s="1"/>
+      <c r="BG65" s="2"/>
+      <c r="BH65" s="1"/>
+      <c r="BI65" s="2"/>
+      <c r="BJ65" s="1"/>
+      <c r="BK65" s="2"/>
+      <c r="BL65" s="1"/>
+      <c r="BM65" s="2"/>
+      <c r="BN65" s="1"/>
+      <c r="BO65" s="2"/>
+      <c r="BP65" s="1"/>
+      <c r="BQ65" s="2"/>
+      <c r="BR65" s="1"/>
+      <c r="BS65" s="2"/>
+      <c r="BT65" s="1"/>
+      <c r="BU65" s="2"/>
+      <c r="BV65" s="1"/>
+      <c r="BW65" s="2"/>
+      <c r="BX65" s="1"/>
+      <c r="BY65" s="2"/>
+      <c r="BZ65" s="1"/>
+      <c r="CA65" s="2"/>
+      <c r="CB65" s="1"/>
+      <c r="CC65" s="2"/>
+      <c r="CD65" s="1"/>
+      <c r="CE65" s="2"/>
+      <c r="CF65" s="1"/>
+      <c r="CG65" s="2"/>
+      <c r="CH65" s="1"/>
+      <c r="CI65" s="2"/>
+      <c r="CJ65" s="1"/>
+      <c r="CK65" s="2"/>
+      <c r="CL65" s="1"/>
+      <c r="CM65" s="2"/>
+      <c r="CN65" s="1"/>
+      <c r="CO65" s="2"/>
+      <c r="CP65" s="1"/>
+      <c r="CQ65" s="2"/>
+      <c r="CR65" s="1"/>
+      <c r="CS65" s="2"/>
+      <c r="CT65" s="1"/>
+      <c r="CU65" s="2"/>
+      <c r="CV65" s="1"/>
+      <c r="CW65" s="2"/>
+      <c r="CX65" s="1"/>
+      <c r="CY65" s="2"/>
+      <c r="CZ65" s="1"/>
+      <c r="DA65" s="2"/>
+      <c r="DB65" s="1"/>
+      <c r="DC65" s="2"/>
+    </row>
+    <row r="67" spans="2:107" ht="3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B67" s="1"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="2"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="2"/>
+      <c r="N67" s="1"/>
+      <c r="O67" s="2"/>
+      <c r="P67" s="1"/>
+      <c r="Q67" s="2"/>
+      <c r="R67" s="1"/>
+      <c r="S67" s="2"/>
+      <c r="T67" s="1"/>
+      <c r="U67" s="2"/>
+      <c r="V67" s="1"/>
+      <c r="W67" s="2"/>
+      <c r="X67" s="1"/>
+      <c r="Y67" s="2"/>
+      <c r="Z67" s="1"/>
+      <c r="AA67" s="2"/>
+      <c r="AB67" s="1"/>
+      <c r="AC67" s="2"/>
+      <c r="AD67" s="1"/>
+      <c r="AE67" s="2"/>
+      <c r="AF67" s="1"/>
+      <c r="AG67" s="2"/>
+      <c r="AH67" s="1"/>
+      <c r="AI67" s="2"/>
+      <c r="AJ67" s="1"/>
+      <c r="AK67" s="2"/>
+      <c r="AL67" s="1"/>
+      <c r="AM67" s="2"/>
+      <c r="AN67" s="1"/>
+      <c r="AO67" s="2"/>
+      <c r="AP67" s="1"/>
+      <c r="AQ67" s="2"/>
+      <c r="AR67" s="1"/>
+      <c r="AS67" s="2"/>
+      <c r="AT67" s="1"/>
+      <c r="AU67" s="2"/>
+      <c r="AV67" s="1"/>
+      <c r="AW67" s="2"/>
+      <c r="AX67" s="1"/>
+      <c r="AY67" s="2"/>
+      <c r="AZ67" s="1"/>
+      <c r="BA67" s="2"/>
+      <c r="BD67" s="1"/>
+      <c r="BE67" s="2"/>
+      <c r="BF67" s="1"/>
+      <c r="BG67" s="2"/>
+      <c r="BH67" s="1"/>
+      <c r="BI67" s="2"/>
+      <c r="BJ67" s="1"/>
+      <c r="BK67" s="2"/>
+      <c r="BL67" s="1"/>
+      <c r="BM67" s="2"/>
+      <c r="BN67" s="1"/>
+      <c r="BO67" s="2"/>
+      <c r="BP67" s="1"/>
+      <c r="BQ67" s="2"/>
+      <c r="BR67" s="1"/>
+      <c r="BS67" s="2"/>
+      <c r="BT67" s="1"/>
+      <c r="BU67" s="2"/>
+      <c r="BV67" s="1"/>
+      <c r="BW67" s="2"/>
+      <c r="BX67" s="1"/>
+      <c r="BY67" s="2"/>
+      <c r="BZ67" s="1"/>
+      <c r="CA67" s="2"/>
+      <c r="CB67" s="1"/>
+      <c r="CC67" s="2"/>
+      <c r="CD67" s="1"/>
+      <c r="CE67" s="2"/>
+      <c r="CF67" s="1"/>
+      <c r="CG67" s="2"/>
+      <c r="CH67" s="1"/>
+      <c r="CI67" s="2"/>
+      <c r="CJ67" s="1"/>
+      <c r="CK67" s="2"/>
+      <c r="CL67" s="1"/>
+      <c r="CM67" s="2"/>
+      <c r="CN67" s="1"/>
+      <c r="CO67" s="2"/>
+      <c r="CP67" s="1"/>
+      <c r="CQ67" s="2"/>
+      <c r="CR67" s="1"/>
+      <c r="CS67" s="2"/>
+      <c r="CT67" s="1"/>
+      <c r="CU67" s="2"/>
+      <c r="CV67" s="1"/>
+      <c r="CW67" s="2"/>
+      <c r="CX67" s="1"/>
+      <c r="CY67" s="2"/>
+      <c r="CZ67" s="1"/>
+      <c r="DA67" s="2"/>
+      <c r="DB67" s="1"/>
+      <c r="DC67" s="2"/>
+    </row>
+    <row r="69" spans="2:107" ht="3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B69" s="1"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="2"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="2"/>
+      <c r="N69" s="1"/>
+      <c r="O69" s="2"/>
+      <c r="P69" s="1"/>
+      <c r="Q69" s="2"/>
+      <c r="R69" s="1"/>
+      <c r="S69" s="2"/>
+      <c r="T69" s="1"/>
+      <c r="U69" s="2"/>
+      <c r="V69" s="1"/>
+      <c r="W69" s="2"/>
+      <c r="X69" s="1"/>
+      <c r="Y69" s="2"/>
+      <c r="Z69" s="1"/>
+      <c r="AA69" s="2"/>
+      <c r="AB69" s="1"/>
+      <c r="AC69" s="2"/>
+      <c r="AD69" s="1"/>
+      <c r="AE69" s="2"/>
+      <c r="AF69" s="1"/>
+      <c r="AG69" s="2"/>
+      <c r="AH69" s="1"/>
+      <c r="AI69" s="2"/>
+      <c r="AJ69" s="1"/>
+      <c r="AK69" s="2"/>
+      <c r="AL69" s="1"/>
+      <c r="AM69" s="2"/>
+      <c r="AN69" s="1"/>
+      <c r="AO69" s="2"/>
+      <c r="AP69" s="1"/>
+      <c r="AQ69" s="2"/>
+      <c r="AR69" s="1"/>
+      <c r="AS69" s="2"/>
+      <c r="AT69" s="1"/>
+      <c r="AU69" s="2"/>
+      <c r="AV69" s="1"/>
+      <c r="AW69" s="2"/>
+      <c r="AX69" s="1"/>
+      <c r="AY69" s="2"/>
+      <c r="AZ69" s="1"/>
+      <c r="BA69" s="2"/>
+      <c r="BD69" s="1"/>
+      <c r="BE69" s="2"/>
+      <c r="BF69" s="1"/>
+      <c r="BG69" s="2"/>
+      <c r="BH69" s="1"/>
+      <c r="BI69" s="2"/>
+      <c r="BJ69" s="1"/>
+      <c r="BK69" s="2"/>
+      <c r="BL69" s="1"/>
+      <c r="BM69" s="2"/>
+      <c r="BN69" s="1"/>
+      <c r="BO69" s="2"/>
+      <c r="BP69" s="1"/>
+      <c r="BQ69" s="2"/>
+      <c r="BR69" s="1"/>
+      <c r="BS69" s="2"/>
+      <c r="BT69" s="1"/>
+      <c r="BU69" s="2"/>
+      <c r="BV69" s="1"/>
+      <c r="BW69" s="2"/>
+      <c r="BX69" s="1"/>
+      <c r="BY69" s="2"/>
+      <c r="BZ69" s="1"/>
+      <c r="CA69" s="2"/>
+      <c r="CB69" s="1"/>
+      <c r="CC69" s="2"/>
+      <c r="CD69" s="1"/>
+      <c r="CE69" s="2"/>
+      <c r="CF69" s="1"/>
+      <c r="CG69" s="2"/>
+      <c r="CH69" s="1"/>
+      <c r="CI69" s="2"/>
+      <c r="CJ69" s="1"/>
+      <c r="CK69" s="2"/>
+      <c r="CL69" s="1"/>
+      <c r="CM69" s="2"/>
+      <c r="CN69" s="1"/>
+      <c r="CO69" s="2"/>
+      <c r="CP69" s="1"/>
+      <c r="CQ69" s="2"/>
+      <c r="CR69" s="1"/>
+      <c r="CS69" s="2"/>
+      <c r="CT69" s="1"/>
+      <c r="CU69" s="2"/>
+      <c r="CV69" s="1"/>
+      <c r="CW69" s="2"/>
+      <c r="CX69" s="1"/>
+      <c r="CY69" s="2"/>
+      <c r="CZ69" s="1"/>
+      <c r="DA69" s="2"/>
+      <c r="DB69" s="1"/>
+      <c r="DC69" s="2"/>
+    </row>
+    <row r="71" spans="2:107" ht="3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B71" s="1"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="2"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="2"/>
+      <c r="N71" s="1"/>
+      <c r="O71" s="2"/>
+      <c r="P71" s="1"/>
+      <c r="Q71" s="2"/>
+      <c r="R71" s="1"/>
+      <c r="S71" s="2"/>
+      <c r="T71" s="1"/>
+      <c r="U71" s="2"/>
+      <c r="V71" s="1"/>
+      <c r="W71" s="2"/>
+      <c r="X71" s="1"/>
+      <c r="Y71" s="2"/>
+      <c r="Z71" s="1"/>
+      <c r="AA71" s="2"/>
+      <c r="AB71" s="1"/>
+      <c r="AC71" s="2"/>
+      <c r="AD71" s="1"/>
+      <c r="AE71" s="2"/>
+      <c r="AF71" s="1"/>
+      <c r="AG71" s="2"/>
+      <c r="AH71" s="1"/>
+      <c r="AI71" s="2"/>
+      <c r="AJ71" s="1"/>
+      <c r="AK71" s="2"/>
+      <c r="AL71" s="1"/>
+      <c r="AM71" s="2"/>
+      <c r="AN71" s="1"/>
+      <c r="AO71" s="2"/>
+      <c r="AP71" s="1"/>
+      <c r="AQ71" s="2"/>
+      <c r="AR71" s="1"/>
+      <c r="AS71" s="2"/>
+      <c r="AT71" s="1"/>
+      <c r="AU71" s="2"/>
+      <c r="AV71" s="1"/>
+      <c r="AW71" s="2"/>
+      <c r="AX71" s="1"/>
+      <c r="AY71" s="2"/>
+      <c r="AZ71" s="1"/>
+      <c r="BA71" s="2"/>
+      <c r="BD71" s="1"/>
+      <c r="BE71" s="2"/>
+      <c r="BF71" s="1"/>
+      <c r="BG71" s="2"/>
+      <c r="BH71" s="1"/>
+      <c r="BI71" s="2"/>
+      <c r="BJ71" s="1"/>
+      <c r="BK71" s="2"/>
+      <c r="BL71" s="1"/>
+      <c r="BM71" s="2"/>
+      <c r="BN71" s="1"/>
+      <c r="BO71" s="2"/>
+      <c r="BP71" s="1"/>
+      <c r="BQ71" s="2"/>
+      <c r="BR71" s="1"/>
+      <c r="BS71" s="2"/>
+      <c r="BT71" s="1"/>
+      <c r="BU71" s="2"/>
+      <c r="BV71" s="1"/>
+      <c r="BW71" s="2"/>
+      <c r="BX71" s="1"/>
+      <c r="BY71" s="2"/>
+      <c r="BZ71" s="1"/>
+      <c r="CA71" s="2"/>
+      <c r="CB71" s="1"/>
+      <c r="CC71" s="2"/>
+      <c r="CD71" s="1"/>
+      <c r="CE71" s="2"/>
+      <c r="CF71" s="1"/>
+      <c r="CG71" s="2"/>
+      <c r="CH71" s="1"/>
+      <c r="CI71" s="2"/>
+      <c r="CJ71" s="1"/>
+      <c r="CK71" s="2"/>
+      <c r="CL71" s="1"/>
+      <c r="CM71" s="2"/>
+      <c r="CN71" s="1"/>
+      <c r="CO71" s="2"/>
+      <c r="CP71" s="1"/>
+      <c r="CQ71" s="2"/>
+      <c r="CR71" s="1"/>
+      <c r="CS71" s="2"/>
+      <c r="CT71" s="1"/>
+      <c r="CU71" s="2"/>
+      <c r="CV71" s="1"/>
+      <c r="CW71" s="2"/>
+      <c r="CX71" s="1"/>
+      <c r="CY71" s="2"/>
+      <c r="CZ71" s="1"/>
+      <c r="DA71" s="2"/>
+      <c r="DB71" s="1"/>
+      <c r="DC71" s="2"/>
+    </row>
+    <row r="73" spans="2:107" ht="3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B73" s="1"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="2"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="2"/>
+      <c r="N73" s="1"/>
+      <c r="O73" s="2"/>
+      <c r="P73" s="1"/>
+      <c r="Q73" s="2"/>
+      <c r="R73" s="1"/>
+      <c r="S73" s="2"/>
+      <c r="T73" s="1"/>
+      <c r="U73" s="2"/>
+      <c r="V73" s="1"/>
+      <c r="W73" s="2"/>
+      <c r="X73" s="1"/>
+      <c r="Y73" s="2"/>
+      <c r="Z73" s="1"/>
+      <c r="AA73" s="2"/>
+      <c r="AB73" s="1"/>
+      <c r="AC73" s="2"/>
+      <c r="AD73" s="1"/>
+      <c r="AE73" s="2"/>
+      <c r="AF73" s="1"/>
+      <c r="AG73" s="2"/>
+      <c r="AH73" s="1"/>
+      <c r="AI73" s="2"/>
+      <c r="AJ73" s="1"/>
+      <c r="AK73" s="2"/>
+      <c r="AL73" s="1"/>
+      <c r="AM73" s="2"/>
+      <c r="AN73" s="1"/>
+      <c r="AO73" s="2"/>
+      <c r="AP73" s="1"/>
+      <c r="AQ73" s="2"/>
+      <c r="AR73" s="1"/>
+      <c r="AS73" s="2"/>
+      <c r="AT73" s="1"/>
+      <c r="AU73" s="2"/>
+      <c r="AV73" s="1"/>
+      <c r="AW73" s="2"/>
+      <c r="AX73" s="1"/>
+      <c r="AY73" s="2"/>
+      <c r="AZ73" s="1"/>
+      <c r="BA73" s="2"/>
+      <c r="BD73" s="1"/>
+      <c r="BE73" s="2"/>
+      <c r="BF73" s="1"/>
+      <c r="BG73" s="2"/>
+      <c r="BH73" s="1"/>
+      <c r="BI73" s="2"/>
+      <c r="BJ73" s="1"/>
+      <c r="BK73" s="2"/>
+      <c r="BL73" s="1"/>
+      <c r="BM73" s="2"/>
+      <c r="BN73" s="1"/>
+      <c r="BO73" s="2"/>
+      <c r="BP73" s="1"/>
+      <c r="BQ73" s="2"/>
+      <c r="BR73" s="1"/>
+      <c r="BS73" s="2"/>
+      <c r="BT73" s="1"/>
+      <c r="BU73" s="2"/>
+      <c r="BV73" s="1"/>
+      <c r="BW73" s="2"/>
+      <c r="BX73" s="1"/>
+      <c r="BY73" s="2"/>
+      <c r="BZ73" s="1"/>
+      <c r="CA73" s="2"/>
+      <c r="CB73" s="1"/>
+      <c r="CC73" s="2"/>
+      <c r="CD73" s="1"/>
+      <c r="CE73" s="2"/>
+      <c r="CF73" s="1"/>
+      <c r="CG73" s="2"/>
+      <c r="CH73" s="1"/>
+      <c r="CI73" s="2"/>
+      <c r="CJ73" s="1"/>
+      <c r="CK73" s="2"/>
+      <c r="CL73" s="1"/>
+      <c r="CM73" s="2"/>
+      <c r="CN73" s="1"/>
+      <c r="CO73" s="2"/>
+      <c r="CP73" s="1"/>
+      <c r="CQ73" s="2"/>
+      <c r="CR73" s="1"/>
+      <c r="CS73" s="2"/>
+      <c r="CT73" s="1"/>
+      <c r="CU73" s="2"/>
+      <c r="CV73" s="1"/>
+      <c r="CW73" s="2"/>
+      <c r="CX73" s="1"/>
+      <c r="CY73" s="2"/>
+      <c r="CZ73" s="1"/>
+      <c r="DA73" s="2"/>
+      <c r="DB73" s="1"/>
+      <c r="DC73" s="2"/>
+    </row>
+    <row r="75" spans="2:107" ht="3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B75" s="1"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="2"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="2"/>
+      <c r="N75" s="1"/>
+      <c r="O75" s="2"/>
+      <c r="P75" s="1"/>
+      <c r="Q75" s="2"/>
+      <c r="R75" s="1"/>
+      <c r="S75" s="2"/>
+      <c r="T75" s="1"/>
+      <c r="U75" s="2"/>
+      <c r="V75" s="1"/>
+      <c r="W75" s="2"/>
+      <c r="X75" s="1"/>
+      <c r="Y75" s="2"/>
+      <c r="Z75" s="1"/>
+      <c r="AA75" s="2"/>
+      <c r="AB75" s="1"/>
+      <c r="AC75" s="2"/>
+      <c r="AD75" s="1"/>
+      <c r="AE75" s="2"/>
+      <c r="AF75" s="1"/>
+      <c r="AG75" s="2"/>
+      <c r="AH75" s="1"/>
+      <c r="AI75" s="2"/>
+      <c r="AJ75" s="1"/>
+      <c r="AK75" s="2"/>
+      <c r="AL75" s="1"/>
+      <c r="AM75" s="2"/>
+      <c r="AN75" s="1"/>
+      <c r="AO75" s="2"/>
+      <c r="AP75" s="1"/>
+      <c r="AQ75" s="2"/>
+      <c r="AR75" s="1"/>
+      <c r="AS75" s="2"/>
+      <c r="AT75" s="1"/>
+      <c r="AU75" s="2"/>
+      <c r="AV75" s="1"/>
+      <c r="AW75" s="2"/>
+      <c r="AX75" s="1"/>
+      <c r="AY75" s="2"/>
+      <c r="AZ75" s="1"/>
+      <c r="BA75" s="2"/>
+      <c r="BD75" s="1"/>
+      <c r="BE75" s="2"/>
+      <c r="BF75" s="1"/>
+      <c r="BG75" s="2"/>
+      <c r="BH75" s="1"/>
+      <c r="BI75" s="2"/>
+      <c r="BJ75" s="1"/>
+      <c r="BK75" s="2"/>
+      <c r="BL75" s="1"/>
+      <c r="BM75" s="2"/>
+      <c r="BN75" s="1"/>
+      <c r="BO75" s="2"/>
+      <c r="BP75" s="1"/>
+      <c r="BQ75" s="2"/>
+      <c r="BR75" s="1"/>
+      <c r="BS75" s="2"/>
+      <c r="BT75" s="1"/>
+      <c r="BU75" s="2"/>
+      <c r="BV75" s="1"/>
+      <c r="BW75" s="2"/>
+      <c r="BX75" s="1"/>
+      <c r="BY75" s="2"/>
+      <c r="BZ75" s="1"/>
+      <c r="CA75" s="2"/>
+      <c r="CB75" s="1"/>
+      <c r="CC75" s="2"/>
+      <c r="CD75" s="1"/>
+      <c r="CE75" s="2"/>
+      <c r="CF75" s="1"/>
+      <c r="CG75" s="2"/>
+      <c r="CH75" s="1"/>
+      <c r="CI75" s="2"/>
+      <c r="CJ75" s="1"/>
+      <c r="CK75" s="2"/>
+      <c r="CL75" s="1"/>
+      <c r="CM75" s="2"/>
+      <c r="CN75" s="1"/>
+      <c r="CO75" s="2"/>
+      <c r="CP75" s="1"/>
+      <c r="CQ75" s="2"/>
+      <c r="CR75" s="1"/>
+      <c r="CS75" s="2"/>
+      <c r="CT75" s="1"/>
+      <c r="CU75" s="2"/>
+      <c r="CV75" s="1"/>
+      <c r="CW75" s="2"/>
+      <c r="CX75" s="1"/>
+      <c r="CY75" s="2"/>
+      <c r="CZ75" s="1"/>
+      <c r="DA75" s="2"/>
+      <c r="DB75" s="1"/>
+      <c r="DC75" s="2"/>
+    </row>
+    <row r="77" spans="2:107" ht="3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B77" s="1"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="2"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="2"/>
+      <c r="N77" s="1"/>
+      <c r="O77" s="2"/>
+      <c r="P77" s="1"/>
+      <c r="Q77" s="2"/>
+      <c r="R77" s="1"/>
+      <c r="S77" s="2"/>
+      <c r="T77" s="1"/>
+      <c r="U77" s="2"/>
+      <c r="V77" s="1"/>
+      <c r="W77" s="2"/>
+      <c r="X77" s="1"/>
+      <c r="Y77" s="2"/>
+      <c r="Z77" s="1"/>
+      <c r="AA77" s="2"/>
+      <c r="AB77" s="1"/>
+      <c r="AC77" s="2"/>
+      <c r="AD77" s="1"/>
+      <c r="AE77" s="2"/>
+      <c r="AF77" s="1"/>
+      <c r="AG77" s="2"/>
+      <c r="AH77" s="1"/>
+      <c r="AI77" s="2"/>
+      <c r="AJ77" s="1"/>
+      <c r="AK77" s="2"/>
+      <c r="AL77" s="1"/>
+      <c r="AM77" s="2"/>
+      <c r="AN77" s="1"/>
+      <c r="AO77" s="2"/>
+      <c r="AP77" s="1"/>
+      <c r="AQ77" s="2"/>
+      <c r="AR77" s="1"/>
+      <c r="AS77" s="2"/>
+      <c r="AT77" s="1"/>
+      <c r="AU77" s="2"/>
+      <c r="AV77" s="1"/>
+      <c r="AW77" s="2"/>
+      <c r="AX77" s="1"/>
+      <c r="AY77" s="2"/>
+      <c r="AZ77" s="1"/>
+      <c r="BA77" s="2"/>
+      <c r="BD77" s="1"/>
+      <c r="BE77" s="2"/>
+      <c r="BF77" s="1"/>
+      <c r="BG77" s="2"/>
+      <c r="BH77" s="1"/>
+      <c r="BI77" s="2"/>
+      <c r="BJ77" s="1"/>
+      <c r="BK77" s="2"/>
+      <c r="BL77" s="1"/>
+      <c r="BM77" s="2"/>
+      <c r="BN77" s="1"/>
+      <c r="BO77" s="2"/>
+      <c r="BP77" s="1"/>
+      <c r="BQ77" s="2"/>
+      <c r="BR77" s="1"/>
+      <c r="BS77" s="2"/>
+      <c r="BT77" s="1"/>
+      <c r="BU77" s="2"/>
+      <c r="BV77" s="1"/>
+      <c r="BW77" s="2"/>
+      <c r="BX77" s="1"/>
+      <c r="BY77" s="2"/>
+      <c r="BZ77" s="1"/>
+      <c r="CA77" s="2"/>
+      <c r="CB77" s="1"/>
+      <c r="CC77" s="2"/>
+      <c r="CD77" s="1"/>
+      <c r="CE77" s="2"/>
+      <c r="CF77" s="1"/>
+      <c r="CG77" s="2"/>
+      <c r="CH77" s="1"/>
+      <c r="CI77" s="2"/>
+      <c r="CJ77" s="1"/>
+      <c r="CK77" s="2"/>
+      <c r="CL77" s="1"/>
+      <c r="CM77" s="2"/>
+      <c r="CN77" s="1"/>
+      <c r="CO77" s="2"/>
+      <c r="CP77" s="1"/>
+      <c r="CQ77" s="2"/>
+      <c r="CR77" s="1"/>
+      <c r="CS77" s="2"/>
+      <c r="CT77" s="1"/>
+      <c r="CU77" s="2"/>
+      <c r="CV77" s="1"/>
+      <c r="CW77" s="2"/>
+      <c r="CX77" s="1"/>
+      <c r="CY77" s="2"/>
+      <c r="CZ77" s="1"/>
+      <c r="DA77" s="2"/>
+      <c r="DB77" s="1"/>
+      <c r="DC77" s="2"/>
+    </row>
+    <row r="79" spans="2:107" ht="3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B79" s="1"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="2"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="2"/>
+      <c r="N79" s="1"/>
+      <c r="O79" s="2"/>
+      <c r="P79" s="1"/>
+      <c r="Q79" s="2"/>
+      <c r="R79" s="1"/>
+      <c r="S79" s="2"/>
+      <c r="T79" s="1"/>
+      <c r="U79" s="2"/>
+      <c r="V79" s="1"/>
+      <c r="W79" s="2"/>
+      <c r="X79" s="1"/>
+      <c r="Y79" s="2"/>
+      <c r="Z79" s="1"/>
+      <c r="AA79" s="2"/>
+      <c r="AB79" s="1"/>
+      <c r="AC79" s="2"/>
+      <c r="AD79" s="1"/>
+      <c r="AE79" s="2"/>
+      <c r="AF79" s="1"/>
+      <c r="AG79" s="2"/>
+      <c r="AH79" s="1"/>
+      <c r="AI79" s="2"/>
+      <c r="AJ79" s="1"/>
+      <c r="AK79" s="2"/>
+      <c r="AL79" s="1"/>
+      <c r="AM79" s="2"/>
+      <c r="AN79" s="1"/>
+      <c r="AO79" s="2"/>
+      <c r="AP79" s="1"/>
+      <c r="AQ79" s="2"/>
+      <c r="AR79" s="1"/>
+      <c r="AS79" s="2"/>
+      <c r="AT79" s="1"/>
+      <c r="AU79" s="2"/>
+      <c r="AV79" s="1"/>
+      <c r="AW79" s="2"/>
+      <c r="AX79" s="1"/>
+      <c r="AY79" s="2"/>
+      <c r="AZ79" s="1"/>
+      <c r="BA79" s="2"/>
+      <c r="BD79" s="1"/>
+      <c r="BE79" s="2"/>
+      <c r="BF79" s="1"/>
+      <c r="BG79" s="2"/>
+      <c r="BH79" s="1"/>
+      <c r="BI79" s="2"/>
+      <c r="BJ79" s="1"/>
+      <c r="BK79" s="2"/>
+      <c r="BL79" s="1"/>
+      <c r="BM79" s="2"/>
+      <c r="BN79" s="1"/>
+      <c r="BO79" s="2"/>
+      <c r="BP79" s="1"/>
+      <c r="BQ79" s="2"/>
+      <c r="BR79" s="1"/>
+      <c r="BS79" s="2"/>
+      <c r="BT79" s="1"/>
+      <c r="BU79" s="2"/>
+      <c r="BV79" s="1"/>
+      <c r="BW79" s="2"/>
+      <c r="BX79" s="1"/>
+      <c r="BY79" s="2"/>
+      <c r="BZ79" s="1"/>
+      <c r="CA79" s="2"/>
+      <c r="CB79" s="1"/>
+      <c r="CC79" s="2"/>
+      <c r="CD79" s="1"/>
+      <c r="CE79" s="2"/>
+      <c r="CF79" s="1"/>
+      <c r="CG79" s="2"/>
+      <c r="CH79" s="1"/>
+      <c r="CI79" s="2"/>
+      <c r="CJ79" s="1"/>
+      <c r="CK79" s="2"/>
+      <c r="CL79" s="1"/>
+      <c r="CM79" s="2"/>
+      <c r="CN79" s="1"/>
+      <c r="CO79" s="2"/>
+      <c r="CP79" s="1"/>
+      <c r="CQ79" s="2"/>
+      <c r="CR79" s="1"/>
+      <c r="CS79" s="2"/>
+      <c r="CT79" s="1"/>
+      <c r="CU79" s="2"/>
+      <c r="CV79" s="1"/>
+      <c r="CW79" s="2"/>
+      <c r="CX79" s="1"/>
+      <c r="CY79" s="2"/>
+      <c r="CZ79" s="1"/>
+      <c r="DA79" s="2"/>
+      <c r="DB79" s="1"/>
+      <c r="DC79" s="2"/>
+    </row>
+    <row r="81" spans="2:107" ht="3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B81" s="1"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="2"/>
+      <c r="J81" s="1"/>
+      <c r="K81" s="2"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="2"/>
+      <c r="N81" s="1"/>
+      <c r="O81" s="2"/>
+      <c r="P81" s="1"/>
+      <c r="Q81" s="2"/>
+      <c r="R81" s="1"/>
+      <c r="S81" s="2"/>
+      <c r="T81" s="1"/>
+      <c r="U81" s="2"/>
+      <c r="V81" s="1"/>
+      <c r="W81" s="2"/>
+      <c r="X81" s="1"/>
+      <c r="Y81" s="2"/>
+      <c r="Z81" s="1"/>
+      <c r="AA81" s="2"/>
+      <c r="AB81" s="1"/>
+      <c r="AC81" s="2"/>
+      <c r="AD81" s="1"/>
+      <c r="AE81" s="2"/>
+      <c r="AF81" s="1"/>
+      <c r="AG81" s="2"/>
+      <c r="AH81" s="1"/>
+      <c r="AI81" s="2"/>
+      <c r="AJ81" s="1"/>
+      <c r="AK81" s="2"/>
+      <c r="AL81" s="1"/>
+      <c r="AM81" s="2"/>
+      <c r="AN81" s="1"/>
+      <c r="AO81" s="2"/>
+      <c r="AP81" s="1"/>
+      <c r="AQ81" s="2"/>
+      <c r="AR81" s="1"/>
+      <c r="AS81" s="2"/>
+      <c r="AT81" s="1"/>
+      <c r="AU81" s="2"/>
+      <c r="AV81" s="1"/>
+      <c r="AW81" s="2"/>
+      <c r="AX81" s="1"/>
+      <c r="AY81" s="2"/>
+      <c r="AZ81" s="1"/>
+      <c r="BA81" s="2"/>
+      <c r="BD81" s="1"/>
+      <c r="BE81" s="2"/>
+      <c r="BF81" s="1"/>
+      <c r="BG81" s="2"/>
+      <c r="BH81" s="1"/>
+      <c r="BI81" s="2"/>
+      <c r="BJ81" s="1"/>
+      <c r="BK81" s="2"/>
+      <c r="BL81" s="1"/>
+      <c r="BM81" s="2"/>
+      <c r="BN81" s="1"/>
+      <c r="BO81" s="2"/>
+      <c r="BP81" s="1"/>
+      <c r="BQ81" s="2"/>
+      <c r="BR81" s="1"/>
+      <c r="BS81" s="2"/>
+      <c r="BT81" s="1"/>
+      <c r="BU81" s="2"/>
+      <c r="BV81" s="1"/>
+      <c r="BW81" s="2"/>
+      <c r="BX81" s="1"/>
+      <c r="BY81" s="2"/>
+      <c r="BZ81" s="1"/>
+      <c r="CA81" s="2"/>
+      <c r="CB81" s="1"/>
+      <c r="CC81" s="2"/>
+      <c r="CD81" s="1"/>
+      <c r="CE81" s="2"/>
+      <c r="CF81" s="1"/>
+      <c r="CG81" s="2"/>
+      <c r="CH81" s="1"/>
+      <c r="CI81" s="2"/>
+      <c r="CJ81" s="1"/>
+      <c r="CK81" s="2"/>
+      <c r="CL81" s="1"/>
+      <c r="CM81" s="2"/>
+      <c r="CN81" s="1"/>
+      <c r="CO81" s="2"/>
+      <c r="CP81" s="1"/>
+      <c r="CQ81" s="2"/>
+      <c r="CR81" s="1"/>
+      <c r="CS81" s="2"/>
+      <c r="CT81" s="1"/>
+      <c r="CU81" s="2"/>
+      <c r="CV81" s="1"/>
+      <c r="CW81" s="2"/>
+      <c r="CX81" s="1"/>
+      <c r="CY81" s="2"/>
+      <c r="CZ81" s="1"/>
+      <c r="DA81" s="2"/>
+      <c r="DB81" s="1"/>
+      <c r="DC81" s="2"/>
+    </row>
+    <row r="83" spans="2:107" ht="3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B83" s="1"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="2"/>
+      <c r="J83" s="1"/>
+      <c r="K83" s="2"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="2"/>
+      <c r="N83" s="1"/>
+      <c r="O83" s="2"/>
+      <c r="P83" s="1"/>
+      <c r="Q83" s="2"/>
+      <c r="R83" s="1"/>
+      <c r="S83" s="2"/>
+      <c r="T83" s="1"/>
+      <c r="U83" s="2"/>
+      <c r="V83" s="1"/>
+      <c r="W83" s="2"/>
+      <c r="X83" s="1"/>
+      <c r="Y83" s="2"/>
+      <c r="Z83" s="1"/>
+      <c r="AA83" s="2"/>
+      <c r="AB83" s="1"/>
+      <c r="AC83" s="2"/>
+      <c r="AD83" s="1"/>
+      <c r="AE83" s="2"/>
+      <c r="AF83" s="1"/>
+      <c r="AG83" s="2"/>
+      <c r="AH83" s="1"/>
+      <c r="AI83" s="2"/>
+      <c r="AJ83" s="1"/>
+      <c r="AK83" s="2"/>
+      <c r="AL83" s="1"/>
+      <c r="AM83" s="2"/>
+      <c r="AN83" s="1"/>
+      <c r="AO83" s="2"/>
+      <c r="AP83" s="1"/>
+      <c r="AQ83" s="2"/>
+      <c r="AR83" s="1"/>
+      <c r="AS83" s="2"/>
+      <c r="AT83" s="1"/>
+      <c r="AU83" s="2"/>
+      <c r="AV83" s="1"/>
+      <c r="AW83" s="2"/>
+      <c r="AX83" s="1"/>
+      <c r="AY83" s="2"/>
+      <c r="AZ83" s="1"/>
+      <c r="BA83" s="2"/>
+      <c r="BD83" s="1"/>
+      <c r="BE83" s="2"/>
+      <c r="BF83" s="1"/>
+      <c r="BG83" s="2"/>
+      <c r="BH83" s="1"/>
+      <c r="BI83" s="2"/>
+      <c r="BJ83" s="1"/>
+      <c r="BK83" s="2"/>
+      <c r="BL83" s="1"/>
+      <c r="BM83" s="2"/>
+      <c r="BN83" s="1"/>
+      <c r="BO83" s="2"/>
+      <c r="BP83" s="1"/>
+      <c r="BQ83" s="2"/>
+      <c r="BR83" s="1"/>
+      <c r="BS83" s="2"/>
+      <c r="BT83" s="1"/>
+      <c r="BU83" s="2"/>
+      <c r="BV83" s="1"/>
+      <c r="BW83" s="2"/>
+      <c r="BX83" s="1"/>
+      <c r="BY83" s="2"/>
+      <c r="BZ83" s="1"/>
+      <c r="CA83" s="2"/>
+      <c r="CB83" s="1"/>
+      <c r="CC83" s="2"/>
+      <c r="CD83" s="1"/>
+      <c r="CE83" s="2"/>
+      <c r="CF83" s="1"/>
+      <c r="CG83" s="2"/>
+      <c r="CH83" s="1"/>
+      <c r="CI83" s="2"/>
+      <c r="CJ83" s="1"/>
+      <c r="CK83" s="2"/>
+      <c r="CL83" s="1"/>
+      <c r="CM83" s="2"/>
+      <c r="CN83" s="1"/>
+      <c r="CO83" s="2"/>
+      <c r="CP83" s="1"/>
+      <c r="CQ83" s="2"/>
+      <c r="CR83" s="1"/>
+      <c r="CS83" s="2"/>
+      <c r="CT83" s="1"/>
+      <c r="CU83" s="2"/>
+      <c r="CV83" s="1"/>
+      <c r="CW83" s="2"/>
+      <c r="CX83" s="1"/>
+      <c r="CY83" s="2"/>
+      <c r="CZ83" s="1"/>
+      <c r="DA83" s="2"/>
+      <c r="DB83" s="1"/>
+      <c r="DC83" s="2"/>
+    </row>
+    <row r="85" spans="2:107" ht="3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B85" s="1"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="2"/>
+      <c r="J85" s="1"/>
+      <c r="K85" s="2"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="2"/>
+      <c r="N85" s="1"/>
+      <c r="O85" s="2"/>
+      <c r="P85" s="1"/>
+      <c r="Q85" s="2"/>
+      <c r="R85" s="1"/>
+      <c r="S85" s="2"/>
+      <c r="T85" s="1"/>
+      <c r="U85" s="2"/>
+      <c r="V85" s="1"/>
+      <c r="W85" s="2"/>
+      <c r="X85" s="1"/>
+      <c r="Y85" s="2"/>
+      <c r="Z85" s="1"/>
+      <c r="AA85" s="2"/>
+      <c r="AB85" s="1"/>
+      <c r="AC85" s="2"/>
+      <c r="AD85" s="1"/>
+      <c r="AE85" s="2"/>
+      <c r="AF85" s="1"/>
+      <c r="AG85" s="2"/>
+      <c r="AH85" s="1"/>
+      <c r="AI85" s="2"/>
+      <c r="AJ85" s="1"/>
+      <c r="AK85" s="2"/>
+      <c r="AL85" s="1"/>
+      <c r="AM85" s="2"/>
+      <c r="AN85" s="1"/>
+      <c r="AO85" s="2"/>
+      <c r="AP85" s="1"/>
+      <c r="AQ85" s="2"/>
+      <c r="AR85" s="1"/>
+      <c r="AS85" s="2"/>
+      <c r="AT85" s="1"/>
+      <c r="AU85" s="2"/>
+      <c r="AV85" s="1"/>
+      <c r="AW85" s="2"/>
+      <c r="AX85" s="1"/>
+      <c r="AY85" s="2"/>
+      <c r="AZ85" s="1"/>
+      <c r="BA85" s="2"/>
+      <c r="BD85" s="1"/>
+      <c r="BE85" s="2"/>
+      <c r="BF85" s="1"/>
+      <c r="BG85" s="2"/>
+      <c r="BH85" s="1"/>
+      <c r="BI85" s="2"/>
+      <c r="BJ85" s="1"/>
+      <c r="BK85" s="2"/>
+      <c r="BL85" s="1"/>
+      <c r="BM85" s="2"/>
+      <c r="BN85" s="1"/>
+      <c r="BO85" s="2"/>
+      <c r="BP85" s="1"/>
+      <c r="BQ85" s="2"/>
+      <c r="BR85" s="1"/>
+      <c r="BS85" s="2"/>
+      <c r="BT85" s="1"/>
+      <c r="BU85" s="2"/>
+      <c r="BV85" s="1"/>
+      <c r="BW85" s="2"/>
+      <c r="BX85" s="1"/>
+      <c r="BY85" s="2"/>
+      <c r="BZ85" s="1"/>
+      <c r="CA85" s="2"/>
+      <c r="CB85" s="1"/>
+      <c r="CC85" s="2"/>
+      <c r="CD85" s="1"/>
+      <c r="CE85" s="2"/>
+      <c r="CF85" s="1"/>
+      <c r="CG85" s="2"/>
+      <c r="CH85" s="1"/>
+      <c r="CI85" s="2"/>
+      <c r="CJ85" s="1"/>
+      <c r="CK85" s="2"/>
+      <c r="CL85" s="1"/>
+      <c r="CM85" s="2"/>
+      <c r="CN85" s="1"/>
+      <c r="CO85" s="2"/>
+      <c r="CP85" s="1"/>
+      <c r="CQ85" s="2"/>
+      <c r="CR85" s="1"/>
+      <c r="CS85" s="2"/>
+      <c r="CT85" s="1"/>
+      <c r="CU85" s="2"/>
+      <c r="CV85" s="1"/>
+      <c r="CW85" s="2"/>
+      <c r="CX85" s="1"/>
+      <c r="CY85" s="2"/>
+      <c r="CZ85" s="1"/>
+      <c r="DA85" s="2"/>
+      <c r="DB85" s="1"/>
+      <c r="DC85" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
